--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -118,10 +118,10 @@
     <t>Newtown</t>
   </si>
   <si>
-    <t>TNS</t>
+    <t>Airbus UK</t>
   </si>
   <si>
-    <t>Airbus UK</t>
+    <t>TNS</t>
   </si>
   <si>
     <t>Bala Town</t>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6087653</v>
+        <v>5231682</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,73 +1159,73 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>1.125</v>
+        <v>8</v>
       </c>
       <c r="L8">
+        <v>6.5</v>
+      </c>
+      <c r="M8">
+        <v>1.2</v>
+      </c>
+      <c r="N8">
         <v>8</v>
       </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>1.071</v>
-      </c>
       <c r="O8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>23</v>
+        <v>1.222</v>
       </c>
       <c r="Q8">
-        <v>-2.75</v>
+        <v>1.75</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB8">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5231682</v>
+        <v>6087653</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>1.125</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>1.071</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>-2.75</v>
+      </c>
+      <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>6.5</v>
-      </c>
-      <c r="M9">
-        <v>1.2</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>1.222</v>
-      </c>
-      <c r="Q9">
-        <v>1.75</v>
-      </c>
-      <c r="R9">
+      <c r="T9">
+        <v>3.75</v>
+      </c>
+      <c r="U9">
+        <v>1.825</v>
+      </c>
+      <c r="V9">
         <v>1.975</v>
       </c>
-      <c r="S9">
-        <v>1.825</v>
-      </c>
-      <c r="T9">
-        <v>3.25</v>
-      </c>
-      <c r="U9">
-        <v>1.9</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0.4125</v>
+      </c>
+      <c r="AC9">
         <v>-0.5</v>
-      </c>
-      <c r="AA9">
-        <v>0.4125</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>44936.69791666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
@@ -1604,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6141997</v>
+        <v>6027054</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,13 +1779,13 @@
         <v>44947.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1794,34 +1794,34 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>2.625</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.925</v>
@@ -1830,7 +1830,7 @@
         <v>1.875</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>1.375</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1839,10 +1839,10 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6027054</v>
+        <v>6141997</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,13 +1957,13 @@
         <v>44947.59375</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1972,34 +1972,34 @@
         <v>43</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="L17">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>2.625</v>
+        <v>13</v>
       </c>
       <c r="N17">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -2008,7 +2008,7 @@
         <v>1.875</v>
       </c>
       <c r="W17">
-        <v>1.375</v>
+        <v>0.25</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,10 +2017,10 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
         <v>0.925</v>
@@ -2135,7 +2135,7 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2316,7 +2316,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2936,7 +2936,7 @@
         <v>44974.69791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3203,7 +3203,7 @@
         <v>44975.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6212834</v>
+        <v>6212835</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,73 +3381,73 @@
         <v>44981.69791666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y33">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6212835</v>
+        <v>6212834</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,73 +3470,73 @@
         <v>44981.69791666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>2.625</v>
+      </c>
+      <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
+        <v>2.25</v>
+      </c>
+      <c r="N34">
+        <v>4.75</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>1.5</v>
+      </c>
+      <c r="Q34">
+        <v>0.25</v>
+      </c>
+      <c r="R34">
+        <v>1.9</v>
+      </c>
+      <c r="S34">
+        <v>1.9</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>1.8</v>
+      </c>
+      <c r="V34">
         <v>2</v>
       </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34">
-        <v>1.909</v>
-      </c>
-      <c r="L34">
-        <v>3.5</v>
-      </c>
-      <c r="M34">
-        <v>3.4</v>
-      </c>
-      <c r="N34">
-        <v>2.375</v>
-      </c>
-      <c r="O34">
-        <v>3.4</v>
-      </c>
-      <c r="P34">
-        <v>2.6</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>1.775</v>
-      </c>
-      <c r="S34">
-        <v>2.025</v>
-      </c>
-      <c r="T34">
-        <v>2.75</v>
-      </c>
-      <c r="U34">
-        <v>1.95</v>
-      </c>
-      <c r="V34">
-        <v>1.85</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>44982.40625</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6212806</v>
+        <v>6212836</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,58 +3737,58 @@
         <v>44982.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>43</v>
       </c>
       <c r="K37">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
+        <v>2.1</v>
+      </c>
+      <c r="N37">
+        <v>2.7</v>
+      </c>
+      <c r="O37">
+        <v>3.2</v>
+      </c>
+      <c r="P37">
         <v>2.4</v>
       </c>
-      <c r="N37">
-        <v>3.1</v>
-      </c>
-      <c r="O37">
-        <v>3.4</v>
-      </c>
-      <c r="P37">
-        <v>2.05</v>
-      </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6212836</v>
+        <v>6212806</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,59 +3826,59 @@
         <v>44982.47916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>2</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>43</v>
       </c>
       <c r="K38">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
+        <v>2.4</v>
+      </c>
+      <c r="N38">
+        <v>3.1</v>
+      </c>
+      <c r="O38">
+        <v>3.4</v>
+      </c>
+      <c r="P38">
+        <v>2.05</v>
+      </c>
+      <c r="Q38">
+        <v>0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
+        <v>1.825</v>
+      </c>
+      <c r="T38">
+        <v>2.5</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
+        <v>1.85</v>
+      </c>
+      <c r="W38">
         <v>2.1</v>
       </c>
-      <c r="N38">
-        <v>2.7</v>
-      </c>
-      <c r="O38">
-        <v>3.2</v>
-      </c>
-      <c r="P38">
-        <v>2.4</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>2.025</v>
-      </c>
-      <c r="S38">
-        <v>1.775</v>
-      </c>
-      <c r="T38">
-        <v>2.25</v>
-      </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.9</v>
-      </c>
-      <c r="W38">
-        <v>1.7</v>
-      </c>
       <c r="X38">
         <v>-1</v>
       </c>
@@ -3886,13 +3886,13 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4185,7 +4185,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4360,7 +4360,7 @@
         <v>44998.6875</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
@@ -4452,7 +4452,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5161,7 +5161,7 @@
         <v>45010.47916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5339,7 +5339,7 @@
         <v>45010.47916666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6212816</v>
+        <v>6212855</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,76 +5517,76 @@
         <v>45016.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>2.625</v>
+        <v>1.111</v>
       </c>
       <c r="L57">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M57">
-        <v>2.5</v>
+        <v>21</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P57">
-        <v>2.7</v>
+        <v>19</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R57">
+        <v>1.925</v>
+      </c>
+      <c r="S57">
+        <v>1.875</v>
+      </c>
+      <c r="T57">
+        <v>3.75</v>
+      </c>
+      <c r="U57">
+        <v>1.95</v>
+      </c>
+      <c r="V57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.875</v>
-      </c>
-      <c r="V57">
-        <v>1.925</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6212817</v>
+        <v>6212816</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,46 +5606,46 @@
         <v>45016.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>2</v>
-      </c>
-      <c r="I58">
-        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="K58">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M58">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N58">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
         <v>2.25</v>
@@ -5663,13 +5663,13 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
         <v>0.875</v>
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6212855</v>
+        <v>6212817</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45016.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="L59">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="O59">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P59">
-        <v>19</v>
+        <v>2.15</v>
       </c>
       <c r="Q59">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
+        <v>1.9</v>
+      </c>
+      <c r="S59">
+        <v>1.9</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>1.875</v>
+      </c>
+      <c r="V59">
         <v>1.925</v>
       </c>
-      <c r="S59">
-        <v>1.875</v>
-      </c>
-      <c r="T59">
-        <v>3.75</v>
-      </c>
-      <c r="U59">
-        <v>1.95</v>
-      </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB59">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6212858</v>
+        <v>6212819</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,19 +6051,19 @@
         <v>45023.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>2</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>1.727</v>
@@ -6075,52 +6075,52 @@
         <v>4.333</v>
       </c>
       <c r="N63">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
+        <v>-0.75</v>
+      </c>
+      <c r="R63">
+        <v>1.775</v>
+      </c>
+      <c r="S63">
+        <v>2.025</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>4.25</v>
+      </c>
+      <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>1.025</v>
+      </c>
+      <c r="AB63">
+        <v>0.4375</v>
+      </c>
+      <c r="AC63">
         <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63">
-        <v>1.8</v>
-      </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
-      <c r="U63">
-        <v>1.975</v>
-      </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
-      <c r="W63">
-        <v>0.909</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>1</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6212819</v>
+        <v>6212858</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,19 +6140,19 @@
         <v>45023.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.727</v>
@@ -6164,52 +6164,52 @@
         <v>4.333</v>
       </c>
       <c r="N64">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6321,7 +6321,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6496,7 +6496,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6588,7 +6588,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
         <v>40</v>
@@ -7386,7 +7386,7 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>39</v>
@@ -8009,7 +8009,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8813,7 +8813,7 @@
         <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6800431</v>
+        <v>6800432</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,67 +8988,67 @@
         <v>45163.65625</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N96">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -9057,7 +9057,7 @@
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9065,7 +9065,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800432</v>
+        <v>6800431</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9077,67 +9077,67 @@
         <v>45163.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M97">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N97">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
+        <v>2.4</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
         <v>1.85</v>
-      </c>
-      <c r="Q97">
-        <v>0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.825</v>
-      </c>
-      <c r="S97">
-        <v>1.975</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -9146,7 +9146,7 @@
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>45164.4375</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>42</v>
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800440</v>
+        <v>6800841</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,76 +9789,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>17</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>1.083</v>
       </c>
       <c r="N105">
-        <v>2.45</v>
+        <v>23</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="P105">
-        <v>2.55</v>
+        <v>1.071</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6800841</v>
+        <v>6800440</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,76 +9878,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106">
+        <v>2.4</v>
+      </c>
+      <c r="L106">
+        <v>3.4</v>
+      </c>
+      <c r="M106">
+        <v>2.625</v>
+      </c>
+      <c r="N106">
+        <v>2.45</v>
+      </c>
+      <c r="O106">
+        <v>3.4</v>
+      </c>
+      <c r="P106">
+        <v>2.55</v>
+      </c>
+      <c r="Q106">
         <v>0</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106" t="s">
-        <v>44</v>
-      </c>
-      <c r="K106">
-        <v>17</v>
-      </c>
-      <c r="L106">
-        <v>11</v>
-      </c>
-      <c r="M106">
-        <v>1.083</v>
-      </c>
-      <c r="N106">
-        <v>23</v>
-      </c>
-      <c r="O106">
-        <v>12</v>
-      </c>
-      <c r="P106">
-        <v>1.071</v>
-      </c>
-      <c r="Q106">
-        <v>3</v>
-      </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y106">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800022</v>
+        <v>6800023</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,73 +10145,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
-        <v>4</v>
-      </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="M109">
-        <v>1.8</v>
+        <v>26</v>
       </c>
       <c r="N109">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="P109">
-        <v>1.909</v>
+        <v>41</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-4.25</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="U109">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800023</v>
+        <v>6800022</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,73 +10234,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="L110">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>26</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="O110">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>41</v>
+        <v>1.909</v>
       </c>
       <c r="Q110">
-        <v>-4.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB110">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800450</v>
+        <v>6800449</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,55 +10679,55 @@
         <v>45178.4375</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="K115">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N115">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q115">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10736,19 +10736,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6800449</v>
+        <v>6800024</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,13 +10768,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>4</v>
@@ -10783,40 +10783,40 @@
         <v>44</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10825,16 +10825,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800024</v>
+        <v>6800450</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,46 +10946,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
+        <v>6.5</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>8</v>
+      </c>
+      <c r="Q118">
+        <v>-1.5</v>
+      </c>
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="N118">
-        <v>3.75</v>
-      </c>
-      <c r="O118">
-        <v>3.8</v>
-      </c>
-      <c r="P118">
-        <v>1.85</v>
-      </c>
-      <c r="Q118">
-        <v>0.5</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.75</v>
@@ -11003,19 +11003,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.8500000000000001</v>
+        <v>7</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11480,7 +11480,7 @@
         <v>45185.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -11661,7 +11661,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12269,7 +12269,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800461</v>
+        <v>6800460</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12281,58 +12281,58 @@
         <v>45195.65625</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
         <v>1</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>43</v>
       </c>
       <c r="K133">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L133">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="M133">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N133">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="O133">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P133">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q133">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
+        <v>1.9</v>
+      </c>
+      <c r="T133">
+        <v>3.25</v>
+      </c>
+      <c r="U133">
         <v>1.925</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.875</v>
       </c>
-      <c r="T133">
-        <v>3</v>
-      </c>
-      <c r="U133">
-        <v>2</v>
-      </c>
-      <c r="V133">
-        <v>1.8</v>
-      </c>
       <c r="W133">
-        <v>0.3</v>
+        <v>0.181</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12344,13 +12344,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6800460</v>
+        <v>6800461</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,58 +12370,58 @@
         <v>45195.65625</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>43</v>
       </c>
       <c r="K134">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L134">
+        <v>5.25</v>
+      </c>
+      <c r="M134">
         <v>5.75</v>
       </c>
-      <c r="M134">
-        <v>7.5</v>
-      </c>
       <c r="N134">
-        <v>1.181</v>
+        <v>1.3</v>
       </c>
       <c r="O134">
+        <v>5.5</v>
+      </c>
+      <c r="P134">
         <v>6</v>
       </c>
-      <c r="P134">
-        <v>12</v>
-      </c>
       <c r="Q134">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
-        <v>0.181</v>
+        <v>0.3</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12433,13 +12433,13 @@
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12904,7 +12904,7 @@
         <v>45199.4375</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>31</v>
@@ -13426,7 +13426,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6800470</v>
+        <v>6800034</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13438,76 +13438,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K146">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="L146">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M146">
-        <v>4.75</v>
+        <v>1.285</v>
       </c>
       <c r="N146">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P146">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13515,7 +13515,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6800034</v>
+        <v>6800033</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13527,40 +13527,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N147">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O147">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>1.222</v>
+        <v>3.3</v>
       </c>
       <c r="Q147">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
         <v>1.975</v>
@@ -13572,28 +13572,28 @@
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6800033</v>
+        <v>6800470</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N148">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q148">
+        <v>-1</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>1.8</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.9</v>
+      </c>
+      <c r="V148">
+        <v>1.9</v>
+      </c>
+      <c r="W148">
+        <v>0.571</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>-0</v>
+      </c>
+      <c r="AB148">
+        <v>0.45</v>
+      </c>
+      <c r="AC148">
         <v>-0.5</v>
-      </c>
-      <c r="R148">
-        <v>1.975</v>
-      </c>
-      <c r="S148">
-        <v>1.825</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
-      <c r="W148">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>0.95</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13871,7 +13871,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6800473</v>
+        <v>6800475</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13883,58 +13883,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
         <v>2</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>43</v>
       </c>
       <c r="K151">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
+        <v>2.375</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151">
+        <v>3</v>
+      </c>
+      <c r="P151">
         <v>2.15</v>
-      </c>
-      <c r="N151">
-        <v>2.875</v>
-      </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>2.1</v>
       </c>
       <c r="Q151">
         <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13943,13 +13943,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6800472</v>
+        <v>6800473</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,58 +13972,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>2</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>43</v>
       </c>
       <c r="K152">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N152">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
         <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>1.6</v>
+        <v>1.875</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14032,16 +14032,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14049,7 +14049,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6800475</v>
+        <v>6800472</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14061,58 +14061,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>43</v>
       </c>
       <c r="K153">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L153">
         <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
       <c r="W153">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14121,16 +14121,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC153">
-        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -15040,7 +15040,7 @@
         <v>45227.55208333334</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
         <v>36</v>
@@ -15129,7 +15129,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>41</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6800042</v>
+        <v>6800486</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K170">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="L170">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N170">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O170">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q170">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
         <v>1.85</v>
       </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6800486</v>
+        <v>6800042</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="L171">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M171">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N171">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P171">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>1.825</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
         <v>1.85</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.95</v>
       </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
       <c r="W171">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.95</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16734,7 +16734,7 @@
         <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6800050</v>
+        <v>6800049</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17354,76 +17354,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K190">
-        <v>1.071</v>
+        <v>2.3</v>
       </c>
       <c r="L190">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>26</v>
+        <v>2.7</v>
       </c>
       <c r="N190">
-        <v>1.083</v>
+        <v>1.95</v>
       </c>
       <c r="O190">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="Q190">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T190">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6800049</v>
+        <v>6800050</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17443,76 +17443,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
         <v>0</v>
       </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K191">
-        <v>2.3</v>
+        <v>1.071</v>
       </c>
       <c r="L191">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="M191">
-        <v>2.7</v>
+        <v>26</v>
       </c>
       <c r="N191">
+        <v>1.083</v>
+      </c>
+      <c r="O191">
+        <v>9.5</v>
+      </c>
+      <c r="P191">
+        <v>26</v>
+      </c>
+      <c r="Q191">
+        <v>-2.5</v>
+      </c>
+      <c r="R191">
+        <v>1.85</v>
+      </c>
+      <c r="S191">
         <v>1.95</v>
       </c>
-      <c r="O191">
-        <v>3.3</v>
-      </c>
-      <c r="P191">
-        <v>3.25</v>
-      </c>
-      <c r="Q191">
-        <v>-0.5</v>
-      </c>
-      <c r="R191">
-        <v>2.025</v>
-      </c>
-      <c r="S191">
-        <v>1.775</v>
-      </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA191">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17713,7 +17713,7 @@
         <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17787,7 +17787,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6800512</v>
+        <v>6800504</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17799,76 +17799,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K195">
         <v>2.4</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P195">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC195">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17876,7 +17876,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6800504</v>
+        <v>6800512</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17888,76 +17888,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>3</v>
-      </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.4</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N196">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O196">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P196">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
         <v>30</v>
@@ -18143,7 +18143,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6800505</v>
+        <v>6800507</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18155,34 +18155,34 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
         <v>2</v>
-      </c>
-      <c r="I199">
-        <v>3</v>
       </c>
       <c r="J199" t="s">
         <v>44</v>
       </c>
       <c r="K199">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N199">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
         <v>1.909</v>
@@ -18191,19 +18191,19 @@
         <v>0.5</v>
       </c>
       <c r="R199">
+        <v>1.9</v>
+      </c>
+      <c r="S199">
+        <v>1.9</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1.8</v>
-      </c>
-      <c r="S199">
-        <v>2</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.85</v>
-      </c>
-      <c r="V199">
-        <v>1.95</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -18218,13 +18218,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB199">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18232,7 +18232,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6800507</v>
+        <v>6800505</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18244,34 +18244,34 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J200" t="s">
         <v>44</v>
       </c>
       <c r="K200">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M200">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N200">
+        <v>3.25</v>
+      </c>
+      <c r="O200">
         <v>3.6</v>
-      </c>
-      <c r="O200">
-        <v>3.4</v>
       </c>
       <c r="P200">
         <v>1.909</v>
@@ -18280,19 +18280,19 @@
         <v>0.5</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -18307,13 +18307,13 @@
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB200">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC200">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18410,7 +18410,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6800515</v>
+        <v>6800514</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18422,76 +18422,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K202">
+        <v>2.05</v>
+      </c>
+      <c r="L202">
+        <v>3.3</v>
+      </c>
+      <c r="M202">
         <v>3.2</v>
       </c>
-      <c r="L202">
-        <v>3.4</v>
-      </c>
-      <c r="M202">
+      <c r="N202">
+        <v>2.375</v>
+      </c>
+      <c r="O202">
+        <v>3.2</v>
+      </c>
+      <c r="P202">
+        <v>2.8</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
         <v>2.05</v>
       </c>
-      <c r="N202">
-        <v>2.45</v>
-      </c>
-      <c r="O202">
-        <v>3.3</v>
-      </c>
-      <c r="P202">
-        <v>2.6</v>
-      </c>
-      <c r="Q202">
-        <v>0</v>
-      </c>
-      <c r="R202">
-        <v>1.85</v>
-      </c>
       <c r="S202">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X202">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC202">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18499,7 +18499,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6800514</v>
+        <v>6800515</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18511,76 +18511,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K203">
+        <v>3.2</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
         <v>2.05</v>
       </c>
-      <c r="L203">
+      <c r="N203">
+        <v>2.45</v>
+      </c>
+      <c r="O203">
         <v>3.3</v>
       </c>
-      <c r="M203">
-        <v>3.2</v>
-      </c>
-      <c r="N203">
-        <v>2.375</v>
-      </c>
-      <c r="O203">
-        <v>3.2</v>
-      </c>
       <c r="P203">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S203">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB203">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18677,7 +18677,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6800052</v>
+        <v>6800516</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18689,76 +18689,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
         <v>0</v>
       </c>
-      <c r="I205">
-        <v>4</v>
-      </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K205">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L205">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N205">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P205">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18766,7 +18766,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6800516</v>
+        <v>6800052</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18778,76 +18778,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N206">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W206">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -19122,7 +19122,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6800053</v>
+        <v>6800518</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19134,40 +19134,40 @@
         <v>45304.59375</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M210">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N210">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
         <v>2.025</v>
@@ -19179,28 +19179,28 @@
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB210">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19211,7 +19211,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6800519</v>
+        <v>6800053</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19223,73 +19223,73 @@
         <v>45304.59375</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
       <c r="I211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L211">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M211">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N211">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O211">
         <v>3.4</v>
       </c>
       <c r="P211">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q211">
         <v>0</v>
       </c>
       <c r="R211">
+        <v>2.025</v>
+      </c>
+      <c r="S211">
+        <v>1.775</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
         <v>1.9</v>
       </c>
-      <c r="S211">
+      <c r="V211">
         <v>1.9</v>
       </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.975</v>
-      </c>
-      <c r="V211">
-        <v>1.825</v>
-      </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y211">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA211">
+        <v>-0</v>
+      </c>
+      <c r="AB211">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB211">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC211">
         <v>-1</v>
@@ -19300,7 +19300,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6800518</v>
+        <v>6800519</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19312,10 +19312,10 @@
         <v>45304.59375</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19327,41 +19327,41 @@
         <v>44</v>
       </c>
       <c r="K212">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N212">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
         <v>1.825</v>
       </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
@@ -19369,16 +19369,16 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB212">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC212">
         <v>-1</v>
@@ -19401,7 +19401,7 @@
         <v>45304.59375</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
         <v>33</v>
@@ -19923,7 +19923,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7721604</v>
+        <v>7721563</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19935,76 +19935,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K219">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L219">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M219">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="N219">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O219">
         <v>3.5</v>
       </c>
       <c r="P219">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q219">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y219">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20012,7 +20012,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7721563</v>
+        <v>7721604</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20024,76 +20024,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K220">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="N220">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O220">
         <v>3.5</v>
       </c>
       <c r="P220">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>1.8</v>
+      </c>
+      <c r="T220">
+        <v>2.75</v>
+      </c>
+      <c r="U220">
         <v>1.9</v>
       </c>
-      <c r="S220">
+      <c r="V220">
         <v>1.9</v>
       </c>
-      <c r="T220">
-        <v>2.25</v>
-      </c>
-      <c r="U220">
-        <v>1.825</v>
-      </c>
-      <c r="V220">
-        <v>1.975</v>
-      </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB220">
+        <v>0.45</v>
+      </c>
+      <c r="AC220">
         <v>-0.5</v>
-      </c>
-      <c r="AC220">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
         <v>33</v>
@@ -20205,7 +20205,7 @@
         <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H222">
         <v>0</v>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -118,10 +118,10 @@
     <t>Newtown</t>
   </si>
   <si>
-    <t>Airbus UK</t>
+    <t>TNS</t>
   </si>
   <si>
-    <t>TNS</t>
+    <t>Airbus UK</t>
   </si>
   <si>
     <t>Bala Town</t>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5231682</v>
+        <v>6087653</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,73 +1159,73 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>1.125</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>1.071</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>23</v>
+      </c>
+      <c r="Q8">
+        <v>-2.75</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>6.5</v>
-      </c>
-      <c r="M8">
-        <v>1.2</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>1.222</v>
-      </c>
-      <c r="Q8">
-        <v>1.75</v>
-      </c>
-      <c r="R8">
+      <c r="T8">
+        <v>3.75</v>
+      </c>
+      <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="S8">
-        <v>1.825</v>
-      </c>
-      <c r="T8">
-        <v>3.25</v>
-      </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
-      <c r="V8">
-        <v>1.9</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0.4125</v>
+      </c>
+      <c r="AC8">
         <v>-0.5</v>
-      </c>
-      <c r="AA8">
-        <v>0.4125</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6087653</v>
+        <v>5231682</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>1.125</v>
+        <v>8</v>
       </c>
       <c r="L9">
+        <v>6.5</v>
+      </c>
+      <c r="M9">
+        <v>1.2</v>
+      </c>
+      <c r="N9">
         <v>8</v>
       </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>1.071</v>
-      </c>
       <c r="O9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>23</v>
+        <v>1.222</v>
       </c>
       <c r="Q9">
-        <v>-2.75</v>
+        <v>1.75</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>44936.69791666666</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
@@ -1604,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6027054</v>
+        <v>6141997</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,13 +1779,13 @@
         <v>44947.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1794,34 +1794,34 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="L15">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>2.625</v>
+        <v>13</v>
       </c>
       <c r="N15">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
         <v>1.925</v>
@@ -1830,7 +1830,7 @@
         <v>1.875</v>
       </c>
       <c r="W15">
-        <v>1.375</v>
+        <v>0.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1839,10 +1839,10 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6141997</v>
+        <v>6027054</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,13 +1957,13 @@
         <v>44947.59375</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1972,34 +1972,34 @@
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>2.625</v>
       </c>
       <c r="N17">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -2008,7 +2008,7 @@
         <v>1.875</v>
       </c>
       <c r="W17">
-        <v>0.25</v>
+        <v>1.375</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,10 +2017,10 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>0.925</v>
@@ -2135,7 +2135,7 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2316,7 +2316,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2936,7 +2936,7 @@
         <v>44974.69791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3203,7 +3203,7 @@
         <v>44975.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3470,7 +3470,7 @@
         <v>44981.69791666666</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3559,7 +3559,7 @@
         <v>44982.40625</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6212836</v>
+        <v>6212806</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,59 +3737,59 @@
         <v>44982.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>2</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>43</v>
       </c>
       <c r="K37">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
+        <v>2.4</v>
+      </c>
+      <c r="N37">
+        <v>3.1</v>
+      </c>
+      <c r="O37">
+        <v>3.4</v>
+      </c>
+      <c r="P37">
+        <v>2.05</v>
+      </c>
+      <c r="Q37">
+        <v>0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.975</v>
+      </c>
+      <c r="S37">
+        <v>1.825</v>
+      </c>
+      <c r="T37">
+        <v>2.5</v>
+      </c>
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
+        <v>1.85</v>
+      </c>
+      <c r="W37">
         <v>2.1</v>
       </c>
-      <c r="N37">
-        <v>2.7</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
-      <c r="P37">
-        <v>2.4</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>2.025</v>
-      </c>
-      <c r="S37">
-        <v>1.775</v>
-      </c>
-      <c r="T37">
-        <v>2.25</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
-      <c r="W37">
-        <v>1.7</v>
-      </c>
       <c r="X37">
         <v>-1</v>
       </c>
@@ -3797,13 +3797,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6212806</v>
+        <v>6212836</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,58 +3826,58 @@
         <v>44982.47916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>43</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
+        <v>2.1</v>
+      </c>
+      <c r="N38">
+        <v>2.7</v>
+      </c>
+      <c r="O38">
+        <v>3.2</v>
+      </c>
+      <c r="P38">
         <v>2.4</v>
       </c>
-      <c r="N38">
-        <v>3.1</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
-        <v>2.05</v>
-      </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3886,13 +3886,13 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4185,7 +4185,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4360,7 +4360,7 @@
         <v>44998.6875</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
@@ -4452,7 +4452,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6212812</v>
+        <v>6212841</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,76 +4627,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
+        <v>2.75</v>
+      </c>
+      <c r="N47">
+        <v>2.2</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
         <v>2.8</v>
       </c>
-      <c r="N47">
-        <v>2.6</v>
-      </c>
-      <c r="O47">
-        <v>3.2</v>
-      </c>
-      <c r="P47">
-        <v>2.5</v>
-      </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y47">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6212841</v>
+        <v>6212812</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,76 +4716,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48">
+        <v>2.3</v>
+      </c>
+      <c r="L48">
+        <v>3.1</v>
+      </c>
+      <c r="M48">
+        <v>2.8</v>
+      </c>
+      <c r="N48">
+        <v>2.6</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.5</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48">
-        <v>2.25</v>
-      </c>
-      <c r="L48">
-        <v>3.5</v>
-      </c>
-      <c r="M48">
-        <v>2.75</v>
-      </c>
-      <c r="N48">
-        <v>2.2</v>
-      </c>
-      <c r="O48">
-        <v>3.3</v>
-      </c>
-      <c r="P48">
-        <v>2.8</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5161,7 +5161,7 @@
         <v>45010.47916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5339,7 +5339,7 @@
         <v>45010.47916666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6212855</v>
+        <v>6212816</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,76 +5517,76 @@
         <v>45016.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57">
+        <v>2.625</v>
+      </c>
+      <c r="L57">
+        <v>3.2</v>
+      </c>
+      <c r="M57">
+        <v>2.5</v>
+      </c>
+      <c r="N57">
+        <v>2.55</v>
+      </c>
+      <c r="O57">
+        <v>3</v>
+      </c>
+      <c r="P57">
+        <v>2.7</v>
+      </c>
+      <c r="Q57">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57">
-        <v>1.111</v>
-      </c>
-      <c r="L57">
-        <v>7.5</v>
-      </c>
-      <c r="M57">
-        <v>21</v>
-      </c>
-      <c r="N57">
-        <v>1.1</v>
-      </c>
-      <c r="O57">
-        <v>8</v>
-      </c>
-      <c r="P57">
-        <v>19</v>
-      </c>
-      <c r="Q57">
-        <v>-2.5</v>
-      </c>
       <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>2.25</v>
+      </c>
+      <c r="U57">
+        <v>1.875</v>
+      </c>
+      <c r="V57">
         <v>1.925</v>
       </c>
-      <c r="S57">
-        <v>1.875</v>
-      </c>
-      <c r="T57">
-        <v>3.75</v>
-      </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
-      <c r="V57">
-        <v>1.85</v>
-      </c>
       <c r="W57">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6212816</v>
+        <v>6212817</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,46 +5606,46 @@
         <v>45016.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="K58">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
         <v>2.25</v>
@@ -5663,13 +5663,13 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
         <v>0.875</v>
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6212817</v>
+        <v>6212855</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45016.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>21</v>
       </c>
       <c r="N59">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="O59">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="P59">
-        <v>2.15</v>
+        <v>19</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6212819</v>
+        <v>6212858</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,19 +6051,19 @@
         <v>45023.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>1.727</v>
@@ -6075,52 +6075,52 @@
         <v>4.333</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6212858</v>
+        <v>6212819</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,19 +6140,19 @@
         <v>45023.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>2</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>1.727</v>
@@ -6164,52 +6164,52 @@
         <v>4.333</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.775</v>
+      </c>
+      <c r="S64">
+        <v>2.025</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
+        <v>1.925</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>4.25</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>1.025</v>
+      </c>
+      <c r="AB64">
+        <v>0.4375</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>2</v>
-      </c>
-      <c r="S64">
-        <v>1.8</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.975</v>
-      </c>
-      <c r="V64">
-        <v>1.825</v>
-      </c>
-      <c r="W64">
-        <v>0.909</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>1</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6321,7 +6321,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6496,7 +6496,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6588,7 +6588,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6212866</v>
+        <v>6212864</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,10 +7119,10 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -7137,40 +7137,40 @@
         <v>2.4</v>
       </c>
       <c r="L75">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
         <v>2.4</v>
       </c>
       <c r="N75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7179,13 +7179,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6212827</v>
+        <v>6212866</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,40 +7208,40 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L76">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="M76">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N76">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>8.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q76">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <v>2</v>
@@ -7250,7 +7250,7 @@
         <v>1.8</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
         <v>1.9</v>
@@ -7259,7 +7259,7 @@
         <v>1.9</v>
       </c>
       <c r="W76">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7285,7 +7285,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6212864</v>
+        <v>6212827</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7297,73 +7297,73 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N77">
+        <v>1.25</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <v>8.5</v>
+      </c>
+      <c r="Q77">
+        <v>-1.75</v>
+      </c>
+      <c r="R77">
         <v>2</v>
       </c>
-      <c r="O77">
-        <v>3.6</v>
-      </c>
-      <c r="P77">
-        <v>2.9</v>
-      </c>
-      <c r="Q77">
-        <v>-0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.825</v>
-      </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
+        <v>0.25</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
         <v>1</v>
       </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>-1</v>
-      </c>
-      <c r="Z77">
-        <v>0.825</v>
-      </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>39</v>
@@ -8009,7 +8009,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6800427</v>
+        <v>6800428</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,13 +8454,13 @@
         <v>45156.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8469,22 +8469,22 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O90">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q90">
         <v>-1.25</v>
@@ -8499,13 +8499,13 @@
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,10 +8520,10 @@
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6800017</v>
+        <v>6800427</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,58 +8543,58 @@
         <v>45156.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N91">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P91">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8603,16 +8603,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6800428</v>
+        <v>6800017</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,58 +8632,58 @@
         <v>45156.65625</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
+        <v>1.85</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="V92">
-        <v>1.85</v>
-      </c>
       <c r="W92">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8692,16 +8692,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6800432</v>
+        <v>6800431</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,67 +8988,67 @@
         <v>45163.65625</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N96">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
+        <v>2.4</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
         <v>1.85</v>
-      </c>
-      <c r="Q96">
-        <v>0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.825</v>
-      </c>
-      <c r="S96">
-        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X96">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -9057,7 +9057,7 @@
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9065,7 +9065,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800431</v>
+        <v>6800432</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9077,67 +9077,67 @@
         <v>45163.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N97">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -9146,7 +9146,7 @@
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800019</v>
+        <v>6800020</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,40 +9166,40 @@
         <v>45164.4375</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>45</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N98">
-        <v>2.15</v>
+        <v>1.055</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P98">
-        <v>2.7</v>
+        <v>29</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R98">
         <v>1.925</v>
@@ -9208,34 +9208,34 @@
         <v>1.875</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800020</v>
+        <v>6800019</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,40 +9255,40 @@
         <v>45164.4375</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>45</v>
       </c>
       <c r="K99">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>1.055</v>
+        <v>2.15</v>
       </c>
       <c r="O99">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>29</v>
+        <v>2.7</v>
       </c>
       <c r="Q99">
-        <v>-3.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
         <v>1.925</v>
@@ -9297,34 +9297,34 @@
         <v>1.875</v>
       </c>
       <c r="T99">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800441</v>
+        <v>6800440</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,73 +9611,73 @@
         <v>45167.65625</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
+        <v>1.875</v>
+      </c>
+      <c r="V103">
         <v>1.925</v>
       </c>
-      <c r="V103">
-        <v>1.875</v>
-      </c>
       <c r="W103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800442</v>
+        <v>6800441</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800841</v>
+        <v>6800442</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,76 +9789,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>17</v>
+        <v>1.833</v>
       </c>
       <c r="L105">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>1.083</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>23</v>
+        <v>1.727</v>
       </c>
       <c r="O105">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>3</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T105">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y105">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6800440</v>
+        <v>6800841</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,76 +9878,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K106">
-        <v>2.4</v>
+        <v>17</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M106">
-        <v>2.625</v>
+        <v>1.083</v>
       </c>
       <c r="N106">
-        <v>2.45</v>
+        <v>23</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>1.071</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800449</v>
+        <v>6800450</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,55 +10679,55 @@
         <v>45178.4375</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="K115">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P115">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R115">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10736,19 +10736,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6800024</v>
+        <v>6800449</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,13 +10768,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>4</v>
@@ -10783,40 +10783,40 @@
         <v>44</v>
       </c>
       <c r="K116">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N116">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T116">
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10825,16 +10825,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800450</v>
+        <v>6800024</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,46 +10946,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="O118">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="Q118">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>2.75</v>
@@ -11003,19 +11003,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11480,7 +11480,7 @@
         <v>45185.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -11661,7 +11661,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12180,7 +12180,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800462</v>
+        <v>6800461</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12192,76 +12192,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>0</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="N132">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P132">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R132">
+        <v>1.925</v>
+      </c>
+      <c r="S132">
         <v>1.875</v>
       </c>
-      <c r="S132">
-        <v>1.925</v>
-      </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12269,7 +12269,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800460</v>
+        <v>6800462</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12281,76 +12281,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L133">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N133">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="O133">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="Q133">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6800461</v>
+        <v>6800460</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,58 +12370,58 @@
         <v>45195.65625</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
         <v>1</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>43</v>
       </c>
       <c r="K134">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L134">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="M134">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N134">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="O134">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q134">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
+        <v>1.9</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
         <v>1.925</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="T134">
-        <v>3</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
-      <c r="V134">
-        <v>1.8</v>
-      </c>
       <c r="W134">
-        <v>0.3</v>
+        <v>0.181</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12433,13 +12433,13 @@
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6800466</v>
+        <v>6800031</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,76 +12726,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
         <v>3</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K138">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="N138">
-        <v>1.55</v>
+        <v>2.875</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB138">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12803,7 +12803,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6800031</v>
+        <v>6800032</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12815,76 +12815,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>3</v>
-      </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="M139">
-        <v>2.2</v>
+        <v>29</v>
       </c>
       <c r="N139">
-        <v>2.875</v>
+        <v>1.055</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="P139">
-        <v>2.1</v>
+        <v>34</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>1.8</v>
+      </c>
+      <c r="T139">
+        <v>4</v>
+      </c>
+      <c r="U139">
+        <v>1.925</v>
+      </c>
+      <c r="V139">
         <v>1.875</v>
       </c>
-      <c r="S139">
-        <v>1.925</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.825</v>
-      </c>
-      <c r="V139">
-        <v>1.975</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6800032</v>
+        <v>6800466</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,13 +12904,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -12919,43 +12919,43 @@
         <v>43</v>
       </c>
       <c r="K140">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="L140">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>29</v>
+        <v>4.1</v>
       </c>
       <c r="N140">
-        <v>1.055</v>
+        <v>1.55</v>
       </c>
       <c r="O140">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>34</v>
+        <v>5.25</v>
       </c>
       <c r="Q140">
-        <v>-3.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>0.05499999999999994</v>
+        <v>0.55</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12964,16 +12964,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13426,7 +13426,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6800034</v>
+        <v>6800470</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13438,76 +13438,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
         <v>1</v>
       </c>
-      <c r="I146">
-        <v>4</v>
-      </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K146">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="L146">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>1.285</v>
+        <v>4.75</v>
       </c>
       <c r="N146">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="O146">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="Q146">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13515,7 +13515,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6800033</v>
+        <v>6800034</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13527,40 +13527,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>4</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M147">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N147">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P147">
-        <v>3.3</v>
+        <v>1.222</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R147">
         <v>1.975</v>
@@ -13572,28 +13572,28 @@
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6800470</v>
+        <v>6800033</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,58 +13616,58 @@
         <v>45206.4375</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N148">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13676,16 +13676,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13871,7 +13871,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6800475</v>
+        <v>6800472</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13883,58 +13883,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>43</v>
       </c>
       <c r="K151">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L151">
         <v>3.2</v>
       </c>
       <c r="M151">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
+        <v>1.95</v>
+      </c>
+      <c r="V151">
         <v>1.85</v>
       </c>
-      <c r="V151">
-        <v>1.95</v>
-      </c>
       <c r="W151">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13943,16 +13943,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC151">
-        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14049,7 +14049,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6800472</v>
+        <v>6800475</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14061,58 +14061,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
         <v>2</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>43</v>
       </c>
       <c r="K153">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L153">
         <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N153">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P153">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
         <v>1.95</v>
       </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
       <c r="W153">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14121,16 +14121,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -15040,7 +15040,7 @@
         <v>45227.55208333334</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>36</v>
@@ -15129,7 +15129,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
         <v>41</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6800486</v>
+        <v>6800042</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="L170">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M170">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N170">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P170">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R170">
+        <v>1.975</v>
+      </c>
+      <c r="S170">
+        <v>1.825</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
         <v>1.85</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.95</v>
       </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
-      <c r="U170">
-        <v>1.95</v>
-      </c>
-      <c r="V170">
-        <v>1.85</v>
-      </c>
       <c r="W170">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.95</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6800042</v>
+        <v>6800486</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="L171">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N171">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O171">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q171">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
         <v>1.85</v>
       </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16734,7 +16734,7 @@
         <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6800049</v>
+        <v>6800050</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17354,76 +17354,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K190">
-        <v>2.3</v>
+        <v>1.071</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="M190">
-        <v>2.7</v>
+        <v>26</v>
       </c>
       <c r="N190">
+        <v>1.083</v>
+      </c>
+      <c r="O190">
+        <v>9.5</v>
+      </c>
+      <c r="P190">
+        <v>26</v>
+      </c>
+      <c r="Q190">
+        <v>-2.5</v>
+      </c>
+      <c r="R190">
+        <v>1.85</v>
+      </c>
+      <c r="S190">
         <v>1.95</v>
       </c>
-      <c r="O190">
-        <v>3.3</v>
-      </c>
-      <c r="P190">
-        <v>3.25</v>
-      </c>
-      <c r="Q190">
-        <v>-0.5</v>
-      </c>
-      <c r="R190">
-        <v>2.025</v>
-      </c>
-      <c r="S190">
-        <v>1.775</v>
-      </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA190">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6800050</v>
+        <v>6800049</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17443,76 +17443,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K191">
-        <v>1.071</v>
+        <v>2.3</v>
       </c>
       <c r="L191">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="M191">
-        <v>26</v>
+        <v>2.7</v>
       </c>
       <c r="N191">
-        <v>1.083</v>
+        <v>1.95</v>
       </c>
       <c r="O191">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="Q191">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T191">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W191">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17713,7 +17713,7 @@
         <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
         <v>30</v>
@@ -18677,7 +18677,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6800516</v>
+        <v>6800052</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18689,76 +18689,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K205">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M205">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N205">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W205">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC205">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18766,7 +18766,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6800052</v>
+        <v>6800516</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18778,76 +18778,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
         <v>0</v>
       </c>
-      <c r="I206">
-        <v>4</v>
-      </c>
       <c r="J206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K206">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N206">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P206">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q206">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18944,7 +18944,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7440288</v>
+        <v>7589426</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18956,13 +18956,13 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H208">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -18971,25 +18971,25 @@
         <v>43</v>
       </c>
       <c r="K208">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="L208">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N208">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="O208">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P208">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="Q208">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R208">
         <v>1.9</v>
@@ -18998,16 +18998,16 @@
         <v>1.9</v>
       </c>
       <c r="T208">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
-        <v>0.04000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19022,7 +19022,7 @@
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19033,7 +19033,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7589426</v>
+        <v>7440288</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19045,13 +19045,13 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -19060,25 +19060,25 @@
         <v>43</v>
       </c>
       <c r="K209">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M209">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N209">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P209">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="Q209">
-        <v>0.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R209">
         <v>1.9</v>
@@ -19087,16 +19087,16 @@
         <v>1.9</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>2.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19111,7 +19111,7 @@
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19122,7 +19122,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6800518</v>
+        <v>6800053</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19134,40 +19134,40 @@
         <v>45304.59375</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K210">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N210">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O210">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R210">
         <v>2.025</v>
@@ -19179,28 +19179,28 @@
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19211,7 +19211,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6800053</v>
+        <v>6800518</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19223,40 +19223,40 @@
         <v>45304.59375</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
       <c r="I211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K211">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L211">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O211">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P211">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
         <v>2.025</v>
@@ -19268,28 +19268,28 @@
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB211">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC211">
         <v>-1</v>
@@ -19401,7 +19401,7 @@
         <v>45304.59375</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
         <v>33</v>
@@ -20113,7 +20113,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
         <v>33</v>
@@ -20205,7 +20205,7 @@
         <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H222">
         <v>0</v>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Wales Premier League</t>
   </si>
   <si>
-    <t>Penybont</t>
+    <t>Caernarfon Town</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
+    <t>Penybont</t>
   </si>
   <si>
     <t>Pontypridd Town</t>
@@ -145,10 +145,10 @@
     <t>Barry Town</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6062250</v>
+        <v>6062248</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.062</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M2">
+        <v>1.166</v>
+      </c>
+      <c r="N2">
         <v>21</v>
       </c>
-      <c r="N2">
-        <v>1.05</v>
-      </c>
       <c r="O2">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="P2">
-        <v>29</v>
+        <v>1.09</v>
       </c>
       <c r="Q2">
-        <v>-3</v>
+        <v>2.75</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>4</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062248</v>
+        <v>6062250</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
+        <v>1.062</v>
+      </c>
+      <c r="L3">
         <v>13</v>
       </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
       <c r="M3">
-        <v>1.166</v>
+        <v>21</v>
       </c>
       <c r="N3">
-        <v>21</v>
+        <v>1.05</v>
       </c>
       <c r="O3">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="P3">
-        <v>1.09</v>
+        <v>29</v>
       </c>
       <c r="Q3">
-        <v>2.75</v>
+        <v>-3</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>4</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>5.75</v>
@@ -978,10 +978,10 @@
         <v>44933.40625</v>
       </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.909</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>1.125</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>1.5</v>
@@ -1435,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -1604,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>4.333</v>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6027054</v>
+        <v>6087650</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,76 +1779,76 @@
         <v>44947.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L15">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>1.975</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>1.875</v>
+      </c>
+      <c r="V15">
+        <v>1.925</v>
+      </c>
+      <c r="W15">
+        <v>1.9</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>0.825</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0</v>
       </c>
-      <c r="R15">
-        <v>1.85</v>
-      </c>
-      <c r="S15">
-        <v>1.95</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
-      <c r="U15">
-        <v>1.925</v>
-      </c>
-      <c r="V15">
-        <v>1.875</v>
-      </c>
-      <c r="W15">
-        <v>1.375</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>0.925</v>
-      </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6087650</v>
+        <v>6027054</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,58 +1868,58 @@
         <v>44947.59375</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
+        <v>2.45</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.85</v>
+      </c>
+      <c r="S16">
         <v>1.95</v>
       </c>
-      <c r="Q16">
-        <v>0.5</v>
-      </c>
-      <c r="R16">
-        <v>1.825</v>
-      </c>
-      <c r="S16">
-        <v>1.975</v>
-      </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
+        <v>1.925</v>
+      </c>
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="V16">
-        <v>1.925</v>
-      </c>
       <c r="W16">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,16 +1928,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.142</v>
@@ -2046,7 +2046,7 @@
         <v>44954.5</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>2.05</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.125</v>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>4.2</v>
@@ -2325,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>5.5</v>
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6212828</v>
+        <v>6212799</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,76 +2402,76 @@
         <v>44968.47916666666</v>
       </c>
       <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2479,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6212799</v>
+        <v>6212800</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2491,55 +2491,55 @@
         <v>44968.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>45</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O23">
         <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2551,16 +2551,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.4625</v>
+      </c>
+      <c r="AA23">
         <v>-0.5</v>
       </c>
-      <c r="AA23">
-        <v>0.5</v>
-      </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6212800</v>
+        <v>6212829</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>44968.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N24">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
         <v>3.6</v>
       </c>
       <c r="P24">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6212829</v>
+        <v>6212830</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,58 +2669,58 @@
         <v>44968.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
+        <v>1.4</v>
+      </c>
+      <c r="L25">
+        <v>4.5</v>
+      </c>
+      <c r="M25">
+        <v>5.5</v>
+      </c>
+      <c r="N25">
+        <v>1.4</v>
+      </c>
+      <c r="O25">
+        <v>4.5</v>
+      </c>
+      <c r="P25">
+        <v>5.5</v>
+      </c>
+      <c r="Q25">
+        <v>-1.25</v>
+      </c>
+      <c r="R25">
         <v>1.9</v>
       </c>
-      <c r="L25">
-        <v>3.6</v>
-      </c>
-      <c r="M25">
-        <v>3.2</v>
-      </c>
-      <c r="N25">
-        <v>1.909</v>
-      </c>
-      <c r="O25">
-        <v>3.6</v>
-      </c>
-      <c r="P25">
-        <v>3.2</v>
-      </c>
-      <c r="Q25">
-        <v>-0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.975</v>
-      </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2729,13 +2729,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6212830</v>
+        <v>6212828</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,40 +2758,40 @@
         <v>44968.47916666666</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N26">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q26">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>1.9</v>
@@ -2803,13 +2803,13 @@
         <v>3</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2824,10 +2824,10 @@
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>11</v>
@@ -2936,7 +2936,7 @@
         <v>44974.69791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>2.1</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>1.1</v>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>1.85</v>
@@ -3381,7 +3381,7 @@
         <v>44981.69791666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3482,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>2.625</v>
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.9</v>
@@ -3749,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>2.5</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.727</v>
@@ -4004,7 +4004,7 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>40</v>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>2.2</v>
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>1.05</v>
@@ -4274,7 +4274,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.25</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>1.285</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6212840</v>
+        <v>6212810</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="L45">
         <v>3.75</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P45">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y45">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6212810</v>
+        <v>6212840</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,76 +4538,76 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
         <v>3.75</v>
       </c>
       <c r="M46">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q46">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.3</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>1.111</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5075,7 +5075,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>7.5</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>1.125</v>
@@ -5428,7 +5428,7 @@
         <v>45010.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
@@ -5517,7 +5517,7 @@
         <v>45016.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>1.111</v>
@@ -5609,7 +5609,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.9</v>
@@ -5707,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>2.625</v>
@@ -5796,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.625</v>
@@ -5885,7 +5885,7 @@
         <v>5</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>8.5</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6212819</v>
+        <v>6212858</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,16 +6051,16 @@
         <v>45023.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>44</v>
@@ -6075,52 +6075,52 @@
         <v>4.333</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6212858</v>
+        <v>6212819</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,16 +6140,16 @@
         <v>45023.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>2</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>43</v>
@@ -6164,52 +6164,52 @@
         <v>4.333</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.775</v>
+      </c>
+      <c r="S64">
+        <v>2.025</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
+        <v>1.925</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>4.25</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>1.025</v>
+      </c>
+      <c r="AB64">
+        <v>0.4375</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>2</v>
-      </c>
-      <c r="S64">
-        <v>1.8</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.975</v>
-      </c>
-      <c r="V64">
-        <v>1.825</v>
-      </c>
-      <c r="W64">
-        <v>0.909</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>1</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>45024.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>9</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>2.875</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6212822</v>
+        <v>6212861</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,76 +6496,76 @@
         <v>45030.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68">
+        <v>15</v>
+      </c>
+      <c r="L68">
+        <v>8</v>
+      </c>
+      <c r="M68">
+        <v>1.1</v>
+      </c>
+      <c r="N68">
+        <v>10</v>
+      </c>
+      <c r="O68">
+        <v>7.5</v>
+      </c>
+      <c r="P68">
+        <v>1.181</v>
+      </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
+      <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
+        <v>1.95</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>1.8</v>
+      </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
+        <v>0.181</v>
+      </c>
+      <c r="Z68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>2</v>
-      </c>
-      <c r="J68" t="s">
-        <v>44</v>
-      </c>
-      <c r="K68">
-        <v>10</v>
-      </c>
-      <c r="L68">
-        <v>5.5</v>
-      </c>
-      <c r="M68">
-        <v>1.2</v>
-      </c>
-      <c r="N68">
-        <v>8</v>
-      </c>
-      <c r="O68">
-        <v>5.5</v>
-      </c>
-      <c r="P68">
-        <v>1.25</v>
-      </c>
-      <c r="Q68">
-        <v>1.75</v>
-      </c>
-      <c r="R68">
-        <v>1.95</v>
-      </c>
-      <c r="S68">
-        <v>1.85</v>
-      </c>
-      <c r="T68">
-        <v>3.5</v>
-      </c>
-      <c r="U68">
-        <v>1.95</v>
-      </c>
-      <c r="V68">
-        <v>1.85</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>0.25</v>
-      </c>
-      <c r="Z68">
-        <v>-0.5</v>
-      </c>
       <c r="AA68">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6212861</v>
+        <v>6212822</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,55 +6585,55 @@
         <v>45030.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L69">
+        <v>5.5</v>
+      </c>
+      <c r="M69">
+        <v>1.2</v>
+      </c>
+      <c r="N69">
         <v>8</v>
       </c>
-      <c r="M69">
-        <v>1.1</v>
-      </c>
-      <c r="N69">
-        <v>10</v>
-      </c>
       <c r="O69">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="P69">
-        <v>1.181</v>
+        <v>1.25</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
         <v>1.85</v>
       </c>
-      <c r="S69">
+      <c r="T69">
+        <v>3.5</v>
+      </c>
+      <c r="U69">
         <v>1.95</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.8</v>
-      </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6642,19 +6642,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.181</v>
+        <v>0.25</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.3</v>
@@ -6852,7 +6852,7 @@
         <v>45031.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>31</v>
@@ -6864,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.1</v>
@@ -7033,7 +7033,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>2.25</v>
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6212826</v>
+        <v>6212827</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,58 +7119,58 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7179,16 +7179,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6212827</v>
+        <v>6212825</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,59 +7208,59 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L76">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N76">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q76">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.925</v>
+      </c>
+      <c r="V76">
+        <v>1.875</v>
+      </c>
+      <c r="W76">
         <v>1.8</v>
       </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
-      <c r="U76">
-        <v>1.9</v>
-      </c>
-      <c r="V76">
-        <v>1.9</v>
-      </c>
-      <c r="W76">
-        <v>0.25</v>
-      </c>
       <c r="X76">
         <v>-1</v>
       </c>
@@ -7268,16 +7268,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7285,7 +7285,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6212825</v>
+        <v>6212826</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7297,10 +7297,10 @@
         <v>45038.36458333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7309,46 +7309,46 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N77">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7357,13 +7357,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
       <c r="AC77">
         <v>-0.5</v>
@@ -7389,7 +7389,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7487,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>2.4</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>9.5</v>
@@ -7665,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>1.727</v>
@@ -7754,7 +7754,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>5</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.625</v>
@@ -7932,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.25</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>1.3</v>
@@ -8190,7 +8190,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.1</v>
@@ -8288,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>4</v>
@@ -8368,7 +8368,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.95</v>
@@ -8454,7 +8454,7 @@
         <v>45156.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>2.25</v>
@@ -8543,7 +8543,7 @@
         <v>45156.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.8</v>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>1.333</v>
@@ -8709,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800430</v>
+        <v>6800018</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8721,76 +8721,76 @@
         <v>45157.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>2.05</v>
+        <v>1.02</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>41</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>1.025</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800018</v>
+        <v>6800430</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,76 +8810,76 @@
         <v>45157.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>1.02</v>
+        <v>2.05</v>
       </c>
       <c r="N94">
-        <v>41</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>19</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>1.025</v>
+        <v>2.25</v>
       </c>
       <c r="Q94">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T94">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y94">
-        <v>0.02499999999999991</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8991,7 +8991,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.6</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>1.727</v>
@@ -9347,7 +9347,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>45167.65625</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>1.615</v>
@@ -9801,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>17</v>
@@ -9878,7 +9878,7 @@
         <v>45167.65625</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -9979,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>2.625</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800022</v>
+        <v>6800443</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,73 +10056,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>44</v>
       </c>
       <c r="K108">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N108">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
+        <v>1.775</v>
+      </c>
+      <c r="S108">
+        <v>2.025</v>
+      </c>
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
         <v>1.85</v>
       </c>
-      <c r="S108">
-        <v>1.95</v>
-      </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.8</v>
-      </c>
-      <c r="V108">
-        <v>2</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
         <v>0.95</v>
-      </c>
-      <c r="AB108">
-        <v>0.8</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800023</v>
+        <v>6800022</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,73 +10145,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H109">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="L109">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>26</v>
+        <v>1.8</v>
       </c>
       <c r="N109">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="O109">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>41</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>-4.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W109">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800443</v>
+        <v>6800023</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,58 +10234,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="L110">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="M110">
-        <v>2.3</v>
+        <v>26</v>
       </c>
       <c r="N110">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="O110">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="P110">
-        <v>2.7</v>
+        <v>41</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-4.25</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>1.4</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10294,13 +10294,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>2.2</v>
@@ -10424,7 +10424,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>2.375</v>
@@ -10504,7 +10504,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.2</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>1.727</v>
@@ -10682,7 +10682,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10691,7 +10691,7 @@
         <v>4</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>3</v>
@@ -10780,7 +10780,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>4.333</v>
@@ -10869,7 +10869,7 @@
         <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>2.25</v>
@@ -10946,7 +10946,7 @@
         <v>45178.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>41</v>
@@ -10958,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>1.363</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>2.05</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>1.666</v>
@@ -11302,10 +11302,10 @@
         <v>45185.4375</v>
       </c>
       <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
         <v>29</v>
-      </c>
-      <c r="G122" t="s">
-        <v>30</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11314,7 +11314,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K122">
         <v>1.6</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>1.7</v>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>1.062</v>
@@ -11670,7 +11670,7 @@
         <v>5</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>9</v>
@@ -11750,7 +11750,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11759,7 +11759,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>4.5</v>
@@ -11824,7 +11824,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800456</v>
+        <v>6800458</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11836,73 +11836,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
         <v>3</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="N128">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.825</v>
+      </c>
+      <c r="AB128">
         <v>0.875</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>1</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800457</v>
+        <v>6800456</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,73 +11925,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>44</v>
       </c>
       <c r="K129">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="N129">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800458</v>
+        <v>6800457</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,40 +12014,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>4.8</v>
+        <v>2.875</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N130">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O130">
         <v>4</v>
       </c>
       <c r="P130">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
         <v>1.975</v>
@@ -12071,7 +12071,7 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="Z130">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>45192.55208333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>31</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12192,7 +12192,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
         <v>42</v>
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>1.333</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>1.25</v>
@@ -12459,7 +12459,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12471,7 +12471,7 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>10</v>
@@ -12560,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K136">
         <v>2.625</v>
@@ -12649,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K137">
         <v>1.285</v>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K138">
         <v>2.55</v>
@@ -12803,7 +12803,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6800464</v>
+        <v>6800032</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12815,76 +12815,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139">
+        <v>1.05</v>
+      </c>
+      <c r="L139">
+        <v>15</v>
+      </c>
+      <c r="M139">
+        <v>29</v>
+      </c>
+      <c r="N139">
+        <v>1.055</v>
+      </c>
+      <c r="O139">
+        <v>12</v>
+      </c>
+      <c r="P139">
+        <v>34</v>
+      </c>
+      <c r="Q139">
+        <v>-3.25</v>
+      </c>
+      <c r="R139">
         <v>2</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
-      <c r="J139" t="s">
-        <v>45</v>
-      </c>
-      <c r="K139">
-        <v>3</v>
-      </c>
-      <c r="L139">
-        <v>3.3</v>
-      </c>
-      <c r="M139">
-        <v>2.1</v>
-      </c>
-      <c r="N139">
-        <v>3.8</v>
-      </c>
-      <c r="O139">
-        <v>3.6</v>
-      </c>
-      <c r="P139">
-        <v>1.727</v>
-      </c>
-      <c r="Q139">
-        <v>0.5</v>
-      </c>
-      <c r="R139">
-        <v>2.025</v>
-      </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X139">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12916,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K140">
         <v>1.7</v>
@@ -12996,7 +12996,7 @@
         <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2.75</v>
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6800032</v>
+        <v>6800464</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="L142">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>29</v>
+        <v>2.1</v>
       </c>
       <c r="N142">
-        <v>1.055</v>
+        <v>3.8</v>
       </c>
       <c r="O142">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>34</v>
+        <v>1.727</v>
       </c>
       <c r="Q142">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
+        <v>2.025</v>
+      </c>
+      <c r="S142">
+        <v>1.775</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
         <v>2</v>
       </c>
-      <c r="S142">
+      <c r="V142">
         <v>1.8</v>
       </c>
-      <c r="T142">
-        <v>4</v>
-      </c>
-      <c r="U142">
-        <v>1.925</v>
-      </c>
-      <c r="V142">
-        <v>1.875</v>
-      </c>
       <c r="W142">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
+        <v>1.025</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
         <v>1</v>
       </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>0</v>
-      </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13174,7 +13174,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13183,7 +13183,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
         <v>1.85</v>
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
         <v>2.1</v>
@@ -13441,7 +13441,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>4</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K146">
         <v>2</v>
@@ -13527,7 +13527,7 @@
         <v>45206.4375</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>34</v>
@@ -13539,7 +13539,7 @@
         <v>4</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>6.5</v>
@@ -13628,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
         <v>1.615</v>
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K149">
         <v>2.5</v>
@@ -13797,7 +13797,7 @@
         <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13806,7 +13806,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K150">
         <v>2.625</v>
@@ -13883,7 +13883,7 @@
         <v>45216.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>37</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>1.4</v>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>2.6</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>2.875</v>
@@ -14251,7 +14251,7 @@
         <v>6</v>
       </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>9</v>
@@ -14340,7 +14340,7 @@
         <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>4.333</v>
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K157">
         <v>1.666</v>
@@ -14506,7 +14506,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>2.375</v>
@@ -14583,7 +14583,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6800039</v>
+        <v>6800480</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14595,76 +14595,76 @@
         <v>45226.65625</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>43</v>
       </c>
       <c r="K159">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L159">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N159">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O159">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
         <v>1.875</v>
       </c>
-      <c r="S159">
-        <v>1.925</v>
-      </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U159">
+        <v>1.95</v>
+      </c>
+      <c r="V159">
         <v>1.85</v>
       </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
       <c r="W159">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
         <v>0.875</v>
       </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
       <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC159">
-        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6800480</v>
+        <v>6800039</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,76 +14684,76 @@
         <v>45226.65625</v>
       </c>
       <c r="F160" t="s">
+        <v>40</v>
+      </c>
+      <c r="G160" t="s">
         <v>29</v>
       </c>
-      <c r="G160" t="s">
-        <v>37</v>
-      </c>
       <c r="H160">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>44</v>
       </c>
       <c r="K160">
+        <v>1.444</v>
+      </c>
+      <c r="L160">
+        <v>4.5</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
         <v>1.333</v>
       </c>
-      <c r="L160">
-        <v>4.8</v>
-      </c>
-      <c r="M160">
+      <c r="O160">
+        <v>5</v>
+      </c>
+      <c r="P160">
         <v>6.5</v>
       </c>
-      <c r="N160">
-        <v>1.4</v>
-      </c>
-      <c r="O160">
-        <v>4.333</v>
-      </c>
-      <c r="P160">
-        <v>5.75</v>
-      </c>
       <c r="Q160">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
         <v>1.925</v>
       </c>
-      <c r="S160">
-        <v>1.875</v>
-      </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
         <v>1.95</v>
       </c>
-      <c r="V160">
-        <v>1.85</v>
-      </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K162">
         <v>2.875</v>
@@ -14963,7 +14963,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K163">
         <v>2.35</v>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K164">
         <v>1.142</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>1.02</v>
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>1.666</v>
@@ -15319,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K167">
         <v>3.1</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>2</v>
@@ -15586,7 +15586,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K170">
         <v>7</v>
@@ -15663,10 +15663,10 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G171" t="s">
         <v>30</v>
-      </c>
-      <c r="G171" t="s">
-        <v>29</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15675,7 +15675,7 @@
         <v>4</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>1.909</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>5.2</v>
@@ -15853,7 +15853,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>4.333</v>
@@ -15930,7 +15930,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>42</v>
@@ -15942,7 +15942,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.5</v>
@@ -16031,7 +16031,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>1.333</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K176">
         <v>1.8</v>
@@ -16197,7 +16197,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>35</v>
@@ -16289,7 +16289,7 @@
         <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K178">
         <v>4</v>
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6800046</v>
+        <v>6800493</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="L180">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N180">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O180">
         <v>3.8</v>
       </c>
       <c r="P180">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X180">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>42</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16630,7 +16630,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6800493</v>
+        <v>6800046</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16642,76 +16642,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O182">
         <v>3.8</v>
       </c>
       <c r="P182">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>17</v>
@@ -16832,7 +16832,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K184">
         <v>8</v>
@@ -16921,7 +16921,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K185">
         <v>1.444</v>
@@ -17010,7 +17010,7 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K186">
         <v>1.444</v>
@@ -17090,7 +17090,7 @@
         <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>2.625</v>
@@ -17188,7 +17188,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K188">
         <v>1.2</v>
@@ -17265,7 +17265,7 @@
         <v>45262.59375</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
         <v>36</v>
@@ -17277,7 +17277,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2.25</v>
@@ -17354,7 +17354,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17366,7 +17366,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.3</v>
@@ -17455,7 +17455,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K191">
         <v>1.2</v>
@@ -17535,7 +17535,7 @@
         <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>3</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K192">
         <v>1.071</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2.1</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K194">
         <v>12</v>
@@ -17787,7 +17787,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6800051</v>
+        <v>6800506</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17799,76 +17799,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>44</v>
+      </c>
+      <c r="K195">
+        <v>1.8</v>
+      </c>
+      <c r="L195">
+        <v>3.5</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195">
+        <v>1.95</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
+        <v>3.6</v>
+      </c>
+      <c r="Q195">
+        <v>-0.5</v>
+      </c>
+      <c r="R195">
+        <v>1.95</v>
+      </c>
+      <c r="S195">
+        <v>1.85</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.8</v>
+      </c>
+      <c r="V195">
+        <v>2</v>
+      </c>
+      <c r="W195">
+        <v>0.95</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>0.95</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
         <v>1</v>
-      </c>
-      <c r="J195" t="s">
-        <v>43</v>
-      </c>
-      <c r="K195">
-        <v>1.083</v>
-      </c>
-      <c r="L195">
-        <v>9.5</v>
-      </c>
-      <c r="M195">
-        <v>17</v>
-      </c>
-      <c r="N195">
-        <v>1.071</v>
-      </c>
-      <c r="O195">
-        <v>11</v>
-      </c>
-      <c r="P195">
-        <v>21</v>
-      </c>
-      <c r="Q195">
-        <v>-3</v>
-      </c>
-      <c r="R195">
-        <v>1.825</v>
-      </c>
-      <c r="S195">
-        <v>1.975</v>
-      </c>
-      <c r="T195">
-        <v>4.5</v>
-      </c>
-      <c r="U195">
-        <v>1.85</v>
-      </c>
-      <c r="V195">
-        <v>1.95</v>
-      </c>
-      <c r="W195">
-        <v>0.07099999999999995</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>-1</v>
-      </c>
-      <c r="Z195">
-        <v>-1</v>
-      </c>
-      <c r="AA195">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
-      <c r="AC195">
-        <v>0.95</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>4.5</v>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6800506</v>
+        <v>6800504</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,76 +17977,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
         <v>43</v>
       </c>
       <c r="K197">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N197">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC197">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6800504</v>
+        <v>6800051</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,76 +18066,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>44</v>
       </c>
       <c r="K198">
-        <v>2.4</v>
+        <v>1.083</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M198">
-        <v>2.625</v>
+        <v>17</v>
       </c>
       <c r="N198">
-        <v>2.875</v>
+        <v>1.071</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="P198">
-        <v>2.375</v>
+        <v>21</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18167,7 +18167,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
         <v>2.4</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K200">
         <v>3.3</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K203">
         <v>2.05</v>
@@ -18600,7 +18600,7 @@
         <v>45291.39583333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
         <v>41</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K204">
         <v>1.533</v>
@@ -18677,7 +18677,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6800052</v>
+        <v>6800516</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18689,76 +18689,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
         <v>0</v>
-      </c>
-      <c r="I205">
-        <v>4</v>
       </c>
       <c r="J205" t="s">
         <v>44</v>
       </c>
       <c r="K205">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L205">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N205">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P205">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18766,7 +18766,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6800516</v>
+        <v>6800052</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18778,76 +18778,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J206" t="s">
         <v>43</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N206">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W206">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K207">
         <v>2.25</v>
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K208">
         <v>1.1</v>
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K209">
         <v>3.2</v>
@@ -19146,7 +19146,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K210">
         <v>2.2</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K211">
         <v>1.1</v>
@@ -19324,7 +19324,7 @@
         <v>4</v>
       </c>
       <c r="J212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K212">
         <v>2.4</v>
@@ -19413,7 +19413,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K213">
         <v>2.6</v>
@@ -19490,7 +19490,7 @@
         <v>45304.59375</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19502,7 +19502,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K214">
         <v>3.5</v>
@@ -19582,7 +19582,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19671,7 +19671,7 @@
         <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19769,7 +19769,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K217">
         <v>4</v>
@@ -19858,7 +19858,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K218">
         <v>2.25</v>
@@ -19938,7 +19938,7 @@
         <v>41</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -19947,7 +19947,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K219">
         <v>4.2</v>
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K221">
         <v>1.1</v>
@@ -20214,7 +20214,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K222">
         <v>6</v>
@@ -20392,7 +20392,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K224">
         <v>2.15</v>
@@ -20469,7 +20469,7 @@
         <v>45332.40625</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
         <v>42</v>
@@ -20561,7 +20561,7 @@
         <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20659,7 +20659,7 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20736,7 +20736,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -20748,7 +20748,7 @@
         <v>8</v>
       </c>
       <c r="J228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K228">
         <v>11</v>
@@ -20825,7 +20825,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
         <v>37</v>
@@ -20991,7 +20991,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7721610</v>
+        <v>7862382</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,49 +21000,49 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45346.38541666666</v>
+        <v>45346.59375</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M231">
+        <v>6</v>
+      </c>
+      <c r="N231">
+        <v>1.444</v>
+      </c>
+      <c r="O231">
+        <v>4.75</v>
+      </c>
+      <c r="P231">
+        <v>5.5</v>
+      </c>
+      <c r="Q231">
+        <v>-1.25</v>
+      </c>
+      <c r="R231">
+        <v>1.975</v>
+      </c>
+      <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
         <v>3</v>
       </c>
-      <c r="N231">
-        <v>1.727</v>
-      </c>
-      <c r="O231">
-        <v>3.6</v>
-      </c>
-      <c r="P231">
-        <v>4</v>
-      </c>
-      <c r="Q231">
-        <v>-0.75</v>
-      </c>
-      <c r="R231">
-        <v>2</v>
-      </c>
-      <c r="S231">
-        <v>1.8</v>
-      </c>
-      <c r="T231">
-        <v>2.75</v>
-      </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21057,154 +21057,6 @@
         <v>0</v>
       </c>
       <c r="AA231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232">
-        <v>7721587</v>
-      </c>
-      <c r="C232" t="s">
-        <v>28</v>
-      </c>
-      <c r="D232" t="s">
-        <v>28</v>
-      </c>
-      <c r="E232" s="2">
-        <v>45346.47916666666</v>
-      </c>
-      <c r="F232" t="s">
-        <v>35</v>
-      </c>
-      <c r="G232" t="s">
-        <v>36</v>
-      </c>
-      <c r="K232">
-        <v>2.25</v>
-      </c>
-      <c r="L232">
-        <v>3.4</v>
-      </c>
-      <c r="M232">
-        <v>2.8</v>
-      </c>
-      <c r="N232">
-        <v>2.375</v>
-      </c>
-      <c r="O232">
-        <v>3.4</v>
-      </c>
-      <c r="P232">
-        <v>2.625</v>
-      </c>
-      <c r="Q232">
-        <v>0</v>
-      </c>
-      <c r="R232">
-        <v>1.8</v>
-      </c>
-      <c r="S232">
-        <v>2</v>
-      </c>
-      <c r="T232">
-        <v>2.75</v>
-      </c>
-      <c r="U232">
-        <v>1.85</v>
-      </c>
-      <c r="V232">
-        <v>1.95</v>
-      </c>
-      <c r="W232">
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <v>0</v>
-      </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="Z232">
-        <v>0</v>
-      </c>
-      <c r="AA232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>7862382</v>
-      </c>
-      <c r="C233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" t="s">
-        <v>28</v>
-      </c>
-      <c r="E233" s="2">
-        <v>45346.59375</v>
-      </c>
-      <c r="F233" t="s">
-        <v>40</v>
-      </c>
-      <c r="G233" t="s">
-        <v>38</v>
-      </c>
-      <c r="K233">
-        <v>1.4</v>
-      </c>
-      <c r="L233">
-        <v>5</v>
-      </c>
-      <c r="M233">
-        <v>6</v>
-      </c>
-      <c r="N233">
-        <v>1.5</v>
-      </c>
-      <c r="O233">
-        <v>4.75</v>
-      </c>
-      <c r="P233">
-        <v>5</v>
-      </c>
-      <c r="Q233">
-        <v>-1</v>
-      </c>
-      <c r="R233">
-        <v>1.775</v>
-      </c>
-      <c r="S233">
-        <v>2.025</v>
-      </c>
-      <c r="T233">
-        <v>3</v>
-      </c>
-      <c r="U233">
-        <v>1.85</v>
-      </c>
-      <c r="V233">
-        <v>1.95</v>
-      </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
-      <c r="X233">
-        <v>0</v>
-      </c>
-      <c r="Y233">
-        <v>0</v>
-      </c>
-      <c r="Z233">
-        <v>0</v>
-      </c>
-      <c r="AA233">
         <v>0</v>
       </c>
     </row>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -103,10 +103,10 @@
     <t>Wales Premier League</t>
   </si>
   <si>
-    <t>Haverfordwest County</t>
+    <t>TNS</t>
   </si>
   <si>
-    <t>TNS</t>
+    <t>Haverfordwest County</t>
   </si>
   <si>
     <t>Aberystwyth</t>
@@ -121,10 +121,10 @@
     <t>Colwyn Bay</t>
   </si>
   <si>
-    <t>Connahs Quay</t>
+    <t>Caernarfon Town</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
+    <t>Connahs Quay</t>
   </si>
   <si>
     <t>Penybont</t>
@@ -139,10 +139,10 @@
     <t>Barry Town</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6800423</v>
+        <v>6800016</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6800016</v>
+        <v>6800423</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>1.3</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6800427</v>
+        <v>6800017</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,55 +1153,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>2.25</v>
+      </c>
+      <c r="L8">
+        <v>3.25</v>
+      </c>
+      <c r="M8">
+        <v>2.75</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8">
+        <v>3.2</v>
+      </c>
+      <c r="P8">
+        <v>2.45</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>1.333</v>
-      </c>
-      <c r="L8">
-        <v>4.5</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>1.4</v>
-      </c>
-      <c r="O8">
-        <v>4.333</v>
-      </c>
-      <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8">
-        <v>-1.25</v>
-      </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6800017</v>
+        <v>6800427</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,55 +1242,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>1.333</v>
+      </c>
+      <c r="L9">
+        <v>4.5</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>1.4</v>
+      </c>
+      <c r="O9">
+        <v>4.333</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>-1.25</v>
+      </c>
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9">
-        <v>2.25</v>
-      </c>
-      <c r="L9">
-        <v>3.25</v>
-      </c>
-      <c r="M9">
-        <v>2.75</v>
-      </c>
-      <c r="N9">
-        <v>2.5</v>
-      </c>
-      <c r="O9">
-        <v>3.2</v>
-      </c>
-      <c r="P9">
-        <v>2.45</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>1.8</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>2.3</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6800432</v>
+        <v>6800431</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,13 +1684,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1699,52 +1699,52 @@
         <v>41</v>
       </c>
       <c r="K14">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N14">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
+        <v>2.4</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
         <v>1.85</v>
-      </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>1.975</v>
       </c>
       <c r="T14">
         <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1753,7 +1753,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6800431</v>
+        <v>6800432</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,13 +1773,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1788,52 +1788,52 @@
         <v>42</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
         <v>2.5</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1842,7 +1842,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,10 +1862,10 @@
         <v>45164.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6800437</v>
+        <v>6800020</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>1.04</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>3.8</v>
+        <v>41</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>1.055</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6800020</v>
+        <v>6800437</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>1.04</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>3.8</v>
       </c>
       <c r="N18">
-        <v>1.055</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>29</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X18">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6800440</v>
+        <v>6800021</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
+        <v>1.925</v>
+      </c>
+      <c r="V20">
         <v>1.875</v>
       </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.875</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6800441</v>
+        <v>6800440</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45167.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
       </c>
       <c r="K21">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N21">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
+        <v>1.875</v>
+      </c>
+      <c r="V21">
         <v>1.925</v>
       </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
       <c r="W21">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800021</v>
+        <v>6800441</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,10 +2399,10 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2411,31 +2411,31 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2447,25 +2447,25 @@
         <v>1.875</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800442</v>
+        <v>6800841</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>17</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>1.083</v>
       </c>
       <c r="N23">
-        <v>1.727</v>
+        <v>23</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>1.071</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800841</v>
+        <v>6800442</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>17</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.083</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>23</v>
+        <v>1.727</v>
       </c>
       <c r="O24">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y24">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2752,10 +2752,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
         <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>1.02</v>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>2.7</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800444</v>
+        <v>6800446</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,58 +3019,58 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,16 +3079,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6800446</v>
+        <v>6800444</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,58 +3108,58 @@
         <v>45171.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3168,16 +3168,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
         <v>1.727</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6800450</v>
+        <v>6800448</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,46 +3375,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="K33">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="L33">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N33">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
         <v>2.75</v>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>7</v>
+        <v>0.55</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6800449</v>
+        <v>6800024</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,13 +3464,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -3479,40 +3479,40 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3521,16 +3521,16 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6800024</v>
+        <v>6800450</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,46 +3553,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
+        <v>6.5</v>
+      </c>
+      <c r="N35">
+        <v>1.363</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>8</v>
+      </c>
+      <c r="Q35">
+        <v>-1.5</v>
+      </c>
+      <c r="R35">
         <v>2</v>
       </c>
-      <c r="N35">
-        <v>3.75</v>
-      </c>
-      <c r="O35">
-        <v>3.8</v>
-      </c>
-      <c r="P35">
-        <v>1.85</v>
-      </c>
-      <c r="Q35">
-        <v>0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.975</v>
-      </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2.75</v>
@@ -3610,19 +3610,19 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.8500000000000001</v>
+        <v>7</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6800448</v>
+        <v>6800449</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,13 +3642,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -3657,40 +3657,40 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M36">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3699,16 +3699,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.55</v>
+        <v>1.75</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3909,10 +3909,10 @@
         <v>45185.4375</v>
       </c>
       <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
         <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <v>1.062</v>
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6800026</v>
+        <v>6800452</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45185.4375</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N40">
         <v>1.5</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q40">
         <v>-1</v>
       </c>
       <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
         <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
         <v>0.5</v>
@@ -4058,13 +4058,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6800454</v>
+        <v>6800453</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,13 +4087,13 @@
         <v>45185.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4102,52 +4102,52 @@
         <v>41</v>
       </c>
       <c r="K41">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="N41">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P41">
+        <v>5.25</v>
+      </c>
+      <c r="Q41">
+        <v>-1</v>
+      </c>
+      <c r="R41">
+        <v>1.85</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
       </c>
-      <c r="Q41">
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
+        <v>1.925</v>
+      </c>
+      <c r="W41">
         <v>0.5</v>
       </c>
-      <c r="R41">
-        <v>1.8</v>
-      </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.95</v>
-      </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
       <c r="X41">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA41">
         <v>-1</v>
@@ -4156,7 +4156,7 @@
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6800452</v>
+        <v>6800026</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,55 +4176,55 @@
         <v>45185.4375</v>
       </c>
       <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
         <v>35</v>
       </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
       <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42">
+        <v>1.6</v>
+      </c>
+      <c r="L42">
         <v>4</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>42</v>
-      </c>
-      <c r="K42">
-        <v>1.7</v>
-      </c>
-      <c r="L42">
-        <v>3.6</v>
-      </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N42">
         <v>1.5</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P42">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q42">
         <v>-1</v>
       </c>
       <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
         <v>1.85</v>
-      </c>
-      <c r="S42">
-        <v>1.95</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>0.5</v>
@@ -4236,13 +4236,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6800453</v>
+        <v>6800454</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,13 +4265,13 @@
         <v>45185.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4280,61 +4280,61 @@
         <v>42</v>
       </c>
       <c r="K43">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
+        <v>1.8</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>2.5</v>
+      </c>
+      <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
         <v>1.85</v>
       </c>
-      <c r="S43">
-        <v>1.95</v>
-      </c>
-      <c r="T43">
-        <v>2.75</v>
-      </c>
-      <c r="U43">
-        <v>1.875</v>
-      </c>
-      <c r="V43">
-        <v>1.925</v>
-      </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.8</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
-      <c r="AC43">
-        <v>0.925</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6800456</v>
+        <v>6800457</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,73 +4532,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="N46">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.825</v>
+      </c>
+      <c r="AB46">
         <v>0.875</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>1</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4621,10 +4621,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6800457</v>
+        <v>6800456</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,73 +4710,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="Q48">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>45192.55208333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>38</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
         <v>2.15</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6800460</v>
+        <v>6800462</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L50">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6800459</v>
+        <v>6800461</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,61 +4977,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5040,13 +5040,13 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6800030</v>
+        <v>6800460</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,73 +5069,73 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L52">
+        <v>5.75</v>
+      </c>
+      <c r="M52">
+        <v>7.5</v>
+      </c>
+      <c r="N52">
+        <v>1.181</v>
+      </c>
+      <c r="O52">
         <v>6</v>
       </c>
-      <c r="M52">
-        <v>1.181</v>
-      </c>
-      <c r="N52">
-        <v>13</v>
-      </c>
-      <c r="O52">
-        <v>7.5</v>
-      </c>
       <c r="P52">
-        <v>1.142</v>
+        <v>12</v>
       </c>
       <c r="Q52">
-        <v>2.5</v>
+        <v>-2</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6800461</v>
+        <v>6800459</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,61 +5155,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
       </c>
       <c r="K53">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L53">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5218,13 +5218,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800462</v>
+        <v>6800030</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,55 +5244,55 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="N54">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P54">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,19 +5301,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.2</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6800031</v>
+        <v>6800467</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="L56">
         <v>3.4</v>
       </c>
       <c r="M56">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="N56">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>45199.4375</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57">
         <v>1.05</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6800464</v>
+        <v>6800031</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
+        <v>2.2</v>
+      </c>
+      <c r="N58">
+        <v>2.875</v>
+      </c>
+      <c r="O58">
+        <v>3.4</v>
+      </c>
+      <c r="P58">
         <v>2.1</v>
       </c>
-      <c r="N58">
-        <v>3.8</v>
-      </c>
-      <c r="O58">
-        <v>3.6</v>
-      </c>
-      <c r="P58">
-        <v>1.727</v>
-      </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>45199.4375</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K59">
         <v>1.7</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6800467</v>
+        <v>6800464</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>42</v>
       </c>
       <c r="K60">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>45199.55208333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>1.85</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
         <v>2.1</v>
@@ -6048,7 +6048,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K63">
         <v>6.5</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6800033</v>
+        <v>6800470</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N64">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O64">
         <v>3.6</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q64">
+        <v>-1</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.9</v>
+      </c>
+      <c r="V64">
+        <v>1.9</v>
+      </c>
+      <c r="W64">
+        <v>0.571</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>-0</v>
+      </c>
+      <c r="AB64">
+        <v>0.45</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>1.975</v>
-      </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
-      <c r="T64">
-        <v>3</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
-      <c r="W64">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.95</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6800470</v>
+        <v>6800034</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K65">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M65">
-        <v>4.75</v>
+        <v>1.285</v>
       </c>
       <c r="N65">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800034</v>
+        <v>6800033</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,40 +6312,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K66">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O66">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>1.222</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6357,28 +6357,28 @@
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6404,7 +6404,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6800036</v>
+        <v>6800472</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,58 +6490,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O68">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>0.363</v>
+        <v>1.6</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,16 +6550,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K69">
         <v>2.875</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6800475</v>
+        <v>6800036</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="N70">
+        <v>1.363</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>6</v>
+      </c>
+      <c r="Q70">
+        <v>-1.25</v>
+      </c>
+      <c r="R70">
+        <v>1.875</v>
+      </c>
+      <c r="S70">
+        <v>1.925</v>
+      </c>
+      <c r="T70">
         <v>3</v>
       </c>
-      <c r="O70">
-        <v>3</v>
-      </c>
-      <c r="P70">
-        <v>2.15</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.9</v>
-      </c>
-      <c r="S70">
-        <v>1.9</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6800472</v>
+        <v>6800475</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
         <v>2</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L71">
         <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N71">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
       <c r="W71">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>45217.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.65</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6800037</v>
+        <v>6800477</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,7 +6935,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>30</v>
@@ -6944,67 +6944,67 @@
         <v>2</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="L73">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>13</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
+        <v>1.975</v>
+      </c>
+      <c r="T73">
         <v>2.75</v>
       </c>
-      <c r="R73">
-        <v>1.8</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>4</v>
-      </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6800038</v>
+        <v>6800479</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45220.4375</v>
       </c>
       <c r="F74" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" t="s">
         <v>36</v>
       </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
       <c r="H74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N74">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6800477</v>
+        <v>6800037</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,7 +7113,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7122,67 +7122,67 @@
         <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M75">
+        <v>1.166</v>
+      </c>
+      <c r="N75">
+        <v>13</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75">
+        <v>1.1</v>
+      </c>
+      <c r="Q75">
+        <v>2.75</v>
+      </c>
+      <c r="R75">
+        <v>1.8</v>
+      </c>
+      <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75">
         <v>4</v>
       </c>
-      <c r="N75">
-        <v>2.05</v>
-      </c>
-      <c r="O75">
-        <v>3.75</v>
-      </c>
-      <c r="P75">
-        <v>2.9</v>
-      </c>
-      <c r="Q75">
-        <v>-0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.825</v>
-      </c>
-      <c r="S75">
-        <v>1.975</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6800479</v>
+        <v>6800038</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45220.4375</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76">
+        <v>2.375</v>
+      </c>
+      <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>2.375</v>
+      </c>
+      <c r="N76">
+        <v>2.3</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
+        <v>2.55</v>
+      </c>
+      <c r="Q76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76" t="s">
-        <v>43</v>
-      </c>
-      <c r="K76">
-        <v>4.333</v>
-      </c>
-      <c r="L76">
-        <v>4</v>
-      </c>
-      <c r="M76">
-        <v>1.571</v>
-      </c>
-      <c r="N76">
-        <v>6</v>
-      </c>
-      <c r="O76">
-        <v>4.75</v>
-      </c>
-      <c r="P76">
-        <v>1.4</v>
-      </c>
-      <c r="Q76">
-        <v>1.25</v>
-      </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
         <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77">
         <v>1.444</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6800481</v>
+        <v>6800483</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,55 +7469,55 @@
         <v>45227.4375</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>2.35</v>
+        <v>2.875</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P79">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7526,19 +7526,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6800482</v>
+        <v>6800481</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45227.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="N80">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6800483</v>
+        <v>6800482</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,49 +7647,49 @@
         <v>45227.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="N81">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O81">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
         <v>1.8</v>
@@ -7701,22 +7701,22 @@
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y81">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>45227.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>1.142</v>
@@ -7825,7 +7825,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>1.02</v>
@@ -7914,7 +7914,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>37</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6800042</v>
+        <v>6800486</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N85">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O85">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q85">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>34</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K86">
         <v>1.666</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800486</v>
+        <v>6800485</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,40 +8181,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
         <v>1.85</v>
@@ -8226,31 +8226,31 @@
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6800485</v>
+        <v>6800042</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,56 +8270,56 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>43</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N88">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P88">
-        <v>4.333</v>
+        <v>1.3</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
+        <v>1.975</v>
+      </c>
+      <c r="S88">
+        <v>1.825</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
         <v>1.85</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>1.95</v>
       </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
-      <c r="V88">
-        <v>1.975</v>
-      </c>
       <c r="W88">
         <v>-1</v>
       </c>
@@ -8327,19 +8327,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>3.333</v>
+        <v>0.3</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.825</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.95</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>1.615</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800043</v>
+        <v>6800489</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,37 +8718,37 @@
         <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>2</v>
-      </c>
-      <c r="I93">
-        <v>3</v>
       </c>
       <c r="J93" t="s">
         <v>43</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M93">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O93">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
         <v>1.9</v>
@@ -8760,10 +8760,10 @@
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8772,7 +8772,7 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z93">
         <v>-1</v>
@@ -8781,10 +8781,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800489</v>
+        <v>6800043</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,37 +8807,37 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O94">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="P94">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8849,10 +8849,10 @@
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8861,7 +8861,7 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z94">
         <v>-1</v>
@@ -8870,10 +8870,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800046</v>
+        <v>6800495</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,10 +9071,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9083,64 +9083,64 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N97">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
+        <v>1.775</v>
+      </c>
+      <c r="S97">
+        <v>2.025</v>
+      </c>
+      <c r="T97">
+        <v>2.5</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
+        <v>-0</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.45</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>3.75</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800495</v>
+        <v>6800046</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9350,64 +9350,64 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800498</v>
+        <v>6800048</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L103">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
         <v>3</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800048</v>
+        <v>6800496</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N104">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P104">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800496</v>
+        <v>6800497</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>3.25</v>
+      </c>
+      <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
         <v>1.975</v>
       </c>
-      <c r="S105">
-        <v>1.825</v>
-      </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2</v>
-      </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6800497</v>
+        <v>6800498</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L106">
+        <v>4.2</v>
+      </c>
+      <c r="M106">
+        <v>6</v>
+      </c>
+      <c r="N106">
+        <v>1.4</v>
+      </c>
+      <c r="O106">
+        <v>4.2</v>
+      </c>
+      <c r="P106">
         <v>6.5</v>
       </c>
-      <c r="M106">
-        <v>9</v>
-      </c>
-      <c r="N106">
-        <v>1.166</v>
-      </c>
-      <c r="O106">
-        <v>7.5</v>
-      </c>
-      <c r="P106">
-        <v>10</v>
-      </c>
       <c r="Q106">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10050,10 +10050,10 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K109">
         <v>1.2</v>
@@ -10228,7 +10228,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
         <v>1.071</v>
@@ -10406,10 +10406,10 @@
         <v>45283.47916666666</v>
       </c>
       <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
         <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>30</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
         <v>2.4</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800051</v>
+        <v>6800507</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>36</v>
       </c>
       <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>2</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
-        <v>1.083</v>
+        <v>3.3</v>
       </c>
       <c r="L115">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>1.071</v>
+        <v>3.6</v>
       </c>
       <c r="O115">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="Q115">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6800505</v>
+        <v>6800506</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N116">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O116">
+        <v>3.3</v>
+      </c>
+      <c r="P116">
         <v>3.6</v>
       </c>
-      <c r="P116">
-        <v>1.909</v>
-      </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>1</v>
-      </c>
-      <c r="AB116">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800506</v>
+        <v>6800505</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
+        <v>4.5</v>
+      </c>
+      <c r="L117">
+        <v>3.8</v>
+      </c>
+      <c r="M117">
+        <v>1.615</v>
+      </c>
+      <c r="N117">
+        <v>3.25</v>
+      </c>
+      <c r="O117">
+        <v>3.6</v>
+      </c>
+      <c r="P117">
+        <v>1.909</v>
+      </c>
+      <c r="Q117">
+        <v>0.5</v>
+      </c>
+      <c r="R117">
         <v>1.8</v>
       </c>
-      <c r="L117">
-        <v>3.5</v>
-      </c>
-      <c r="M117">
-        <v>4</v>
-      </c>
-      <c r="N117">
-        <v>1.95</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
-      <c r="P117">
-        <v>3.6</v>
-      </c>
-      <c r="Q117">
-        <v>-0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.95</v>
-      </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC117">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800507</v>
+        <v>6800051</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>35</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
         <v>1</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>3.3</v>
+        <v>1.083</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N118">
-        <v>3.6</v>
+        <v>1.071</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>21</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-3</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K119">
         <v>3.5</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800514</v>
+        <v>6800515</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,76 +11118,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>42</v>
       </c>
       <c r="K120">
+        <v>3.2</v>
+      </c>
+      <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
         <v>2.05</v>
       </c>
-      <c r="L120">
+      <c r="N120">
+        <v>2.45</v>
+      </c>
+      <c r="O120">
         <v>3.3</v>
       </c>
-      <c r="M120">
-        <v>3.2</v>
-      </c>
-      <c r="N120">
-        <v>2.375</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
       <c r="P120">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800515</v>
+        <v>6800514</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,76 +11207,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>41</v>
       </c>
       <c r="K121">
+        <v>2.05</v>
+      </c>
+      <c r="L121">
+        <v>3.3</v>
+      </c>
+      <c r="M121">
         <v>3.2</v>
       </c>
-      <c r="L121">
-        <v>3.4</v>
-      </c>
-      <c r="M121">
+      <c r="N121">
+        <v>2.375</v>
+      </c>
+      <c r="O121">
+        <v>3.2</v>
+      </c>
+      <c r="P121">
+        <v>2.8</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
         <v>2.05</v>
       </c>
-      <c r="N121">
-        <v>2.45</v>
-      </c>
-      <c r="O121">
-        <v>3.3</v>
-      </c>
-      <c r="P121">
-        <v>2.6</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>1.85</v>
-      </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X121">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>45291.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>34</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K122">
         <v>1.533</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800516</v>
+        <v>6800052</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M123">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6800052</v>
+        <v>6800516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>4</v>
-      </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11652,7 +11652,7 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11664,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K126">
         <v>1.1</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K127">
         <v>3.2</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800053</v>
+        <v>6800054</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>41</v>
       </c>
       <c r="K128">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="M128">
-        <v>2.75</v>
+        <v>19</v>
       </c>
       <c r="N128">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P128">
-        <v>2.4</v>
+        <v>15</v>
       </c>
       <c r="Q128">
+        <v>-2.5</v>
+      </c>
+      <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>1.825</v>
+      </c>
+      <c r="T128">
+        <v>4</v>
+      </c>
+      <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
+        <v>1.825</v>
+      </c>
+      <c r="W128">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.825</v>
+      </c>
+      <c r="AB128">
         <v>0</v>
       </c>
-      <c r="R128">
-        <v>2.025</v>
-      </c>
-      <c r="S128">
-        <v>1.775</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.9</v>
-      </c>
-      <c r="V128">
-        <v>1.9</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
-      <c r="X128">
-        <v>2.4</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>0</v>
-      </c>
-      <c r="AA128">
+      <c r="AC128">
         <v>-0</v>
-      </c>
-      <c r="AB128">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800519</v>
+        <v>6800053</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,73 +12008,73 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N130">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O130">
         <v>3.4</v>
       </c>
       <c r="P130">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q130">
         <v>0</v>
       </c>
       <c r="R130">
+        <v>2.025</v>
+      </c>
+      <c r="S130">
+        <v>1.775</v>
+      </c>
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
         <v>1.9</v>
       </c>
-      <c r="S130">
+      <c r="V130">
         <v>1.9</v>
       </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.975</v>
-      </c>
-      <c r="V130">
-        <v>1.825</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y130">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA130">
+        <v>-0</v>
+      </c>
+      <c r="AB130">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB130">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800520</v>
+        <v>6800519</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,56 +12186,56 @@
         <v>45304.59375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
       </c>
       <c r="K132">
+        <v>2.6</v>
+      </c>
+      <c r="L132">
         <v>3.5</v>
       </c>
-      <c r="L132">
-        <v>3.75</v>
-      </c>
       <c r="M132">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N132">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
+        <v>1.9</v>
+      </c>
+      <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>1.975</v>
+      </c>
+      <c r="V132">
         <v>1.825</v>
       </c>
-      <c r="S132">
-        <v>1.975</v>
-      </c>
-      <c r="T132">
-        <v>2.75</v>
-      </c>
-      <c r="U132">
-        <v>1.85</v>
-      </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
@@ -12243,19 +12243,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB132">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800054</v>
+        <v>6800520</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>19</v>
+        <v>1.85</v>
       </c>
       <c r="N133">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="O133">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>15</v>
+        <v>1.95</v>
       </c>
       <c r="Q133">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
         <v>1.975</v>
       </c>
-      <c r="S133">
-        <v>1.825</v>
-      </c>
       <c r="T133">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,10 +12364,10 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" t="s">
         <v>35</v>
-      </c>
-      <c r="G134" t="s">
-        <v>36</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K134">
         <v>1.285</v>
@@ -12456,7 +12456,7 @@
         <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K135">
         <v>4</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7721563</v>
+        <v>7721604</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K137">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="N137">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O137">
         <v>3.5</v>
       </c>
       <c r="P137">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>1.8</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
         <v>1.9</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>1.9</v>
       </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.825</v>
-      </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
+        <v>0.45</v>
+      </c>
+      <c r="AC137">
         <v>-0.5</v>
-      </c>
-      <c r="AC137">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7721604</v>
+        <v>7721563</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K138">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="N138">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O138">
         <v>3.5</v>
       </c>
       <c r="P138">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y138">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
         <v>33</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K139">
         <v>1.1</v>
@@ -12901,7 +12901,7 @@
         <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13177,7 +13177,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K143">
         <v>1.533</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7721585</v>
+        <v>7721564</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,7 +13254,7 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13263,64 +13263,64 @@
         <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N144">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7721564</v>
+        <v>7721585</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,7 +13343,7 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>36</v>
@@ -13352,64 +13352,64 @@
         <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721608</v>
+        <v>7721586</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,7 +13432,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>29</v>
@@ -13441,67 +13441,67 @@
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K146">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M146">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="N146">
+        <v>13</v>
+      </c>
+      <c r="O146">
+        <v>7.5</v>
+      </c>
+      <c r="P146">
+        <v>1.142</v>
+      </c>
+      <c r="Q146">
         <v>2.25</v>
       </c>
-      <c r="O146">
-        <v>3.25</v>
-      </c>
-      <c r="P146">
-        <v>2.9</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>1.85</v>
+      </c>
+      <c r="T146">
+        <v>3.5</v>
+      </c>
+      <c r="U146">
+        <v>1.8</v>
+      </c>
+      <c r="V146">
         <v>2</v>
       </c>
-      <c r="S146">
-        <v>1.8</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7721586</v>
+        <v>7721608</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,7 +13521,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
         <v>30</v>
@@ -13530,67 +13530,67 @@
         <v>1</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="N147">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P147">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.925</v>
+      </c>
+      <c r="V147">
+        <v>1.875</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>2.25</v>
       </c>
-      <c r="R147">
-        <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.85</v>
-      </c>
-      <c r="T147">
-        <v>3.5</v>
-      </c>
-      <c r="U147">
-        <v>1.8</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K148">
         <v>1.5</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K149">
         <v>2.1</v>
@@ -13877,7 +13877,7 @@
         <v>45346.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
         <v>39</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K151">
         <v>1.4</v>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,19 @@
     <t>Wales Premier League</t>
   </si>
   <si>
-    <t>TNS</t>
+    <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Haverfordwest County</t>
+    <t>TNS</t>
   </si>
   <si>
     <t>Aberystwyth</t>
   </si>
   <si>
-    <t>Bala Town</t>
+    <t>Newtown</t>
   </si>
   <si>
-    <t>Newtown</t>
+    <t>Bala Town</t>
   </si>
   <si>
     <t>Colwyn Bay</t>
@@ -139,10 +139,10 @@
     <t>Barry Town</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6800016</v>
+        <v>6800423</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6800423</v>
+        <v>6800016</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6800425</v>
+        <v>6800426</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="L5">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
+        <v>1.825</v>
+      </c>
+      <c r="V5">
         <v>1.975</v>
       </c>
-      <c r="V5">
-        <v>1.825</v>
-      </c>
       <c r="W5">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6800426</v>
+        <v>6800425</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>1.3</v>
+      </c>
+      <c r="L6">
+        <v>4.333</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>1.285</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>8.5</v>
+      </c>
+      <c r="Q6">
+        <v>-1.5</v>
+      </c>
+      <c r="R6">
+        <v>1.85</v>
+      </c>
+      <c r="S6">
+        <v>1.95</v>
+      </c>
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6">
-        <v>3.1</v>
-      </c>
-      <c r="L6">
-        <v>3.4</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <v>3.5</v>
-      </c>
-      <c r="P6">
-        <v>1.833</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.9</v>
-      </c>
-      <c r="S6">
-        <v>1.9</v>
-      </c>
-      <c r="T6">
-        <v>2.5</v>
-      </c>
       <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.825</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2.25</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>1.8</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>2.3</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6800431</v>
+        <v>6800432</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,13 +1684,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1699,52 +1699,52 @@
         <v>41</v>
       </c>
       <c r="K14">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N14">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>2.5</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1753,7 +1753,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6800432</v>
+        <v>6800431</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,13 +1773,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1788,52 +1788,52 @@
         <v>42</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
+        <v>2.4</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
         <v>1.85</v>
-      </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.825</v>
-      </c>
-      <c r="S15">
-        <v>1.975</v>
       </c>
       <c r="T15">
         <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1842,7 +1842,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>45164.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6800020</v>
+        <v>6800437</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>1.04</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>3.8</v>
       </c>
       <c r="N17">
-        <v>1.055</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>29</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6800437</v>
+        <v>6800020</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>1.04</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>3.8</v>
+        <v>41</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>1.055</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P18">
-        <v>4.333</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6800021</v>
+        <v>6800841</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="M20">
+        <v>1.083</v>
+      </c>
+      <c r="N20">
+        <v>23</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <v>1.071</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
         <v>1.85</v>
       </c>
-      <c r="N20">
-        <v>3.6</v>
-      </c>
-      <c r="O20">
-        <v>3.6</v>
-      </c>
-      <c r="P20">
-        <v>1.85</v>
-      </c>
-      <c r="Q20">
-        <v>0.5</v>
-      </c>
-      <c r="R20">
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
         <v>1.9</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.9</v>
       </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z20">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6800440</v>
+        <v>6800442</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N21">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
+        <v>1.975</v>
+      </c>
+      <c r="S21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>1.975</v>
-      </c>
       <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>1.775</v>
+      </c>
+      <c r="V21">
+        <v>2.025</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>2.5</v>
       </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>2.4</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800441</v>
+        <v>6800021</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,13 +2396,13 @@
         <v>45167.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2411,31 +2411,31 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N22">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2447,25 +2447,25 @@
         <v>1.875</v>
       </c>
       <c r="W22">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800841</v>
+        <v>6800440</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>17</v>
+        <v>2.4</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>1.083</v>
+        <v>2.625</v>
       </c>
       <c r="N23">
-        <v>23</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>1.071</v>
+        <v>2.55</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y23">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800442</v>
+        <v>6800441</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N24">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6800022</v>
+        <v>6800023</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>26</v>
       </c>
       <c r="N26">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="P26">
-        <v>1.909</v>
+        <v>41</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-4.25</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6800023</v>
+        <v>6800022</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>1.8</v>
       </c>
       <c r="N27">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>41</v>
+        <v>1.909</v>
       </c>
       <c r="Q27">
-        <v>-4.25</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>2.7</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>2.2</v>
@@ -3108,7 +3108,7 @@
         <v>45171.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3200,7 +3200,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>1.727</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6800448</v>
+        <v>6800449</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,13 +3375,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -3390,40 +3390,40 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3432,16 +3432,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.55</v>
+        <v>1.75</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6800024</v>
+        <v>6800450</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,46 +3464,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>43</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
+        <v>6.5</v>
+      </c>
+      <c r="N34">
+        <v>1.363</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>8</v>
+      </c>
+      <c r="Q34">
+        <v>-1.5</v>
+      </c>
+      <c r="R34">
         <v>2</v>
       </c>
-      <c r="N34">
-        <v>3.75</v>
-      </c>
-      <c r="O34">
-        <v>3.8</v>
-      </c>
-      <c r="P34">
-        <v>1.85</v>
-      </c>
-      <c r="Q34">
-        <v>0.5</v>
-      </c>
-      <c r="R34">
-        <v>1.975</v>
-      </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
         <v>2.75</v>
@@ -3521,19 +3521,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.8500000000000001</v>
+        <v>7</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6800450</v>
+        <v>6800448</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,46 +3553,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
       </c>
       <c r="K35">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P35">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q35">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
         <v>2.75</v>
@@ -3610,19 +3610,19 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>7</v>
+        <v>0.55</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6800449</v>
+        <v>6800024</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,13 +3642,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -3657,40 +3657,40 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3699,16 +3699,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3731,10 +3731,10 @@
         <v>45182.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6800027</v>
+        <v>6800026</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,58 +3909,58 @@
         <v>45185.4375</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39">
+        <v>1.6</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>4.5</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>4.2</v>
+      </c>
+      <c r="P39">
         <v>5</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39">
-        <v>1.062</v>
-      </c>
-      <c r="L39">
-        <v>12</v>
-      </c>
-      <c r="M39">
-        <v>26</v>
-      </c>
-      <c r="N39">
-        <v>1.09</v>
-      </c>
-      <c r="O39">
-        <v>9.5</v>
-      </c>
-      <c r="P39">
-        <v>23</v>
-      </c>
       <c r="Q39">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R39">
+        <v>1.95</v>
+      </c>
+      <c r="S39">
+        <v>1.85</v>
+      </c>
+      <c r="T39">
+        <v>2.75</v>
+      </c>
+      <c r="U39">
+        <v>1.825</v>
+      </c>
+      <c r="V39">
         <v>1.975</v>
       </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
-      <c r="T39">
-        <v>3.5</v>
-      </c>
-      <c r="U39">
-        <v>1.8</v>
-      </c>
-      <c r="V39">
-        <v>2</v>
-      </c>
       <c r="W39">
-        <v>0.09000000000000008</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3969,13 +3969,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6800452</v>
+        <v>6800027</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,58 +3998,58 @@
         <v>45185.4375</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>1.7</v>
+        <v>1.062</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="M40">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="N40">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>23</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U40">
+        <v>1.8</v>
+      </c>
+      <c r="V40">
         <v>2</v>
       </c>
-      <c r="V40">
-        <v>1.8</v>
-      </c>
       <c r="W40">
-        <v>0.5</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4058,13 +4058,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6800453</v>
+        <v>6800452</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,25 +4087,25 @@
         <v>45185.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
         <v>4.333</v>
@@ -4117,7 +4117,7 @@
         <v>4</v>
       </c>
       <c r="P41">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q41">
         <v>-1</v>
@@ -4132,10 +4132,10 @@
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
         <v>0.5</v>
@@ -4153,10 +4153,10 @@
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6800026</v>
+        <v>6800453</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,55 +4176,55 @@
         <v>45185.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
         <v>1.5</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q42">
         <v>-1</v>
       </c>
       <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
-      </c>
-      <c r="S42">
-        <v>1.85</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
         <v>0.5</v>
@@ -4236,16 +4236,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>3.8</v>
@@ -4357,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6800457</v>
+        <v>6800458</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,40 +4532,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>4.8</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N46">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>1.975</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6800458</v>
+        <v>6800456</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L47">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="N47">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6800456</v>
+        <v>6800457</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,73 +4710,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="Q48">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
+        <v>0.825</v>
+      </c>
+      <c r="AB48">
         <v>0.875</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
-      <c r="AB48">
-        <v>1</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>2.15</v>
@@ -4891,7 +4891,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6800461</v>
+        <v>6800460</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,58 +4977,58 @@
         <v>45195.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N51">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R51">
+        <v>1.9</v>
+      </c>
+      <c r="S51">
+        <v>1.9</v>
+      </c>
+      <c r="T51">
+        <v>3.25</v>
+      </c>
+      <c r="U51">
         <v>1.925</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.875</v>
       </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>2</v>
-      </c>
-      <c r="V51">
-        <v>1.8</v>
-      </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>0.181</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5040,13 +5040,13 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6800460</v>
+        <v>6800461</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,58 +5066,58 @@
         <v>45195.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52">
+        <v>1.333</v>
+      </c>
+      <c r="L52">
+        <v>5.25</v>
+      </c>
+      <c r="M52">
+        <v>5.75</v>
+      </c>
+      <c r="N52">
+        <v>1.3</v>
+      </c>
+      <c r="O52">
+        <v>5.5</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+      <c r="Q52">
+        <v>-1.5</v>
+      </c>
+      <c r="R52">
+        <v>1.925</v>
+      </c>
+      <c r="S52">
+        <v>1.875</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
         <v>2</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52">
-        <v>1.25</v>
-      </c>
-      <c r="L52">
-        <v>5.75</v>
-      </c>
-      <c r="M52">
-        <v>7.5</v>
-      </c>
-      <c r="N52">
-        <v>1.181</v>
-      </c>
-      <c r="O52">
-        <v>6</v>
-      </c>
-      <c r="P52">
-        <v>12</v>
-      </c>
-      <c r="Q52">
-        <v>-2</v>
-      </c>
-      <c r="R52">
-        <v>1.9</v>
-      </c>
-      <c r="S52">
-        <v>1.9</v>
-      </c>
-      <c r="T52">
-        <v>3.25</v>
-      </c>
-      <c r="U52">
-        <v>1.925</v>
-      </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>0.181</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5129,13 +5129,13 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5247,7 +5247,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>45196.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6800467</v>
+        <v>6800464</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>41</v>
       </c>
       <c r="K56">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>45199.4375</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57">
         <v>1.05</v>
@@ -5689,7 +5689,7 @@
         <v>45199.4375</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K59">
         <v>1.7</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6800464</v>
+        <v>6800467</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>42</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="N60">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>1.85</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K62">
         <v>2.1</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K63">
         <v>6.5</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6800470</v>
+        <v>6800034</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M64">
-        <v>4.75</v>
+        <v>1.285</v>
       </c>
       <c r="N64">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P64">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6800034</v>
+        <v>6800033</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,40 +6223,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O65">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>1.222</v>
+        <v>3.3</v>
       </c>
       <c r="Q65">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6268,28 +6268,28 @@
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800033</v>
+        <v>6800470</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,73 +6315,73 @@
         <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N66">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O66">
         <v>3.6</v>
       </c>
       <c r="P66">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q66">
+        <v>-1</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>1.8</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.9</v>
+      </c>
+      <c r="V66">
+        <v>1.9</v>
+      </c>
+      <c r="W66">
+        <v>0.571</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>-1</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-0</v>
+      </c>
+      <c r="AB66">
+        <v>0.45</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.85</v>
-      </c>
-      <c r="W66">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.95</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6800472</v>
+        <v>6800475</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,58 +6490,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
         <v>2</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L68">
         <v>3.2</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
+        <v>1.85</v>
+      </c>
+      <c r="V68">
         <v>1.95</v>
       </c>
-      <c r="V68">
-        <v>1.85</v>
-      </c>
       <c r="W68">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,16 +6550,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6591,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K69">
         <v>2.875</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6800036</v>
+        <v>6800472</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>1.6</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6800475</v>
+        <v>6800036</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>3</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="N71">
+        <v>1.363</v>
+      </c>
+      <c r="O71">
+        <v>4.75</v>
+      </c>
+      <c r="P71">
+        <v>6</v>
+      </c>
+      <c r="Q71">
+        <v>-1.25</v>
+      </c>
+      <c r="R71">
+        <v>1.875</v>
+      </c>
+      <c r="S71">
+        <v>1.925</v>
+      </c>
+      <c r="T71">
         <v>3</v>
       </c>
-      <c r="O71">
-        <v>3</v>
-      </c>
-      <c r="P71">
-        <v>2.15</v>
-      </c>
-      <c r="Q71">
-        <v>0.25</v>
-      </c>
-      <c r="R71">
-        <v>1.9</v>
-      </c>
-      <c r="S71">
-        <v>1.9</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
         <v>1.65</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6800477</v>
+        <v>6800479</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,46 +6935,46 @@
         <v>45220.4375</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2.75</v>
@@ -6986,25 +6986,25 @@
         <v>1.875</v>
       </c>
       <c r="W73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC73">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6800479</v>
+        <v>6800477</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,46 +7024,46 @@
         <v>45220.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="L74">
+        <v>3.75</v>
+      </c>
+      <c r="M74">
         <v>4</v>
       </c>
-      <c r="M74">
-        <v>1.571</v>
-      </c>
       <c r="N74">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2.75</v>
@@ -7075,25 +7075,25 @@
         <v>1.875</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6800037</v>
+        <v>6800038</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,40 +7113,40 @@
         <v>45220.4375</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="N75">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="O75">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>1.8</v>
@@ -7155,31 +7155,31 @@
         <v>2</v>
       </c>
       <c r="T75">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6800038</v>
+        <v>6800037</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45220.4375</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M76">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="N76">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="P76">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R76">
         <v>1.8</v>
@@ -7244,31 +7244,31 @@
         <v>2</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Z76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6800039</v>
+        <v>6800480</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45226.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>1.925</v>
+      </c>
+      <c r="S77">
         <v>1.875</v>
       </c>
-      <c r="S77">
-        <v>1.925</v>
-      </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.875</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6800480</v>
+        <v>6800039</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45226.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K78">
+        <v>1.444</v>
+      </c>
+      <c r="L78">
+        <v>4.5</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
         <v>1.333</v>
       </c>
-      <c r="L78">
-        <v>4.8</v>
-      </c>
-      <c r="M78">
+      <c r="O78">
+        <v>5</v>
+      </c>
+      <c r="P78">
         <v>6.5</v>
       </c>
-      <c r="N78">
-        <v>1.4</v>
-      </c>
-      <c r="O78">
-        <v>4.333</v>
-      </c>
-      <c r="P78">
-        <v>5.75</v>
-      </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
         <v>1.925</v>
       </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6800483</v>
+        <v>6800481</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,55 +7469,55 @@
         <v>45227.4375</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>2.875</v>
+        <v>2.35</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="O79">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7526,19 +7526,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6800481</v>
+        <v>6800482</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45227.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
+        <v>2.75</v>
+      </c>
+      <c r="U80">
+        <v>1.8</v>
+      </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
         <v>3</v>
       </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
       <c r="Y80">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6800482</v>
+        <v>6800483</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,49 +7647,49 @@
         <v>45227.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="N81">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
         <v>1.8</v>
@@ -7701,22 +7701,22 @@
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
+        <v>1.025</v>
+      </c>
+      <c r="AB81">
         <v>0.8</v>
       </c>
-      <c r="AB81">
-        <v>-1</v>
-      </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,10 +7736,10 @@
         <v>45227.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>1.142</v>
@@ -7825,7 +7825,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>1.02</v>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6800487</v>
+        <v>6800485</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,46 +8092,46 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
         <v>2.75</v>
@@ -8143,25 +8143,25 @@
         <v>1.975</v>
       </c>
       <c r="W86">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800485</v>
+        <v>6800484</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N87">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
       </c>
-      <c r="S87">
-        <v>1.95</v>
-      </c>
       <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>1.775</v>
+      </c>
+      <c r="V87">
+        <v>2.025</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
         <v>2.75</v>
       </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
       <c r="Y87">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6800042</v>
+        <v>6800487</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88">
+        <v>1.666</v>
+      </c>
+      <c r="L88">
+        <v>3.75</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>1.75</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>3.75</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
         <v>2</v>
       </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
-        <v>6</v>
-      </c>
-      <c r="M88">
-        <v>1.25</v>
-      </c>
-      <c r="N88">
-        <v>6.5</v>
-      </c>
-      <c r="O88">
-        <v>5.75</v>
-      </c>
-      <c r="P88">
-        <v>1.3</v>
-      </c>
-      <c r="Q88">
-        <v>1.5</v>
-      </c>
-      <c r="R88">
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
         <v>1.975</v>
       </c>
-      <c r="S88">
-        <v>1.825</v>
-      </c>
-      <c r="T88">
-        <v>3.25</v>
-      </c>
-      <c r="U88">
-        <v>1.85</v>
-      </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.825</v>
       </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6800484</v>
+        <v>6800042</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,73 +8362,73 @@
         <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M89">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="N89">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P89">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
+        <v>1.825</v>
+      </c>
+      <c r="T89">
+        <v>3.25</v>
+      </c>
+      <c r="U89">
+        <v>1.85</v>
+      </c>
+      <c r="V89">
         <v>1.95</v>
       </c>
-      <c r="S89">
-        <v>1.85</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>1.775</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8629,7 +8629,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800489</v>
+        <v>6800491</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,40 +8715,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
         <v>43</v>
       </c>
       <c r="K93">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L93">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N93">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O93">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
         <v>1.9</v>
@@ -8757,13 +8757,13 @@
         <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8772,7 +8772,7 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z93">
         <v>-1</v>
@@ -8781,10 +8781,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
+        <v>0.5</v>
+      </c>
+      <c r="AC93">
         <v>-0.5</v>
-      </c>
-      <c r="AC93">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800043</v>
+        <v>6800489</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,40 +8804,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
         <v>2</v>
-      </c>
-      <c r="I94">
-        <v>3</v>
       </c>
       <c r="J94" t="s">
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L94">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M94">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N94">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8849,10 +8849,10 @@
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8861,7 +8861,7 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z94">
         <v>-1</v>
@@ -8870,10 +8870,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6800491</v>
+        <v>6800043</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,13 +8893,13 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>3</v>
@@ -8908,25 +8908,25 @@
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N95">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
         <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8935,13 +8935,13 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800495</v>
+        <v>6800046</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,10 +9071,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9083,64 +9083,64 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800493</v>
+        <v>6800495</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,13 +9160,13 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -9175,61 +9175,61 @@
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
         <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800492</v>
+        <v>6800493</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,13 +9249,13 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -9264,61 +9264,61 @@
         <v>42</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="L99">
         <v>3.75</v>
       </c>
       <c r="M99">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
+        <v>1.775</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.8</v>
       </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800046</v>
+        <v>6800492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9350,64 +9350,64 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
+        <v>3.75</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>1.727</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
+        <v>2.05</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
         <v>2</v>
       </c>
-      <c r="L100">
-        <v>3.6</v>
-      </c>
-      <c r="M100">
-        <v>3</v>
-      </c>
-      <c r="N100">
-        <v>1.727</v>
-      </c>
-      <c r="O100">
-        <v>3.8</v>
-      </c>
-      <c r="P100">
-        <v>3.8</v>
-      </c>
-      <c r="Q100">
-        <v>-0.75</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
         <v>1.925</v>
       </c>
-      <c r="V100">
-        <v>1.875</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800048</v>
+        <v>6800498</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M103">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O103">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>3</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800496</v>
+        <v>6800497</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.444</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M104">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>3.25</v>
+      </c>
+      <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
         <v>1.975</v>
       </c>
-      <c r="S104">
-        <v>1.825</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.8</v>
-      </c>
-      <c r="V104">
-        <v>2</v>
-      </c>
       <c r="W104">
-        <v>0.3999999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800497</v>
+        <v>6800496</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H105">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L105">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="P105">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6800498</v>
+        <v>6800048</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="N106">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
         <v>3</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB106">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800503</v>
+        <v>6800050</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,58 +10139,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>1.2</v>
+        <v>1.071</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="M109">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N109">
-        <v>1.142</v>
+        <v>1.083</v>
       </c>
       <c r="O109">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P109">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q109">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.1419999999999999</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10199,16 +10199,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800050</v>
+        <v>6800503</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,58 +10228,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>1.071</v>
+        <v>1.2</v>
       </c>
       <c r="L110">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="M110">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N110">
-        <v>1.083</v>
+        <v>1.142</v>
       </c>
       <c r="O110">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P110">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="R110">
+        <v>1.775</v>
+      </c>
+      <c r="S110">
+        <v>2.025</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.95</v>
+      </c>
+      <c r="V110">
         <v>1.85</v>
       </c>
-      <c r="S110">
-        <v>1.95</v>
-      </c>
-      <c r="T110">
-        <v>3.5</v>
-      </c>
-      <c r="U110">
-        <v>1.975</v>
-      </c>
-      <c r="V110">
-        <v>1.825</v>
-      </c>
       <c r="W110">
-        <v>0.08299999999999996</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10288,16 +10288,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>45276.59375</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>39</v>
@@ -10406,10 +10406,10 @@
         <v>45283.47916666666</v>
       </c>
       <c r="F112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
         <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6800504</v>
+        <v>6800505</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,13 +10495,13 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>3</v>
@@ -10510,40 +10510,40 @@
         <v>43</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N113">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10552,16 +10552,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
         <v>2.4</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800507</v>
+        <v>6800051</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>3.3</v>
+        <v>1.083</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>1.071</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P115">
-        <v>1.909</v>
+        <v>21</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-3</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6800506</v>
+        <v>6800504</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N116">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800505</v>
+        <v>6800506</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O117">
+        <v>3.3</v>
+      </c>
+      <c r="P117">
         <v>3.6</v>
       </c>
-      <c r="P117">
-        <v>1.909</v>
-      </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>1</v>
-      </c>
-      <c r="AB117">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800051</v>
+        <v>6800507</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>1.083</v>
+        <v>3.3</v>
       </c>
       <c r="L118">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>1.071</v>
+        <v>3.6</v>
       </c>
       <c r="O118">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="Q118">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6800513</v>
+        <v>6800514</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,13 +11029,13 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11044,31 +11044,31 @@
         <v>42</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N119">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T119">
         <v>2.25</v>
@@ -11080,25 +11080,25 @@
         <v>2.025</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X119">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
         <v>3.2</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800514</v>
+        <v>6800513</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,13 +11207,13 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11222,31 +11222,31 @@
         <v>41</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L121">
+        <v>3.5</v>
+      </c>
+      <c r="M121">
+        <v>1.95</v>
+      </c>
+      <c r="N121">
+        <v>4.2</v>
+      </c>
+      <c r="O121">
         <v>3.3</v>
       </c>
-      <c r="M121">
-        <v>3.2</v>
-      </c>
-      <c r="N121">
-        <v>2.375</v>
-      </c>
-      <c r="O121">
-        <v>3.2</v>
-      </c>
       <c r="P121">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>2.25</v>
@@ -11258,25 +11258,25 @@
         <v>2.025</v>
       </c>
       <c r="W121">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>1.533</v>
@@ -11388,7 +11388,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K124">
         <v>1.5</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7440288</v>
+        <v>7589426</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,40 +11652,40 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K126">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="L126">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="O126">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="Q126">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
         <v>1.9</v>
@@ -11694,16 +11694,16 @@
         <v>1.9</v>
       </c>
       <c r="T126">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.04000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,7 +11718,7 @@
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7589426</v>
+        <v>7440288</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,40 +11741,40 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K127">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N127">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P127">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="Q127">
-        <v>0.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R127">
         <v>1.9</v>
@@ -11783,16 +11783,16 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>2.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,7 +11807,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800054</v>
+        <v>6800519</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11836,43 +11836,43 @@
         <v>33</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
       <c r="J128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="L128">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>19</v>
+        <v>2.375</v>
       </c>
       <c r="N128">
-        <v>1.142</v>
+        <v>2.55</v>
       </c>
       <c r="O128">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="Q128">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.975</v>
@@ -11881,25 +11881,25 @@
         <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800053</v>
+        <v>6800520</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="N130">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800519</v>
+        <v>6800054</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12192,43 +12192,43 @@
         <v>32</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M132">
-        <v>2.375</v>
+        <v>19</v>
       </c>
       <c r="N132">
-        <v>2.55</v>
+        <v>1.142</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U132">
         <v>1.975</v>
@@ -12237,25 +12237,25 @@
         <v>1.825</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800520</v>
+        <v>6800053</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K133">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N133">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K134">
         <v>1.285</v>
@@ -12456,7 +12456,7 @@
         <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K135">
         <v>4</v>
@@ -12720,7 +12720,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12732,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K138">
         <v>1.833</v>
@@ -12809,10 +12809,10 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>1.1</v>
@@ -12898,10 +12898,10 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13177,7 +13177,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>1.533</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7721564</v>
+        <v>7721585</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,73 +13254,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7721585</v>
+        <v>7721564</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,73 +13343,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K145">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N145">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721586</v>
+        <v>7721609</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="L146">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M146">
-        <v>1.142</v>
+        <v>5</v>
       </c>
       <c r="N146">
-        <v>13</v>
+        <v>1.4</v>
       </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>1.142</v>
+        <v>6</v>
       </c>
       <c r="Q146">
-        <v>2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y146">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K147">
         <v>2.3</v>
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7721609</v>
+        <v>7721586</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,76 +13610,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>1.142</v>
       </c>
       <c r="N148">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P148">
-        <v>6</v>
+        <v>1.142</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>2.25</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K149">
         <v>2.1</v>
@@ -13788,10 +13788,10 @@
         <v>45346.47916666666</v>
       </c>
       <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
         <v>33</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K151">
         <v>1.4</v>
@@ -13947,6 +13947,450 @@
       </c>
       <c r="AC151">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7721589</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F152" t="s">
+        <v>35</v>
+      </c>
+      <c r="G152" t="s">
+        <v>32</v>
+      </c>
+      <c r="K152">
+        <v>2.35</v>
+      </c>
+      <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>2.45</v>
+      </c>
+      <c r="N152">
+        <v>2.375</v>
+      </c>
+      <c r="O152">
+        <v>3.6</v>
+      </c>
+      <c r="P152">
+        <v>2.45</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
+        <v>1.95</v>
+      </c>
+      <c r="T152">
+        <v>3</v>
+      </c>
+      <c r="U152">
+        <v>1.95</v>
+      </c>
+      <c r="V152">
+        <v>1.85</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7721588</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+      <c r="G153" t="s">
+        <v>36</v>
+      </c>
+      <c r="K153">
+        <v>3.75</v>
+      </c>
+      <c r="L153">
+        <v>3.8</v>
+      </c>
+      <c r="M153">
+        <v>1.7</v>
+      </c>
+      <c r="N153">
+        <v>3.4</v>
+      </c>
+      <c r="O153">
+        <v>3.5</v>
+      </c>
+      <c r="P153">
+        <v>1.85</v>
+      </c>
+      <c r="Q153">
+        <v>0.5</v>
+      </c>
+      <c r="R153">
+        <v>1.875</v>
+      </c>
+      <c r="S153">
+        <v>1.925</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
+        <v>1.8</v>
+      </c>
+      <c r="V153">
+        <v>2</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7721611</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45353.39583333334</v>
+      </c>
+      <c r="F154" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" t="s">
+        <v>29</v>
+      </c>
+      <c r="K154">
+        <v>3.05</v>
+      </c>
+      <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
+        <v>1.95</v>
+      </c>
+      <c r="N154">
+        <v>3.3</v>
+      </c>
+      <c r="O154">
+        <v>3.75</v>
+      </c>
+      <c r="P154">
+        <v>1.833</v>
+      </c>
+      <c r="Q154">
+        <v>0.5</v>
+      </c>
+      <c r="R154">
+        <v>1.9</v>
+      </c>
+      <c r="S154">
+        <v>1.9</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>1.8</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7721566</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45353.40625</v>
+      </c>
+      <c r="F155" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" t="s">
+        <v>39</v>
+      </c>
+      <c r="K155">
+        <v>1.05</v>
+      </c>
+      <c r="L155">
+        <v>9</v>
+      </c>
+      <c r="M155">
+        <v>19</v>
+      </c>
+      <c r="N155">
+        <v>1.05</v>
+      </c>
+      <c r="O155">
+        <v>9</v>
+      </c>
+      <c r="P155">
+        <v>19</v>
+      </c>
+      <c r="Q155">
+        <v>-3</v>
+      </c>
+      <c r="R155">
+        <v>1.975</v>
+      </c>
+      <c r="S155">
+        <v>1.825</v>
+      </c>
+      <c r="T155">
+        <v>4</v>
+      </c>
+      <c r="U155">
+        <v>1.925</v>
+      </c>
+      <c r="V155">
+        <v>1.875</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7721613</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45353.47916666666</v>
+      </c>
+      <c r="F156" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s">
+        <v>38</v>
+      </c>
+      <c r="K156">
+        <v>1.533</v>
+      </c>
+      <c r="L156">
+        <v>3.8</v>
+      </c>
+      <c r="M156">
+        <v>5</v>
+      </c>
+      <c r="N156">
+        <v>1.6</v>
+      </c>
+      <c r="O156">
+        <v>3.75</v>
+      </c>
+      <c r="P156">
+        <v>4.5</v>
+      </c>
+      <c r="Q156">
+        <v>-0.75</v>
+      </c>
+      <c r="R156">
+        <v>1.8</v>
+      </c>
+      <c r="S156">
+        <v>2</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
+        <v>1.8</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7721612</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45353.47916666666</v>
+      </c>
+      <c r="F157" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" t="s">
+        <v>40</v>
+      </c>
+      <c r="K157">
+        <v>2.7</v>
+      </c>
+      <c r="L157">
+        <v>3.6</v>
+      </c>
+      <c r="M157">
+        <v>2.15</v>
+      </c>
+      <c r="N157">
+        <v>2.75</v>
+      </c>
+      <c r="O157">
+        <v>3.6</v>
+      </c>
+      <c r="P157">
+        <v>2.1</v>
+      </c>
+      <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.875</v>
+      </c>
+      <c r="S157">
+        <v>1.925</v>
+      </c>
+      <c r="T157">
+        <v>2.75</v>
+      </c>
+      <c r="U157">
+        <v>1.8</v>
+      </c>
+      <c r="V157">
+        <v>2</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,10 @@
     <t>Wales Premier League</t>
   </si>
   <si>
-    <t>Haverfordwest County</t>
-  </si>
-  <si>
     <t>TNS</t>
   </si>
   <si>
-    <t>Aberystwyth</t>
+    <t>Haverfordwest County</t>
   </si>
   <si>
     <t>Newtown</t>
@@ -118,31 +115,34 @@
     <t>Bala Town</t>
   </si>
   <si>
+    <t>Aberystwyth</t>
+  </si>
+  <si>
     <t>Colwyn Bay</t>
   </si>
   <si>
     <t>Caernarfon Town</t>
   </si>
   <si>
+    <t>Penybont</t>
+  </si>
+  <si>
     <t>Connahs Quay</t>
   </si>
   <si>
-    <t>Penybont</t>
+    <t>Cardiff MU</t>
   </si>
   <si>
     <t>Pontypridd Town</t>
   </si>
   <si>
-    <t>Cardiff MU</t>
-  </si>
-  <si>
     <t>Barry Town</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6800423</v>
+        <v>6800016</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6800016</v>
+        <v>6800423</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6800424</v>
+        <v>6800426</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,52 +797,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -851,19 +851,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6800426</v>
+        <v>6800425</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5">
+        <v>1.3</v>
+      </c>
+      <c r="L5">
+        <v>4.333</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>1.285</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>8.5</v>
+      </c>
+      <c r="Q5">
+        <v>-1.5</v>
+      </c>
+      <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>3.1</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>3.5</v>
-      </c>
-      <c r="O5">
-        <v>3.5</v>
-      </c>
-      <c r="P5">
-        <v>1.833</v>
-      </c>
-      <c r="Q5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.9</v>
-      </c>
-      <c r="S5">
-        <v>1.9</v>
-      </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
       <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
         <v>1.825</v>
       </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.825</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6800425</v>
+        <v>6800424</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>1.615</v>
       </c>
       <c r="N6">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
         <v>1.85</v>
       </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>2.25</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6800427</v>
+        <v>6800428</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,34 +1242,34 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q9">
         <v>-1.25</v>
@@ -1284,13 +1284,13 @@
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1305,10 +1305,10 @@
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6800428</v>
+        <v>6800427</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,34 +1331,34 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q10">
         <v>-1.25</v>
@@ -1373,13 +1373,13 @@
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1394,10 +1394,10 @@
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6800018</v>
+        <v>6800430</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,73 +1420,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>1.02</v>
+        <v>2.05</v>
       </c>
       <c r="N11">
-        <v>41</v>
+        <v>2.625</v>
       </c>
       <c r="O11">
-        <v>19</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>1.025</v>
+        <v>2.25</v>
       </c>
       <c r="Q11">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y11">
-        <v>0.02499999999999991</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6800430</v>
+        <v>6800018</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <v>34</v>
+      </c>
+      <c r="L12">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>1.02</v>
+      </c>
+      <c r="N12">
         <v>41</v>
       </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>3.4</v>
-      </c>
-      <c r="M12">
-        <v>2.05</v>
-      </c>
-      <c r="N12">
-        <v>2.625</v>
-      </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="P12">
-        <v>2.25</v>
+        <v>1.025</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>2.3</v>
@@ -1684,10 +1684,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>3.75</v>
@@ -1773,10 +1773,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>2.6</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6800019</v>
+        <v>6800437</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N16">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.475</v>
+      </c>
+      <c r="AA16">
         <v>-0.5</v>
       </c>
-      <c r="AA16">
-        <v>0.4375</v>
-      </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6800437</v>
+        <v>6800020</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>1.04</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>3.8</v>
+        <v>41</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>1.055</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6800020</v>
+        <v>6800019</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,37 +2043,37 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>1.04</v>
-      </c>
       <c r="L18">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1.055</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>29</v>
+        <v>2.7</v>
       </c>
       <c r="Q18">
-        <v>-3.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2082,34 +2082,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,10 +2129,10 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6800841</v>
+        <v>6800440</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>17</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>1.083</v>
+        <v>2.625</v>
       </c>
       <c r="N20">
-        <v>23</v>
+        <v>2.45</v>
       </c>
       <c r="O20">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>1.071</v>
+        <v>2.55</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y20">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6800442</v>
+        <v>6800021</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N21">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800021</v>
+        <v>6800441</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,13 +2396,13 @@
         <v>45167.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2411,31 +2411,31 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2447,25 +2447,25 @@
         <v>1.875</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800440</v>
+        <v>6800442</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
         <v>1.825</v>
       </c>
-      <c r="S23">
-        <v>1.975</v>
-      </c>
       <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>1.775</v>
+      </c>
+      <c r="V23">
+        <v>2.025</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
         <v>2.5</v>
       </c>
-      <c r="U23">
-        <v>1.875</v>
-      </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>2.4</v>
-      </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800441</v>
+        <v>6800841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.615</v>
+        <v>17</v>
       </c>
       <c r="L24">
+        <v>11</v>
+      </c>
+      <c r="M24">
+        <v>1.083</v>
+      </c>
+      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+      <c r="P24">
+        <v>1.071</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
         <v>4</v>
       </c>
-      <c r="M24">
-        <v>4.5</v>
-      </c>
-      <c r="N24">
-        <v>1.45</v>
-      </c>
-      <c r="O24">
-        <v>4.333</v>
-      </c>
-      <c r="P24">
-        <v>5.75</v>
-      </c>
-      <c r="Q24">
-        <v>-1</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z24">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,10 +2663,10 @@
         <v>45167.66666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2752,10 +2752,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>1.02</v>
@@ -2844,7 +2844,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>2.7</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800446</v>
+        <v>6800445</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N29">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
+        <v>1.85</v>
+      </c>
+      <c r="V29">
         <v>1.95</v>
       </c>
-      <c r="V29">
-        <v>1.85</v>
-      </c>
       <c r="W29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6800444</v>
+        <v>6800446</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,58 +3108,58 @@
         <v>45171.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3168,16 +3168,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6800445</v>
+        <v>6800444</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,73 +3197,73 @@
         <v>45171.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N31">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O31">
         <v>3.25</v>
       </c>
       <c r="P31">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3286,10 +3286,10 @@
         <v>45177.65625</v>
       </c>
       <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
         <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
         <v>1.727</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6800449</v>
+        <v>6800024</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,13 +3375,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -3390,40 +3390,40 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3432,16 +3432,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6800450</v>
+        <v>6800448</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,46 +3464,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
         <v>37</v>
       </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>43</v>
       </c>
       <c r="K34">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N34">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q34">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
         <v>2.75</v>
@@ -3521,19 +3521,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>7</v>
+        <v>0.55</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6800448</v>
+        <v>6800449</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,13 +3553,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -3568,40 +3568,40 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N35">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3610,16 +3610,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.55</v>
+        <v>1.75</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6800024</v>
+        <v>6800450</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,46 +3642,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>43</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
+        <v>6.5</v>
+      </c>
+      <c r="N36">
+        <v>1.363</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <v>-1.5</v>
+      </c>
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="N36">
-        <v>3.75</v>
-      </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
-      <c r="P36">
-        <v>1.85</v>
-      </c>
-      <c r="Q36">
-        <v>0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.975</v>
-      </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.75</v>
@@ -3699,19 +3699,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.8500000000000001</v>
+        <v>7</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,10 +3731,10 @@
         <v>45182.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3823,7 +3823,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6800026</v>
+        <v>6800454</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
       </c>
       <c r="K39">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N39">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
+        <v>1.8</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
         <v>1.95</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.825</v>
-      </c>
-      <c r="V39">
-        <v>1.975</v>
-      </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,10 +3998,10 @@
         <v>45185.4375</v>
       </c>
       <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
         <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
         <v>1.062</v>
@@ -4087,10 +4087,10 @@
         <v>45185.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41">
         <v>1.7</v>
@@ -4176,7 +4176,7 @@
         <v>45185.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
         <v>40</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>1.666</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6800454</v>
+        <v>6800026</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="N43">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>-1</v>
+      </c>
+      <c r="R43">
         <v>1.95</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
+        <v>1.85</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>1.825</v>
+      </c>
+      <c r="V43">
+        <v>1.975</v>
+      </c>
+      <c r="W43">
         <v>0.5</v>
       </c>
-      <c r="R43">
-        <v>1.8</v>
-      </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
-      <c r="U43">
-        <v>1.95</v>
-      </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4354,10 +4354,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4443,10 +4443,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4532,10 +4532,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4624,7 +4624,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>5.5</v>
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4802,7 +4802,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
         <v>2.15</v>
@@ -4888,10 +4888,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6800460</v>
+        <v>6800459</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,13 +4977,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -4992,46 +4992,46 @@
         <v>42</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>1.181</v>
+        <v>1.95</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5040,13 +5040,13 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6800461</v>
+        <v>6800460</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K52">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L52">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="M52">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N52">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="O52">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R52">
+        <v>1.9</v>
+      </c>
+      <c r="S52">
+        <v>1.9</v>
+      </c>
+      <c r="T52">
+        <v>3.25</v>
+      </c>
+      <c r="U52">
         <v>1.925</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>1.875</v>
       </c>
-      <c r="T52">
-        <v>3</v>
-      </c>
-      <c r="U52">
-        <v>2</v>
-      </c>
-      <c r="V52">
-        <v>1.8</v>
-      </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>0.181</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5129,13 +5129,13 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6800459</v>
+        <v>6800030</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,7 +5155,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -5164,40 +5164,40 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="N53">
-        <v>1.95</v>
+        <v>13</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>1.142</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U53">
         <v>1.95</v>
@@ -5209,22 +5209,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800030</v>
+        <v>6800461</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54">
+        <v>1.333</v>
+      </c>
+      <c r="L54">
+        <v>5.25</v>
+      </c>
+      <c r="M54">
+        <v>5.75</v>
+      </c>
+      <c r="N54">
+        <v>1.3</v>
+      </c>
+      <c r="O54">
+        <v>5.5</v>
+      </c>
+      <c r="P54">
+        <v>6</v>
+      </c>
+      <c r="Q54">
+        <v>-1.5</v>
+      </c>
+      <c r="R54">
+        <v>1.925</v>
+      </c>
+      <c r="S54">
+        <v>1.875</v>
+      </c>
+      <c r="T54">
         <v>3</v>
       </c>
-      <c r="J54" t="s">
-        <v>43</v>
-      </c>
-      <c r="K54">
-        <v>10</v>
-      </c>
-      <c r="L54">
-        <v>6</v>
-      </c>
-      <c r="M54">
-        <v>1.181</v>
-      </c>
-      <c r="N54">
-        <v>13</v>
-      </c>
-      <c r="O54">
-        <v>7.5</v>
-      </c>
-      <c r="P54">
-        <v>1.142</v>
-      </c>
-      <c r="Q54">
-        <v>2.5</v>
-      </c>
-      <c r="R54">
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
         <v>1.8</v>
       </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="T54">
-        <v>4</v>
-      </c>
-      <c r="U54">
-        <v>1.95</v>
-      </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.875</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8</v>
-      </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,10 +5333,10 @@
         <v>45196.65625</v>
       </c>
       <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
         <v>33</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6800032</v>
+        <v>6800466</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,55 +5514,55 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>4.1</v>
       </c>
       <c r="N57">
-        <v>1.055</v>
+        <v>1.55</v>
       </c>
       <c r="O57">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>34</v>
+        <v>5.25</v>
       </c>
       <c r="Q57">
-        <v>-3.25</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T57">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>0.05499999999999994</v>
+        <v>0.55</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6800031</v>
+        <v>6800467</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K58">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6800466</v>
+        <v>6800032</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,55 +5692,55 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>4.1</v>
+        <v>29</v>
       </c>
       <c r="N59">
-        <v>1.55</v>
+        <v>1.055</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P59">
-        <v>5.25</v>
+        <v>34</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-3.25</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>0.55</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5749,16 +5749,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6800467</v>
+        <v>6800031</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="L60">
         <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P60">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,10 +5867,10 @@
         <v>45199.55208333334</v>
       </c>
       <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
         <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>1.85</v>
@@ -5956,7 +5956,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
         <v>2.1</v>
@@ -6045,10 +6045,10 @@
         <v>45205.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K63">
         <v>6.5</v>
@@ -6134,10 +6134,10 @@
         <v>45206.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6800033</v>
+        <v>6800470</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,73 +6226,73 @@
         <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N65">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O65">
         <v>3.6</v>
       </c>
       <c r="P65">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q65">
+        <v>-1</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>1.8</v>
+      </c>
+      <c r="T65">
+        <v>2.75</v>
+      </c>
+      <c r="U65">
+        <v>1.9</v>
+      </c>
+      <c r="V65">
+        <v>1.9</v>
+      </c>
+      <c r="W65">
+        <v>0.571</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-0</v>
+      </c>
+      <c r="AB65">
+        <v>0.45</v>
+      </c>
+      <c r="AC65">
         <v>-0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
-      <c r="T65">
-        <v>3</v>
-      </c>
-      <c r="U65">
-        <v>1.95</v>
-      </c>
-      <c r="V65">
-        <v>1.85</v>
-      </c>
-      <c r="W65">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.95</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800470</v>
+        <v>6800033</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,58 +6312,58 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66">
         <v>2</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>42</v>
-      </c>
-      <c r="K66">
-        <v>1.615</v>
-      </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O66">
         <v>3.6</v>
       </c>
       <c r="P66">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6372,16 +6372,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,10 +6401,10 @@
         <v>45206.55208333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6490,10 +6490,10 @@
         <v>45216.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6502,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
         <v>2.625</v>
@@ -6579,10 +6579,10 @@
         <v>45216.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6591,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K69">
         <v>2.875</v>
@@ -6671,7 +6671,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
         <v>2.6</v>
@@ -6760,7 +6760,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
         <v>1.4</v>
@@ -6846,10 +6846,10 @@
         <v>45217.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.65</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6800479</v>
+        <v>6800037</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,55 +6935,55 @@
         <v>45220.4375</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
         <v>43</v>
       </c>
       <c r="K73">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>1.166</v>
+      </c>
+      <c r="N73">
+        <v>13</v>
+      </c>
+      <c r="O73">
+        <v>10</v>
+      </c>
+      <c r="P73">
+        <v>1.1</v>
+      </c>
+      <c r="Q73">
+        <v>2.75</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73">
         <v>4</v>
       </c>
-      <c r="M73">
-        <v>1.571</v>
-      </c>
-      <c r="N73">
-        <v>6</v>
-      </c>
-      <c r="O73">
-        <v>4.75</v>
-      </c>
-      <c r="P73">
-        <v>1.4</v>
-      </c>
-      <c r="Q73">
-        <v>1.25</v>
-      </c>
-      <c r="R73">
-        <v>1.875</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -6992,19 +6992,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.3999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6800477</v>
+        <v>6800038</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,58 +7024,58 @@
         <v>45220.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74">
+        <v>2.375</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>2.375</v>
+      </c>
+      <c r="N74">
+        <v>2.3</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
+        <v>2.55</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1.8</v>
+      </c>
+      <c r="S74">
         <v>2</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>42</v>
-      </c>
-      <c r="K74">
-        <v>1.666</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
-      <c r="M74">
-        <v>4</v>
-      </c>
-      <c r="N74">
-        <v>2.05</v>
-      </c>
-      <c r="O74">
-        <v>3.75</v>
-      </c>
-      <c r="P74">
-        <v>2.9</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.825</v>
-      </c>
-      <c r="S74">
-        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6800038</v>
+        <v>6800477</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,58 +7113,58 @@
         <v>45220.4375</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7173,16 +7173,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6800037</v>
+        <v>6800479</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,55 +7202,55 @@
         <v>45220.4375</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="L76">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="N76">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O76">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q76">
+        <v>1.25</v>
+      </c>
+      <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
+        <v>1.925</v>
+      </c>
+      <c r="T76">
         <v>2.75</v>
       </c>
-      <c r="R76">
-        <v>1.8</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-      <c r="T76">
-        <v>4</v>
-      </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7259,19 +7259,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
         <v>1.444</v>
@@ -7558,10 +7558,10 @@
         <v>45227.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>1.615</v>
@@ -7647,10 +7647,10 @@
         <v>45227.4375</v>
       </c>
       <c r="F81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" t="s">
         <v>38</v>
-      </c>
-      <c r="G81" t="s">
-        <v>39</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7736,10 +7736,10 @@
         <v>45227.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>1.142</v>
@@ -7825,7 +7825,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>1.02</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6800041</v>
+        <v>6800485</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,56 +7914,56 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>43</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
+        <v>1.825</v>
+      </c>
+      <c r="V84">
         <v>1.975</v>
       </c>
-      <c r="S84">
-        <v>1.825</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
-      <c r="U84">
-        <v>1.85</v>
-      </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
@@ -7971,19 +7971,19 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.25</v>
+        <v>3.333</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,10 +8003,10 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6800485</v>
+        <v>6800487</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,46 +8092,46 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86">
+        <v>1.666</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>1.75</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
+        <v>3.75</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>1.8</v>
+      </c>
+      <c r="S86">
         <v>2</v>
-      </c>
-      <c r="L86">
-        <v>3.5</v>
-      </c>
-      <c r="M86">
-        <v>3</v>
-      </c>
-      <c r="N86">
-        <v>1.65</v>
-      </c>
-      <c r="O86">
-        <v>3.5</v>
-      </c>
-      <c r="P86">
-        <v>4.333</v>
-      </c>
-      <c r="Q86">
-        <v>-0.75</v>
-      </c>
-      <c r="R86">
-        <v>1.85</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
       </c>
       <c r="T86">
         <v>2.75</v>
@@ -8143,25 +8143,25 @@
         <v>1.975</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800484</v>
+        <v>6800042</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="N87">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P87">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
+        <v>1.825</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="S87">
-        <v>1.85</v>
-      </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.775</v>
-      </c>
-      <c r="V87">
-        <v>2.025</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6800487</v>
+        <v>6800484</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,13 +8270,13 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8285,61 +8285,61 @@
         <v>42</v>
       </c>
       <c r="K88">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
+        <v>3.5</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.533</v>
+      </c>
+      <c r="O88">
         <v>3.75</v>
       </c>
-      <c r="M88">
-        <v>4</v>
-      </c>
-      <c r="N88">
-        <v>1.75</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
       <c r="P88">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
+        <v>2.25</v>
+      </c>
+      <c r="U88">
+        <v>1.775</v>
+      </c>
+      <c r="V88">
+        <v>2.025</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
         <v>2.75</v>
       </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
-      <c r="V88">
-        <v>1.975</v>
-      </c>
-      <c r="W88">
-        <v>0.75</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6800042</v>
+        <v>6800041</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
         <v>43</v>
       </c>
       <c r="K89">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="N89">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="O89">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q89">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
         <v>1.975</v>
@@ -8401,7 +8401,7 @@
         <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U89">
         <v>1.85</v>
@@ -8416,7 +8416,7 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,10 +8448,10 @@
         <v>45244.70833333334</v>
       </c>
       <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
         <v>31</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8537,10 +8537,10 @@
         <v>45247.70833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,10 +8626,10 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800491</v>
+        <v>6800489</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,40 +8715,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>43</v>
       </c>
       <c r="K93">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M93">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
         <v>1.9</v>
@@ -8757,13 +8757,13 @@
         <v>1.9</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8772,7 +8772,7 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z93">
         <v>-1</v>
@@ -8781,10 +8781,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800489</v>
+        <v>6800043</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,40 +8804,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O94">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="P94">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8849,10 +8849,10 @@
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8861,7 +8861,7 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z94">
         <v>-1</v>
@@ -8870,10 +8870,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6800043</v>
+        <v>6800491</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,13 +8893,13 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>3</v>
@@ -8908,25 +8908,25 @@
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
         <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8935,13 +8935,13 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -9071,7 +9071,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800495</v>
+        <v>6800492</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,10 +9160,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9172,64 +9172,64 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,10 +9249,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
         <v>1.45</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800492</v>
+        <v>6800495</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9350,64 +9350,64 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,10 +9427,10 @@
         <v>45258.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9617,7 +9617,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
         <v>1.444</v>
@@ -9694,7 +9694,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
         <v>1.2</v>
@@ -9783,10 +9783,10 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>4</v>
@@ -9795,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
         <v>1.444</v>
@@ -9872,7 +9872,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -9961,10 +9961,10 @@
         <v>45262.59375</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800049</v>
+        <v>6800050</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.071</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>26</v>
       </c>
       <c r="N108">
+        <v>1.083</v>
+      </c>
+      <c r="O108">
+        <v>9.5</v>
+      </c>
+      <c r="P108">
+        <v>26</v>
+      </c>
+      <c r="Q108">
+        <v>-2.5</v>
+      </c>
+      <c r="R108">
+        <v>1.85</v>
+      </c>
+      <c r="S108">
         <v>1.95</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>3.25</v>
-      </c>
-      <c r="Q108">
-        <v>-0.5</v>
-      </c>
-      <c r="R108">
-        <v>2.025</v>
-      </c>
-      <c r="S108">
-        <v>1.775</v>
-      </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800050</v>
+        <v>6800049</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F109" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" t="s">
         <v>30</v>
       </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
       <c r="H109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>1.071</v>
+        <v>2.3</v>
       </c>
       <c r="L109">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>26</v>
+        <v>2.7</v>
       </c>
       <c r="N109">
-        <v>1.083</v>
+        <v>1.95</v>
       </c>
       <c r="O109">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W109">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10228,10 +10228,10 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
         <v>1.2</v>
@@ -10317,10 +10317,10 @@
         <v>45276.59375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10406,10 +10406,10 @@
         <v>45283.47916666666</v>
       </c>
       <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
         <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>30</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6800505</v>
+        <v>6800051</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,49 +10495,49 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
+        <v>1.083</v>
+      </c>
+      <c r="L113">
+        <v>9.5</v>
+      </c>
+      <c r="M113">
+        <v>17</v>
+      </c>
+      <c r="N113">
+        <v>1.071</v>
+      </c>
+      <c r="O113">
+        <v>11</v>
+      </c>
+      <c r="P113">
+        <v>21</v>
+      </c>
+      <c r="Q113">
+        <v>-3</v>
+      </c>
+      <c r="R113">
+        <v>1.825</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
         <v>4.5</v>
-      </c>
-      <c r="L113">
-        <v>3.8</v>
-      </c>
-      <c r="M113">
-        <v>1.615</v>
-      </c>
-      <c r="N113">
-        <v>3.25</v>
-      </c>
-      <c r="O113">
-        <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>1.909</v>
-      </c>
-      <c r="Q113">
-        <v>0.5</v>
-      </c>
-      <c r="R113">
-        <v>1.8</v>
-      </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
       </c>
       <c r="U113">
         <v>1.85</v>
@@ -10546,25 +10546,25 @@
         <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6800512</v>
+        <v>6800507</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
         <v>2</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N114">
+        <v>3.6</v>
+      </c>
+      <c r="O114">
+        <v>3.4</v>
+      </c>
+      <c r="P114">
         <v>1.909</v>
       </c>
-      <c r="O114">
-        <v>3.6</v>
-      </c>
-      <c r="P114">
-        <v>3.6</v>
-      </c>
       <c r="Q114">
+        <v>0.5</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114">
+        <v>1.8</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>0.909</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB114">
+        <v>0.5</v>
+      </c>
+      <c r="AC114">
         <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.85</v>
-      </c>
-      <c r="V114">
-        <v>1.95</v>
-      </c>
-      <c r="W114">
-        <v>0.909</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.925</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>-0.5</v>
-      </c>
-      <c r="AC114">
-        <v>0.475</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800051</v>
+        <v>6800506</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,73 +10676,73 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115">
+        <v>1.8</v>
+      </c>
+      <c r="L115">
+        <v>3.5</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+      <c r="N115">
+        <v>1.95</v>
+      </c>
+      <c r="O115">
+        <v>3.3</v>
+      </c>
+      <c r="P115">
+        <v>3.6</v>
+      </c>
+      <c r="Q115">
+        <v>-0.5</v>
+      </c>
+      <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
+        <v>1.85</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.8</v>
+      </c>
+      <c r="V115">
+        <v>2</v>
+      </c>
+      <c r="W115">
+        <v>0.95</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.95</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>42</v>
-      </c>
-      <c r="K115">
-        <v>1.083</v>
-      </c>
-      <c r="L115">
-        <v>9.5</v>
-      </c>
-      <c r="M115">
-        <v>17</v>
-      </c>
-      <c r="N115">
-        <v>1.071</v>
-      </c>
-      <c r="O115">
-        <v>11</v>
-      </c>
-      <c r="P115">
-        <v>21</v>
-      </c>
-      <c r="Q115">
-        <v>-3</v>
-      </c>
-      <c r="R115">
-        <v>1.825</v>
-      </c>
-      <c r="S115">
-        <v>1.975</v>
-      </c>
-      <c r="T115">
-        <v>4.5</v>
-      </c>
-      <c r="U115">
-        <v>1.85</v>
-      </c>
-      <c r="V115">
-        <v>1.95</v>
-      </c>
-      <c r="W115">
-        <v>0.07099999999999995</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>-1</v>
-      </c>
-      <c r="AA115">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
-      <c r="AC115">
-        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6800504</v>
+        <v>6800512</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,73 +10765,73 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K116">
         <v>2.4</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N116">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800506</v>
+        <v>6800505</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
+        <v>4.5</v>
+      </c>
+      <c r="L117">
+        <v>3.8</v>
+      </c>
+      <c r="M117">
+        <v>1.615</v>
+      </c>
+      <c r="N117">
+        <v>3.25</v>
+      </c>
+      <c r="O117">
+        <v>3.6</v>
+      </c>
+      <c r="P117">
+        <v>1.909</v>
+      </c>
+      <c r="Q117">
+        <v>0.5</v>
+      </c>
+      <c r="R117">
         <v>1.8</v>
       </c>
-      <c r="L117">
-        <v>3.5</v>
-      </c>
-      <c r="M117">
-        <v>4</v>
-      </c>
-      <c r="N117">
-        <v>1.95</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
-      <c r="P117">
-        <v>3.6</v>
-      </c>
-      <c r="Q117">
-        <v>-0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.95</v>
-      </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC117">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800507</v>
+        <v>6800504</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,55 +10940,55 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
         <v>36</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>43</v>
       </c>
       <c r="K118">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N118">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -10997,19 +10997,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6800514</v>
+        <v>6800515</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>42</v>
       </c>
       <c r="K119">
+        <v>3.2</v>
+      </c>
+      <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
         <v>2.05</v>
       </c>
-      <c r="L119">
+      <c r="N119">
+        <v>2.45</v>
+      </c>
+      <c r="O119">
         <v>3.3</v>
       </c>
-      <c r="M119">
-        <v>3.2</v>
-      </c>
-      <c r="N119">
-        <v>2.375</v>
-      </c>
-      <c r="O119">
-        <v>3.2</v>
-      </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800515</v>
+        <v>6800513</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,55 +11118,55 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O120">
         <v>3.3</v>
       </c>
       <c r="P120">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
         <v>1.85</v>
       </c>
-      <c r="S120">
-        <v>1.95</v>
-      </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11178,16 +11178,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800513</v>
+        <v>6800514</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,13 +11207,13 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" t="s">
         <v>31</v>
       </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11222,31 +11222,31 @@
         <v>41</v>
       </c>
       <c r="K121">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T121">
         <v>2.25</v>
@@ -11258,25 +11258,25 @@
         <v>2.025</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X121">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC121">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K122">
         <v>1.533</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800052</v>
+        <v>6800516</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,73 +11388,73 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K123">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L123">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6800516</v>
+        <v>6800052</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,73 +11477,73 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N124">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>45296.70833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>34</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7589426</v>
+        <v>7440288</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,40 +11652,40 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K126">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M126">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N126">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P126">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R126">
         <v>1.9</v>
@@ -11694,16 +11694,16 @@
         <v>1.9</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>2.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,7 +11718,7 @@
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7440288</v>
+        <v>7589426</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,40 +11741,40 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K127">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="L127">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N127">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="O127">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="Q127">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
         <v>1.9</v>
@@ -11783,16 +11783,16 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>0.04000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,7 +11807,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11830,10 +11830,10 @@
         <v>45304.59375</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11919,7 +11919,7 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800520</v>
+        <v>6800518</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,55 +12008,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
         <v>43</v>
       </c>
       <c r="K130">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L130">
         <v>3.75</v>
       </c>
       <c r="M130">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N130">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12065,19 +12065,19 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>1.6</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6800518</v>
+        <v>6800054</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="M131">
-        <v>2.7</v>
+        <v>19</v>
       </c>
       <c r="N131">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P131">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
         <v>1.825</v>
       </c>
-      <c r="V131">
-        <v>1.975</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800054</v>
+        <v>6800053</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>42</v>
       </c>
       <c r="K132">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="L132">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>19</v>
+        <v>2.75</v>
       </c>
       <c r="N132">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="O132">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>15</v>
+        <v>2.4</v>
       </c>
       <c r="Q132">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800053</v>
+        <v>6800520</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="N133">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
         <v>35</v>
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K134">
         <v>1.285</v>
@@ -12453,10 +12453,10 @@
         <v>45324.70833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K135">
         <v>4</v>
@@ -12545,7 +12545,7 @@
         <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12720,10 +12720,10 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12732,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K138">
         <v>1.833</v>
@@ -12809,10 +12809,10 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K139">
         <v>1.1</v>
@@ -12898,10 +12898,10 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12987,10 +12987,10 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13076,7 +13076,7 @@
         <v>45331.70833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13165,7 +13165,7 @@
         <v>45332.40625</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13177,7 +13177,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K143">
         <v>1.533</v>
@@ -13254,10 +13254,10 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13343,7 +13343,7 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
@@ -13355,7 +13355,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K145">
         <v>2.5</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721609</v>
+        <v>7721586</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K146">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="L146">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>1.142</v>
       </c>
       <c r="N146">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P146">
-        <v>6</v>
+        <v>1.142</v>
       </c>
       <c r="Q146">
-        <v>-1.25</v>
+        <v>2.25</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7721608</v>
+        <v>7721609</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,10 +13521,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13533,64 +13533,64 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M147">
+        <v>5</v>
+      </c>
+      <c r="N147">
+        <v>1.4</v>
+      </c>
+      <c r="O147">
+        <v>4.2</v>
+      </c>
+      <c r="P147">
+        <v>6</v>
+      </c>
+      <c r="Q147">
+        <v>-1.25</v>
+      </c>
+      <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
         <v>2.75</v>
       </c>
-      <c r="N147">
-        <v>2.25</v>
-      </c>
-      <c r="O147">
-        <v>3.25</v>
-      </c>
-      <c r="P147">
-        <v>2.9</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
-        <v>1.8</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7721586</v>
+        <v>7721608</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,7 +13610,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
         <v>30</v>
@@ -13619,67 +13619,67 @@
         <v>1</v>
       </c>
       <c r="I148">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K148">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="L148">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="N148">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="O148">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P148">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>1.8</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>1.925</v>
+      </c>
+      <c r="V148">
+        <v>1.875</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
         <v>2.25</v>
       </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>1.85</v>
-      </c>
-      <c r="T148">
-        <v>3.5</v>
-      </c>
-      <c r="U148">
-        <v>1.8</v>
-      </c>
-      <c r="V148">
-        <v>2</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
       <c r="Y148">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>45346.38541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K149">
         <v>2.1</v>
@@ -13788,10 +13788,10 @@
         <v>45346.47916666666</v>
       </c>
       <c r="F150" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" t="s">
         <v>32</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13877,10 +13877,10 @@
         <v>45346.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K151">
         <v>1.4</v>
@@ -13969,7 +13969,16 @@
         <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>41</v>
       </c>
       <c r="K152">
         <v>2.35</v>
@@ -13984,43 +13993,49 @@
         <v>2.375</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14040,10 +14055,19 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>41</v>
       </c>
       <c r="K153">
         <v>3.75</v>
@@ -14055,46 +14079,52 @@
         <v>1.7</v>
       </c>
       <c r="N153">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R153">
+        <v>1.9</v>
+      </c>
+      <c r="S153">
+        <v>1.9</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
         <v>1.875</v>
       </c>
-      <c r="S153">
+      <c r="V153">
         <v>1.925</v>
       </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
       <c r="W153">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14117,7 +14147,7 @@
         <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K154">
         <v>3.05</v>
@@ -14129,31 +14159,31 @@
         <v>1.95</v>
       </c>
       <c r="N154">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O154">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14188,10 +14218,10 @@
         <v>45353.40625</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K155">
         <v>1.05</v>
@@ -14203,31 +14233,31 @@
         <v>19</v>
       </c>
       <c r="N155">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="O155">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="P155">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q155">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T155">
         <v>4</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14262,10 +14292,10 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K156">
         <v>1.533</v>
@@ -14277,31 +14307,31 @@
         <v>5</v>
       </c>
       <c r="N156">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q156">
         <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14336,7 +14366,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
         <v>40</v>
@@ -14354,28 +14384,28 @@
         <v>2.75</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q157">
         <v>0.25</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
         <v>0</v>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Wales Premier League</t>
   </si>
   <si>
+    <t>Haverfordwest County</t>
+  </si>
+  <si>
     <t>TNS</t>
   </si>
   <si>
-    <t>Haverfordwest County</t>
+    <t>Aberystwyth</t>
+  </si>
+  <si>
+    <t>Bala Town</t>
   </si>
   <si>
     <t>Newtown</t>
   </si>
   <si>
-    <t>Bala Town</t>
+    <t>Colwyn Bay</t>
   </si>
   <si>
-    <t>Aberystwyth</t>
-  </si>
-  <si>
-    <t>Colwyn Bay</t>
+    <t>Connahs Quay</t>
   </si>
   <si>
     <t>Caernarfon Town</t>
   </si>
   <si>
     <t>Penybont</t>
-  </si>
-  <si>
-    <t>Connahs Quay</t>
   </si>
   <si>
     <t>Cardiff MU</t>
@@ -139,10 +139,10 @@
     <t>Barry Town</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6800016</v>
+        <v>6800423</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6800423</v>
+        <v>6800016</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6800426</v>
+        <v>6800424</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,52 +797,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M4">
+        <v>1.615</v>
+      </c>
+      <c r="N4">
+        <v>2.875</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="N4">
-        <v>3.5</v>
-      </c>
-      <c r="O4">
-        <v>3.5</v>
-      </c>
-      <c r="P4">
-        <v>1.833</v>
-      </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -851,19 +851,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.833</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>1.3</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6800424</v>
+        <v>6800426</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,52 +975,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1029,19 +1029,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6800017</v>
+        <v>6800427</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,52 +1156,52 @@
         <v>31</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>1.333</v>
+      </c>
+      <c r="L8">
+        <v>4.5</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>4.333</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>-1.25</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8">
-        <v>2.25</v>
-      </c>
-      <c r="L8">
-        <v>3.25</v>
-      </c>
-      <c r="M8">
-        <v>2.75</v>
-      </c>
-      <c r="N8">
-        <v>2.5</v>
-      </c>
-      <c r="O8">
-        <v>3.2</v>
-      </c>
-      <c r="P8">
-        <v>2.45</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1.95</v>
-      </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6800428</v>
+        <v>6800017</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,55 +1242,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>2.25</v>
+      </c>
+      <c r="L9">
+        <v>3.25</v>
+      </c>
+      <c r="M9">
+        <v>2.75</v>
+      </c>
+      <c r="N9">
+        <v>2.5</v>
+      </c>
+      <c r="O9">
+        <v>3.2</v>
+      </c>
+      <c r="P9">
+        <v>2.45</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9">
-        <v>1.8</v>
-      </c>
-      <c r="L9">
-        <v>3.6</v>
-      </c>
-      <c r="M9">
-        <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.45</v>
-      </c>
-      <c r="O9">
-        <v>4.2</v>
-      </c>
-      <c r="P9">
-        <v>5.25</v>
-      </c>
-      <c r="Q9">
-        <v>-1.25</v>
-      </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
       <c r="W9">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6800427</v>
+        <v>6800428</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,34 +1331,34 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q10">
         <v>-1.25</v>
@@ -1373,13 +1373,13 @@
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1394,10 +1394,10 @@
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>2.3</v>
@@ -1687,7 +1687,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>3.75</v>
@@ -1776,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>2.6</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>1.727</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6800020</v>
+        <v>6800019</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,37 +1954,37 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>1.04</v>
-      </c>
       <c r="L17">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>1.055</v>
+        <v>2.15</v>
       </c>
       <c r="O17">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>29</v>
+        <v>2.7</v>
       </c>
       <c r="Q17">
-        <v>-3.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -1993,34 +1993,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6800019</v>
+        <v>6800020</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,37 +2043,37 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>1.055</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P18">
-        <v>2.7</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2082,34 +2082,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,10 +2129,10 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
         <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6800440</v>
+        <v>6800442</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
+        <v>1.975</v>
+      </c>
+      <c r="S20">
         <v>1.825</v>
       </c>
-      <c r="S20">
-        <v>1.975</v>
-      </c>
       <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>1.775</v>
+      </c>
+      <c r="V20">
+        <v>2.025</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>2.5</v>
       </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>2.4</v>
-      </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6800021</v>
+        <v>6800441</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,10 +2310,10 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2322,31 +2322,31 @@
         <v>42</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.75</v>
@@ -2358,25 +2358,25 @@
         <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X21">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800441</v>
+        <v>6800021</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,13 +2396,13 @@
         <v>45167.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2411,31 +2411,31 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N22">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2447,25 +2447,25 @@
         <v>1.875</v>
       </c>
       <c r="W22">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800442</v>
+        <v>6800841</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>17</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>1.083</v>
       </c>
       <c r="N23">
-        <v>1.727</v>
+        <v>23</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>1.071</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800841</v>
+        <v>6800440</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>2.4</v>
+      </c>
+      <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>2.625</v>
+      </c>
+      <c r="N24">
+        <v>2.45</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
+        <v>2.55</v>
+      </c>
+      <c r="Q24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>17</v>
-      </c>
-      <c r="L24">
-        <v>11</v>
-      </c>
-      <c r="M24">
-        <v>1.083</v>
-      </c>
-      <c r="N24">
-        <v>23</v>
-      </c>
-      <c r="O24">
-        <v>12</v>
-      </c>
-      <c r="P24">
-        <v>1.071</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>45167.66666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2752,10 +2752,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>1.02</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6800022</v>
+        <v>6800443</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>2.7</v>
+      </c>
+      <c r="L27">
+        <v>3.25</v>
+      </c>
+      <c r="M27">
+        <v>2.3</v>
+      </c>
+      <c r="N27">
+        <v>2.4</v>
+      </c>
+      <c r="O27">
+        <v>3.25</v>
+      </c>
+      <c r="P27">
+        <v>2.7</v>
+      </c>
+      <c r="Q27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27">
-        <v>3.5</v>
-      </c>
-      <c r="L27">
-        <v>3.6</v>
-      </c>
-      <c r="M27">
-        <v>1.8</v>
-      </c>
-      <c r="N27">
-        <v>3.5</v>
-      </c>
-      <c r="O27">
-        <v>3.5</v>
-      </c>
-      <c r="P27">
-        <v>1.909</v>
-      </c>
-      <c r="Q27">
-        <v>0.5</v>
-      </c>
       <c r="R27">
+        <v>1.775</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
         <v>1.85</v>
       </c>
-      <c r="S27">
-        <v>1.95</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>1.8</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>0.95</v>
-      </c>
-      <c r="AB27">
-        <v>0.8</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6800443</v>
+        <v>6800022</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,73 +2930,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>3.5</v>
+      </c>
+      <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
+        <v>1.8</v>
+      </c>
+      <c r="N28">
+        <v>3.5</v>
+      </c>
+      <c r="O28">
+        <v>3.5</v>
+      </c>
+      <c r="P28">
+        <v>1.909</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
+        <v>1.8</v>
+      </c>
+      <c r="V28">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28">
-        <v>2.7</v>
-      </c>
-      <c r="L28">
-        <v>3.25</v>
-      </c>
-      <c r="M28">
-        <v>2.3</v>
-      </c>
-      <c r="N28">
-        <v>2.4</v>
-      </c>
-      <c r="O28">
-        <v>3.25</v>
-      </c>
-      <c r="P28">
-        <v>2.7</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.775</v>
-      </c>
-      <c r="S28">
-        <v>2.025</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.95</v>
-      </c>
-      <c r="V28">
-        <v>1.85</v>
-      </c>
       <c r="W28">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800445</v>
+        <v>6800446</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
+        <v>3.4</v>
+      </c>
+      <c r="M29">
+        <v>2.75</v>
+      </c>
+      <c r="N29">
+        <v>2.05</v>
+      </c>
+      <c r="O29">
+        <v>3.4</v>
+      </c>
+      <c r="P29">
         <v>3.2</v>
       </c>
-      <c r="M29">
-        <v>2.625</v>
-      </c>
-      <c r="N29">
-        <v>2.7</v>
-      </c>
-      <c r="O29">
-        <v>3.25</v>
-      </c>
-      <c r="P29">
-        <v>2.4</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
+        <v>1.95</v>
+      </c>
+      <c r="V29">
         <v>1.85</v>
       </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB29">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6800446</v>
+        <v>6800445</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>2.375</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>2.625</v>
+      </c>
+      <c r="N30">
+        <v>2.7</v>
+      </c>
+      <c r="O30">
+        <v>3.25</v>
+      </c>
+      <c r="P30">
+        <v>2.4</v>
+      </c>
+      <c r="Q30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>2.2</v>
-      </c>
-      <c r="L30">
-        <v>3.4</v>
-      </c>
-      <c r="M30">
-        <v>2.75</v>
-      </c>
-      <c r="N30">
-        <v>2.05</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.2</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
         <v>1.95</v>
       </c>
-      <c r="V30">
-        <v>1.85</v>
-      </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>1.727</v>
@@ -3375,10 +3375,10 @@
         <v>45178.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3467,7 +3467,7 @@
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3553,10 +3553,10 @@
         <v>45178.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>45178.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3734,7 +3734,7 @@
         <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3823,7 +3823,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6800454</v>
+        <v>6800027</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
       </c>
       <c r="K39">
-        <v>3.8</v>
+        <v>1.062</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="M39">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <v>1.09</v>
+      </c>
+      <c r="O39">
+        <v>9.5</v>
+      </c>
+      <c r="P39">
+        <v>23</v>
+      </c>
+      <c r="Q39">
+        <v>-2.75</v>
+      </c>
+      <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
+        <v>1.825</v>
+      </c>
+      <c r="T39">
+        <v>3.5</v>
+      </c>
+      <c r="U39">
         <v>1.8</v>
       </c>
-      <c r="N39">
-        <v>3.3</v>
-      </c>
-      <c r="O39">
-        <v>3.5</v>
-      </c>
-      <c r="P39">
-        <v>1.95</v>
-      </c>
-      <c r="Q39">
-        <v>0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.8</v>
-      </c>
-      <c r="S39">
+      <c r="V39">
         <v>2</v>
       </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.8</v>
       </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6800027</v>
+        <v>6800452</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,73 +3998,73 @@
         <v>45185.4375</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>1.7</v>
+      </c>
+      <c r="L40">
+        <v>3.6</v>
+      </c>
+      <c r="M40">
+        <v>4.333</v>
+      </c>
+      <c r="N40">
+        <v>1.5</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>5.75</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
+        <v>1.95</v>
+      </c>
+      <c r="T40">
+        <v>2.75</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>1.8</v>
+      </c>
+      <c r="W40">
+        <v>0.5</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40">
-        <v>1.062</v>
-      </c>
-      <c r="L40">
-        <v>12</v>
-      </c>
-      <c r="M40">
-        <v>26</v>
-      </c>
-      <c r="N40">
-        <v>1.09</v>
-      </c>
-      <c r="O40">
-        <v>9.5</v>
-      </c>
-      <c r="P40">
-        <v>23</v>
-      </c>
-      <c r="Q40">
-        <v>-2.75</v>
-      </c>
-      <c r="R40">
-        <v>1.975</v>
-      </c>
-      <c r="S40">
-        <v>1.825</v>
-      </c>
-      <c r="T40">
-        <v>3.5</v>
-      </c>
-      <c r="U40">
-        <v>1.8</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>0.09000000000000008</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.8</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6800452</v>
+        <v>6800453</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,25 +4087,25 @@
         <v>45185.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
         <v>4.333</v>
@@ -4117,7 +4117,7 @@
         <v>4</v>
       </c>
       <c r="P41">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q41">
         <v>-1</v>
@@ -4132,10 +4132,10 @@
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
         <v>0.5</v>
@@ -4153,10 +4153,10 @@
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6800453</v>
+        <v>6800454</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,13 +4176,13 @@
         <v>45185.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4191,61 +4191,61 @@
         <v>41</v>
       </c>
       <c r="K42">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
+        <v>1.8</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>2.5</v>
+      </c>
+      <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
-      <c r="T42">
-        <v>2.75</v>
-      </c>
-      <c r="U42">
-        <v>1.875</v>
-      </c>
-      <c r="V42">
-        <v>1.925</v>
-      </c>
       <c r="W42">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.8</v>
+      </c>
+      <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>-1</v>
-      </c>
-      <c r="AC42">
-        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,10 +4265,10 @@
         <v>45185.4375</v>
       </c>
       <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
         <v>36</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4277,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>1.6</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4443,10 +4443,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6800458</v>
+        <v>6800456</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,73 +4532,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L46">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="N46">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6800456</v>
+        <v>6800457</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="N47">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="Q47">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
+        <v>0.825</v>
+      </c>
+      <c r="AB47">
         <v>0.875</v>
-      </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6800457</v>
+        <v>6800458</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,40 +4710,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>43</v>
       </c>
       <c r="K48">
-        <v>2.875</v>
+        <v>4.8</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M48">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="O48">
         <v>4</v>
       </c>
       <c r="P48">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4767,7 +4767,7 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>45192.55208333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>2.15</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6800462</v>
+        <v>6800030</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,55 +4888,55 @@
         <v>45195.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>43</v>
       </c>
       <c r="K50">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="N50">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P50">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4945,19 +4945,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.2</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5066,7 +5066,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5078,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>1.25</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6800030</v>
+        <v>6800462</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,55 +5155,55 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>43</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="L53">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="N53">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="O53">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="Q53">
+        <v>0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.875</v>
+      </c>
+      <c r="S53">
+        <v>1.925</v>
+      </c>
+      <c r="T53">
         <v>2.5</v>
       </c>
-      <c r="R53">
-        <v>1.8</v>
-      </c>
-      <c r="S53">
-        <v>2</v>
-      </c>
-      <c r="T53">
-        <v>4</v>
-      </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,19 +5212,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.1419999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
         <v>1.333</v>
@@ -5336,7 +5336,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6800464</v>
+        <v>6800031</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
+        <v>2.2</v>
+      </c>
+      <c r="N56">
+        <v>2.875</v>
+      </c>
+      <c r="O56">
+        <v>3.4</v>
+      </c>
+      <c r="P56">
         <v>2.1</v>
       </c>
-      <c r="N56">
-        <v>3.8</v>
-      </c>
-      <c r="O56">
-        <v>3.6</v>
-      </c>
-      <c r="P56">
-        <v>1.727</v>
-      </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6800466</v>
+        <v>6800032</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,55 +5514,55 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>4.1</v>
+        <v>29</v>
       </c>
       <c r="N57">
-        <v>1.55</v>
+        <v>1.055</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P57">
-        <v>5.25</v>
+        <v>34</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-3.25</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>0.55</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6800467</v>
+        <v>6800464</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
       </c>
       <c r="K58">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6800032</v>
+        <v>6800466</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,55 +5692,55 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K59">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>4.1</v>
       </c>
       <c r="N59">
-        <v>1.055</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>34</v>
+        <v>5.25</v>
       </c>
       <c r="Q59">
-        <v>-3.25</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T59">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>0.05499999999999994</v>
+        <v>0.55</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5749,16 +5749,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6800031</v>
+        <v>6800467</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="L60">
         <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="N60">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,10 +5867,10 @@
         <v>45199.55208333334</v>
       </c>
       <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
         <v>37</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>1.85</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K62">
         <v>2.1</v>
@@ -6045,10 +6045,10 @@
         <v>45205.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K63">
         <v>6.5</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6800034</v>
+        <v>6800033</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,40 +6134,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>36</v>
       </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O64">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>1.222</v>
+        <v>3.3</v>
       </c>
       <c r="Q64">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
         <v>1.975</v>
@@ -6179,28 +6179,28 @@
         <v>3</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>1.615</v>
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800033</v>
+        <v>6800034</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,40 +6312,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>4</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N66">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P66">
-        <v>3.3</v>
+        <v>1.222</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6357,28 +6357,28 @@
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6404,7 +6404,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6800475</v>
+        <v>6800036</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,58 +6490,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="N68">
+        <v>1.363</v>
+      </c>
+      <c r="O68">
+        <v>4.75</v>
+      </c>
+      <c r="P68">
+        <v>6</v>
+      </c>
+      <c r="Q68">
+        <v>-1.25</v>
+      </c>
+      <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
         <v>3</v>
       </c>
-      <c r="O68">
-        <v>3</v>
-      </c>
-      <c r="P68">
-        <v>2.15</v>
-      </c>
-      <c r="Q68">
-        <v>0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.9</v>
-      </c>
-      <c r="S68">
-        <v>1.9</v>
-      </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W68">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,16 +6550,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6800473</v>
+        <v>6800472</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>1.875</v>
+        <v>1.6</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,16 +6639,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6800472</v>
+        <v>6800473</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N70">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>1.6</v>
+        <v>1.875</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6800036</v>
+        <v>6800475</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L71">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>45217.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
         <v>1.65</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6800037</v>
+        <v>6800479</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,55 +6935,55 @@
         <v>45220.4375</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
         <v>43</v>
       </c>
       <c r="K73">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="L73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="N73">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O73">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q73">
+        <v>1.25</v>
+      </c>
+      <c r="R73">
+        <v>1.875</v>
+      </c>
+      <c r="S73">
+        <v>1.925</v>
+      </c>
+      <c r="T73">
         <v>2.75</v>
       </c>
-      <c r="R73">
-        <v>1.8</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>4</v>
-      </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -6992,19 +6992,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6800038</v>
+        <v>6800477</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,58 +7024,58 @@
         <v>45220.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6800477</v>
+        <v>6800037</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,7 +7113,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>30</v>
@@ -7122,67 +7122,67 @@
         <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M75">
+        <v>1.166</v>
+      </c>
+      <c r="N75">
+        <v>13</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75">
+        <v>1.1</v>
+      </c>
+      <c r="Q75">
+        <v>2.75</v>
+      </c>
+      <c r="R75">
+        <v>1.8</v>
+      </c>
+      <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75">
         <v>4</v>
       </c>
-      <c r="N75">
-        <v>2.05</v>
-      </c>
-      <c r="O75">
-        <v>3.75</v>
-      </c>
-      <c r="P75">
-        <v>2.9</v>
-      </c>
-      <c r="Q75">
-        <v>-0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.825</v>
-      </c>
-      <c r="S75">
-        <v>1.975</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6800479</v>
+        <v>6800038</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45220.4375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>42</v>
+      </c>
+      <c r="K76">
+        <v>2.375</v>
+      </c>
+      <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>2.375</v>
+      </c>
+      <c r="N76">
+        <v>2.3</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
+        <v>2.55</v>
+      </c>
+      <c r="Q76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76" t="s">
-        <v>43</v>
-      </c>
-      <c r="K76">
-        <v>4.333</v>
-      </c>
-      <c r="L76">
-        <v>4</v>
-      </c>
-      <c r="M76">
-        <v>1.571</v>
-      </c>
-      <c r="N76">
-        <v>6</v>
-      </c>
-      <c r="O76">
-        <v>4.75</v>
-      </c>
-      <c r="P76">
-        <v>1.4</v>
-      </c>
-      <c r="Q76">
-        <v>1.25</v>
-      </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7380,10 +7380,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>6</v>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
         <v>1.444</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6800481</v>
+        <v>6800482</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45227.4375</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="N79">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
+        <v>1.8</v>
+      </c>
+      <c r="V79">
+        <v>2</v>
+      </c>
+      <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
         <v>3</v>
       </c>
-      <c r="U79">
-        <v>1.9</v>
-      </c>
-      <c r="V79">
-        <v>1.9</v>
-      </c>
-      <c r="W79">
-        <v>-1</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
       <c r="Y79">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6800482</v>
+        <v>6800481</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45227.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="N80">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>45227.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>1.142</v>
@@ -7825,7 +7825,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>1.02</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6800485</v>
+        <v>6800487</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,46 +7914,46 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
+        <v>1.666</v>
+      </c>
+      <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>1.75</v>
+      </c>
+      <c r="O84">
+        <v>3.6</v>
+      </c>
+      <c r="P84">
+        <v>3.75</v>
+      </c>
+      <c r="Q84">
+        <v>-0.5</v>
+      </c>
+      <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
         <v>2</v>
-      </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>1.65</v>
-      </c>
-      <c r="O84">
-        <v>3.5</v>
-      </c>
-      <c r="P84">
-        <v>4.333</v>
-      </c>
-      <c r="Q84">
-        <v>-0.75</v>
-      </c>
-      <c r="R84">
-        <v>1.85</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
       </c>
       <c r="T84">
         <v>2.75</v>
@@ -7965,25 +7965,25 @@
         <v>1.975</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6800486</v>
+        <v>6800042</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N85">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P85">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R85">
+        <v>1.975</v>
+      </c>
+      <c r="S85">
+        <v>1.825</v>
+      </c>
+      <c r="T85">
+        <v>3.25</v>
+      </c>
+      <c r="U85">
         <v>1.85</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.95</v>
-      </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>0.95</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6800487</v>
+        <v>6800485</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,46 +8092,46 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
         <v>2.75</v>
@@ -8143,25 +8143,25 @@
         <v>1.975</v>
       </c>
       <c r="W86">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800042</v>
+        <v>6800486</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="L87">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N87">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O87">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K88">
         <v>1.615</v>
@@ -8359,10 +8359,10 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8448,10 +8448,10 @@
         <v>45244.70833333334</v>
       </c>
       <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
         <v>33</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>45247.70833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6800490</v>
+        <v>6800491</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
+        <v>1.8</v>
+      </c>
+      <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
+        <v>3.6</v>
+      </c>
+      <c r="N92">
+        <v>1.85</v>
+      </c>
+      <c r="O92">
+        <v>3.5</v>
+      </c>
+      <c r="P92">
+        <v>3.6</v>
+      </c>
+      <c r="Q92">
+        <v>-0.5</v>
+      </c>
+      <c r="R92">
+        <v>1.9</v>
+      </c>
+      <c r="S92">
+        <v>1.9</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
         <v>2</v>
       </c>
-      <c r="L92">
-        <v>4</v>
-      </c>
-      <c r="M92">
-        <v>2.75</v>
-      </c>
-      <c r="N92">
-        <v>2.15</v>
-      </c>
-      <c r="O92">
-        <v>3.75</v>
-      </c>
-      <c r="P92">
+      <c r="V92">
+        <v>1.8</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
         <v>2.6</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.725</v>
-      </c>
-      <c r="S92">
-        <v>2.075</v>
-      </c>
-      <c r="T92">
-        <v>2.5</v>
-      </c>
-      <c r="U92">
-        <v>1.925</v>
-      </c>
-      <c r="V92">
-        <v>1.875</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>2.75</v>
-      </c>
-      <c r="Y92">
-        <v>-1</v>
-      </c>
       <c r="Z92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800489</v>
+        <v>6800490</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,73 +8718,73 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93">
         <v>2</v>
       </c>
-      <c r="J93" t="s">
-        <v>43</v>
-      </c>
-      <c r="K93">
-        <v>1.333</v>
-      </c>
       <c r="L93">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N93">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O93">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y93">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>40</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6800491</v>
+        <v>6800489</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,40 +8893,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N95">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8935,13 +8935,13 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8950,7 +8950,7 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -9074,7 +9074,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800492</v>
+        <v>6800495</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,10 +9160,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9172,64 +9172,64 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>1.45</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800495</v>
+        <v>6800492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9350,64 +9350,64 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N100">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,10 +9427,10 @@
         <v>45258.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800498</v>
+        <v>6800497</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>1.444</v>
+        <v>1.2</v>
       </c>
       <c r="L103">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P103">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800497</v>
+        <v>6800498</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L104">
+        <v>4.2</v>
+      </c>
+      <c r="M104">
+        <v>6</v>
+      </c>
+      <c r="N104">
+        <v>1.4</v>
+      </c>
+      <c r="O104">
+        <v>4.2</v>
+      </c>
+      <c r="P104">
         <v>6.5</v>
       </c>
-      <c r="M104">
-        <v>9</v>
-      </c>
-      <c r="N104">
-        <v>1.166</v>
-      </c>
-      <c r="O104">
-        <v>7.5</v>
-      </c>
-      <c r="P104">
-        <v>10</v>
-      </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800496</v>
+        <v>6800048</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N105">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O105">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
         <v>1.975</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2</v>
-      </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6800048</v>
+        <v>6800496</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N106">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P106">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>45262.59375</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800050</v>
+        <v>6800049</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s">
         <v>29</v>
       </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>1.071</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>26</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.083</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="Q108">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800049</v>
+        <v>6800503</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,73 +10142,73 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M109">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N109">
+        <v>1.142</v>
+      </c>
+      <c r="O109">
+        <v>7</v>
+      </c>
+      <c r="P109">
+        <v>13</v>
+      </c>
+      <c r="Q109">
+        <v>-2</v>
+      </c>
+      <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
         <v>1.95</v>
       </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>3.25</v>
-      </c>
-      <c r="Q109">
-        <v>-0.5</v>
-      </c>
-      <c r="R109">
-        <v>2.025</v>
-      </c>
-      <c r="S109">
-        <v>1.775</v>
-      </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800503</v>
+        <v>6800050</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,58 +10228,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
         <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>39</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>1.2</v>
+        <v>1.071</v>
       </c>
       <c r="L110">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="M110">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N110">
-        <v>1.142</v>
+        <v>1.083</v>
       </c>
       <c r="O110">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P110">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q110">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>0.1419999999999999</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10288,16 +10288,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10406,10 +10406,10 @@
         <v>45283.47916666666</v>
       </c>
       <c r="F112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
         <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10495,10 +10495,10 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10507,7 +10507,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K113">
         <v>1.083</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6800507</v>
+        <v>6800505</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,34 +10584,34 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
         <v>43</v>
       </c>
       <c r="K114">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N114">
+        <v>3.25</v>
+      </c>
+      <c r="O114">
         <v>3.6</v>
-      </c>
-      <c r="O114">
-        <v>3.4</v>
       </c>
       <c r="P114">
         <v>1.909</v>
@@ -10620,19 +10620,19 @@
         <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10647,13 +10647,13 @@
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB114">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800506</v>
+        <v>6800504</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K115">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N115">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>2.4</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800505</v>
+        <v>6800507</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,34 +10851,34 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <v>2</v>
-      </c>
-      <c r="I117">
-        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>43</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N117">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
         <v>1.909</v>
@@ -10887,19 +10887,19 @@
         <v>0.5</v>
       </c>
       <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.9</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
-      </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>2.5</v>
-      </c>
-      <c r="U117">
-        <v>1.85</v>
-      </c>
-      <c r="V117">
-        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10914,13 +10914,13 @@
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800504</v>
+        <v>6800506</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>3</v>
-      </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6800515</v>
+        <v>6800513</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,55 +11029,55 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O119">
         <v>3.3</v>
       </c>
       <c r="P119">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
         <v>1.85</v>
       </c>
-      <c r="S119">
-        <v>1.95</v>
-      </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11089,16 +11089,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800513</v>
+        <v>6800514</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,13 +11118,13 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
         <v>33</v>
       </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11133,31 +11133,31 @@
         <v>42</v>
       </c>
       <c r="K120">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M120">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
         <v>2.25</v>
@@ -11169,25 +11169,25 @@
         <v>2.025</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X120">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC120">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800514</v>
+        <v>6800515</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,76 +11207,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>41</v>
       </c>
       <c r="K121">
+        <v>3.2</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
         <v>2.05</v>
       </c>
-      <c r="L121">
+      <c r="N121">
+        <v>2.45</v>
+      </c>
+      <c r="O121">
         <v>3.3</v>
       </c>
-      <c r="M121">
-        <v>3.2</v>
-      </c>
-      <c r="N121">
-        <v>2.375</v>
-      </c>
-      <c r="O121">
-        <v>3.2</v>
-      </c>
       <c r="P121">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>45291.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>34</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>1.533</v>
@@ -11385,7 +11385,7 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>39</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11474,10 +11474,10 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>45296.70833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>34</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7440288</v>
+        <v>7589426</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,40 +11652,40 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K126">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="L126">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="O126">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="Q126">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
         <v>1.9</v>
@@ -11694,16 +11694,16 @@
         <v>1.9</v>
       </c>
       <c r="T126">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.04000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,7 +11718,7 @@
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7589426</v>
+        <v>7440288</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,40 +11741,40 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K127">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N127">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P127">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="Q127">
-        <v>0.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R127">
         <v>1.9</v>
@@ -11783,16 +11783,16 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>2.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,7 +11807,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800519</v>
+        <v>6800520</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,55 +11830,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N128">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11887,19 +11887,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800517</v>
+        <v>6800519</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,55 +11919,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L129">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
         <v>2.375</v>
       </c>
       <c r="N129">
+        <v>2.55</v>
+      </c>
+      <c r="O129">
+        <v>3.4</v>
+      </c>
+      <c r="P129">
         <v>2.5</v>
-      </c>
-      <c r="O129">
-        <v>4</v>
-      </c>
-      <c r="P129">
-        <v>2.25</v>
       </c>
       <c r="Q129">
         <v>0</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11976,16 +11976,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800518</v>
+        <v>6800054</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="M130">
-        <v>2.7</v>
+        <v>19</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P130">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U130">
+        <v>1.975</v>
+      </c>
+      <c r="V130">
         <v>1.825</v>
       </c>
-      <c r="V130">
-        <v>1.975</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6800054</v>
+        <v>6800517</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="M131">
-        <v>19</v>
+        <v>2.375</v>
       </c>
       <c r="N131">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="Q131">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12198,7 +12198,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K132">
         <v>2.3</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800520</v>
+        <v>6800518</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,55 +12275,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>43</v>
       </c>
       <c r="K133">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L133">
         <v>3.75</v>
       </c>
       <c r="M133">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N133">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12332,19 +12332,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.95</v>
+        <v>1.6</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,10 +12364,10 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K134">
         <v>1.285</v>
@@ -12453,10 +12453,10 @@
         <v>45324.70833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K135">
         <v>4</v>
@@ -12634,7 +12634,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12732,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K138">
         <v>1.833</v>
@@ -12809,10 +12809,10 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>1.1</v>
@@ -12901,7 +12901,7 @@
         <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
         <v>39</v>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13076,7 +13076,7 @@
         <v>45331.70833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13165,7 +13165,7 @@
         <v>45332.40625</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13177,7 +13177,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>1.533</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7721585</v>
+        <v>7721564</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,73 +13254,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K144">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N144">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7721564</v>
+        <v>7721585</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,7 +13343,7 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
@@ -13352,64 +13352,64 @@
         <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13432,10 +13432,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13521,10 +13521,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K147">
         <v>1.5</v>
@@ -13613,7 +13613,7 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K149">
         <v>2.1</v>
@@ -13788,7 +13788,7 @@
         <v>45346.47916666666</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>32</v>
@@ -13877,7 +13877,7 @@
         <v>45346.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>38</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K151">
         <v>1.4</v>
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7721589</v>
+        <v>7721588</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,10 +13966,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F152" t="s">
+        <v>32</v>
+      </c>
+      <c r="G152" t="s">
         <v>35</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13978,25 +13978,25 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K152">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
+        <v>1.7</v>
+      </c>
+      <c r="N152">
+        <v>2.55</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
         <v>2.45</v>
-      </c>
-      <c r="N152">
-        <v>2.375</v>
-      </c>
-      <c r="O152">
-        <v>3.8</v>
-      </c>
-      <c r="P152">
-        <v>2.4</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -14008,16 +14008,16 @@
         <v>1.9</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>1.375</v>
+        <v>1.55</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14035,7 +14035,7 @@
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7721588</v>
+        <v>7721589</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,10 +14055,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14067,25 +14067,25 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K153">
-        <v>3.75</v>
+        <v>2.35</v>
       </c>
       <c r="L153">
+        <v>3.6</v>
+      </c>
+      <c r="M153">
+        <v>2.45</v>
+      </c>
+      <c r="N153">
+        <v>2.375</v>
+      </c>
+      <c r="O153">
         <v>3.8</v>
       </c>
-      <c r="M153">
-        <v>1.7</v>
-      </c>
-      <c r="N153">
-        <v>2.55</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
       <c r="P153">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -14097,16 +14097,16 @@
         <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>1.55</v>
+        <v>1.375</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14124,7 +14124,7 @@
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14147,7 +14147,16 @@
         <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>41</v>
       </c>
       <c r="K154">
         <v>3.05</v>
@@ -14159,46 +14168,52 @@
         <v>1.95</v>
       </c>
       <c r="N154">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O154">
         <v>3.5</v>
       </c>
       <c r="P154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
+        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14218,11 +14233,20 @@
         <v>45353.40625</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
       </c>
+      <c r="H155">
+        <v>4</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>42</v>
+      </c>
       <c r="K155">
         <v>1.05</v>
       </c>
@@ -14254,25 +14278,31 @@
         <v>4</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
+        <v>0.125</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.875</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
         <v>0</v>
       </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
-        <v>0</v>
+      <c r="AC155">
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14280,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7721613</v>
+        <v>7721612</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14292,61 +14322,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>41</v>
       </c>
       <c r="K156">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N156">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P156">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB156">
+        <v>-0.5</v>
+      </c>
+      <c r="AC156">
+        <v>0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14354,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7721612</v>
+        <v>7721613</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14366,61 +14411,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>43</v>
       </c>
       <c r="K157">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L157">
+        <v>3.8</v>
+      </c>
+      <c r="M157">
+        <v>5</v>
+      </c>
+      <c r="N157">
+        <v>1.65</v>
+      </c>
+      <c r="O157">
         <v>3.6</v>
       </c>
-      <c r="M157">
-        <v>2.15</v>
-      </c>
-      <c r="N157">
-        <v>2.75</v>
-      </c>
-      <c r="O157">
-        <v>3.4</v>
-      </c>
       <c r="P157">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>Colwyn Bay</t>
   </si>
   <si>
-    <t>Connahs Quay</t>
+    <t>Penybont</t>
   </si>
   <si>
     <t>Caernarfon Town</t>
   </si>
   <si>
-    <t>Penybont</t>
+    <t>Connahs Quay</t>
+  </si>
+  <si>
+    <t>Pontypridd Town</t>
   </si>
   <si>
     <t>Cardiff MU</t>
-  </si>
-  <si>
-    <t>Pontypridd Town</t>
   </si>
   <si>
     <t>Barry Town</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6800427</v>
+        <v>6800428</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1165,22 +1165,22 @@
         <v>42</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q8">
         <v>-1.25</v>
@@ -1195,13 +1195,13 @@
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,10 +1216,10 @@
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6800428</v>
+        <v>6800427</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,10 +1331,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q10">
         <v>-1.25</v>
@@ -1373,13 +1373,13 @@
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1394,10 +1394,10 @@
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6800430</v>
+        <v>6800018</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,73 +1420,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>17</v>
+      </c>
+      <c r="M11">
+        <v>1.02</v>
+      </c>
+      <c r="N11">
         <v>41</v>
       </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>3.4</v>
-      </c>
-      <c r="M11">
-        <v>2.05</v>
-      </c>
-      <c r="N11">
-        <v>2.625</v>
-      </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="P11">
-        <v>2.25</v>
+        <v>1.025</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6800018</v>
+        <v>6800430</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.02</v>
+        <v>2.05</v>
       </c>
       <c r="N12">
-        <v>41</v>
+        <v>2.625</v>
       </c>
       <c r="O12">
-        <v>19</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.025</v>
+        <v>2.25</v>
       </c>
       <c r="Q12">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
-        <v>0.02499999999999991</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,10 +1684,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6800437</v>
+        <v>6800019</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>1.975</v>
+      </c>
+      <c r="V16">
+        <v>1.825</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>2.5</v>
       </c>
-      <c r="U16">
-        <v>1.85</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
-      <c r="W16">
-        <v>0.7</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6800019</v>
+        <v>6800020</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,40 +1951,40 @@
         <v>45164.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>1.055</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>2.7</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -1993,34 +1993,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6800020</v>
+        <v>6800437</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>1.04</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>3.8</v>
       </c>
       <c r="N18">
-        <v>1.055</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>29</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X18">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2218,10 +2218,10 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>45167.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800841</v>
+        <v>6800440</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>17</v>
+        <v>2.4</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>1.083</v>
+        <v>2.625</v>
       </c>
       <c r="N23">
-        <v>23</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>1.071</v>
+        <v>2.55</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y23">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800440</v>
+        <v>6800841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>17</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>1.083</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>23</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="P24">
-        <v>2.55</v>
+        <v>1.071</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6800023</v>
+        <v>6800022</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>1.8</v>
       </c>
       <c r="N26">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>41</v>
+        <v>1.909</v>
       </c>
       <c r="Q26">
-        <v>-4.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6800443</v>
+        <v>6800023</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,58 +2841,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
       </c>
       <c r="K27">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>2.3</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>41</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-4.25</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>1.4</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2901,13 +2901,13 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6800022</v>
+        <v>6800443</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,73 +2930,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
+        <v>1.775</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
+        <v>2.5</v>
+      </c>
+      <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.85</v>
       </c>
-      <c r="S28">
-        <v>1.95</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.8</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
         <v>0.95</v>
-      </c>
-      <c r="AB28">
-        <v>0.8</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3200,7 +3200,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3286,10 +3286,10 @@
         <v>45177.65625</v>
       </c>
       <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
         <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6800024</v>
+        <v>6800449</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,13 +3375,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -3390,40 +3390,40 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3432,16 +3432,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3467,7 +3467,7 @@
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6800449</v>
+        <v>6800024</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,13 +3553,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -3568,40 +3568,40 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3610,16 +3610,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>45178.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6800452</v>
+        <v>6800026</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,52 +4001,52 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>42</v>
       </c>
       <c r="K40">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
         <v>1.5</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q40">
         <v>-1</v>
       </c>
       <c r="R40">
+        <v>1.95</v>
+      </c>
+      <c r="S40">
         <v>1.85</v>
-      </c>
-      <c r="S40">
-        <v>1.95</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
         <v>0.5</v>
@@ -4058,13 +4058,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6800454</v>
+        <v>6800452</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,76 +4176,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
         <v>39</v>
       </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
       <c r="H42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
+        <v>4.333</v>
+      </c>
+      <c r="N42">
+        <v>1.5</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <v>5.75</v>
+      </c>
+      <c r="Q42">
+        <v>-1</v>
+      </c>
+      <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
+        <v>1.95</v>
+      </c>
+      <c r="T42">
+        <v>2.75</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
         <v>1.8</v>
       </c>
-      <c r="N42">
-        <v>3.3</v>
-      </c>
-      <c r="O42">
-        <v>3.5</v>
-      </c>
-      <c r="P42">
-        <v>1.95</v>
-      </c>
-      <c r="Q42">
+      <c r="W42">
         <v>0.5</v>
       </c>
-      <c r="R42">
-        <v>1.8</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.95</v>
-      </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
       <c r="X42">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6800026</v>
+        <v>6800454</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43">
+        <v>3.8</v>
+      </c>
+      <c r="L43">
+        <v>3.6</v>
+      </c>
+      <c r="M43">
+        <v>1.8</v>
+      </c>
+      <c r="N43">
+        <v>3.3</v>
+      </c>
+      <c r="O43">
+        <v>3.5</v>
+      </c>
+      <c r="P43">
+        <v>1.95</v>
+      </c>
+      <c r="Q43">
+        <v>0.5</v>
+      </c>
+      <c r="R43">
+        <v>1.8</v>
+      </c>
+      <c r="S43">
         <v>2</v>
       </c>
-      <c r="J43" t="s">
-        <v>42</v>
-      </c>
-      <c r="K43">
-        <v>1.6</v>
-      </c>
-      <c r="L43">
-        <v>4</v>
-      </c>
-      <c r="M43">
-        <v>4.5</v>
-      </c>
-      <c r="N43">
-        <v>1.5</v>
-      </c>
-      <c r="O43">
-        <v>4.2</v>
-      </c>
-      <c r="P43">
-        <v>5</v>
-      </c>
-      <c r="Q43">
-        <v>-1</v>
-      </c>
-      <c r="R43">
+      <c r="T43">
+        <v>2.5</v>
+      </c>
+      <c r="U43">
         <v>1.95</v>
       </c>
-      <c r="S43">
+      <c r="V43">
         <v>1.85</v>
       </c>
-      <c r="T43">
-        <v>2.75</v>
-      </c>
-      <c r="U43">
-        <v>1.825</v>
-      </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>30</v>
@@ -4446,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6800456</v>
+        <v>6800458</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,73 +4532,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <v>4.8</v>
+      </c>
+      <c r="L46">
+        <v>4.2</v>
+      </c>
+      <c r="M46">
+        <v>1.5</v>
+      </c>
+      <c r="N46">
+        <v>5.25</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.5</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
       </c>
-      <c r="J46" t="s">
-        <v>42</v>
-      </c>
-      <c r="K46">
-        <v>5.5</v>
-      </c>
-      <c r="L46">
-        <v>3.5</v>
-      </c>
-      <c r="M46">
-        <v>1.55</v>
-      </c>
-      <c r="N46">
-        <v>4.5</v>
-      </c>
-      <c r="O46">
-        <v>3.3</v>
-      </c>
-      <c r="P46">
-        <v>1.666</v>
-      </c>
-      <c r="Q46">
-        <v>0.75</v>
-      </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.825</v>
+      </c>
+      <c r="AB46">
         <v>0.875</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>1</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6800457</v>
+        <v>6800456</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="N47">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="Q47">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6800458</v>
+        <v>6800457</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,40 +4710,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
         <v>43</v>
       </c>
       <c r="K48">
-        <v>4.8</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N48">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O48">
         <v>4</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4767,7 +4767,7 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -4802,7 +4802,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6800030</v>
+        <v>6800462</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,55 +4888,55 @@
         <v>45195.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>43</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
+        <v>0.25</v>
+      </c>
+      <c r="R50">
+        <v>1.875</v>
+      </c>
+      <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
         <v>2.5</v>
       </c>
-      <c r="R50">
-        <v>1.8</v>
-      </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
-      <c r="T50">
-        <v>4</v>
-      </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4945,19 +4945,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.1419999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6800459</v>
+        <v>6800461</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,61 +4977,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5040,13 +5040,13 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6800462</v>
+        <v>6800459</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,73 +5158,73 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800461</v>
+        <v>6800030</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.333</v>
+        <v>10</v>
       </c>
       <c r="L54">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="M54">
-        <v>5.75</v>
+        <v>1.181</v>
       </c>
       <c r="N54">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="O54">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="P54">
-        <v>6</v>
+        <v>1.142</v>
       </c>
       <c r="Q54">
-        <v>-1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6800031</v>
+        <v>6800466</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="N56">
-        <v>2.875</v>
+        <v>1.55</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6800032</v>
+        <v>6800464</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>39</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>2.1</v>
       </c>
       <c r="N57">
-        <v>1.055</v>
+        <v>3.8</v>
       </c>
       <c r="O57">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>34</v>
+        <v>1.727</v>
       </c>
       <c r="Q57">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
+        <v>2.025</v>
+      </c>
+      <c r="S57">
+        <v>1.775</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
         <v>2</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.8</v>
       </c>
-      <c r="T57">
-        <v>4</v>
-      </c>
-      <c r="U57">
-        <v>1.925</v>
-      </c>
-      <c r="V57">
-        <v>1.875</v>
-      </c>
       <c r="W57">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
+        <v>1.025</v>
+      </c>
+      <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
         <v>1</v>
       </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6800464</v>
+        <v>6800032</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
       </c>
       <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58">
+        <v>1.05</v>
+      </c>
+      <c r="L58">
+        <v>15</v>
+      </c>
+      <c r="M58">
+        <v>29</v>
+      </c>
+      <c r="N58">
+        <v>1.055</v>
+      </c>
+      <c r="O58">
+        <v>12</v>
+      </c>
+      <c r="P58">
+        <v>34</v>
+      </c>
+      <c r="Q58">
+        <v>-3.25</v>
+      </c>
+      <c r="R58">
         <v>2</v>
       </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58">
-        <v>3</v>
-      </c>
-      <c r="L58">
-        <v>3.3</v>
-      </c>
-      <c r="M58">
-        <v>2.1</v>
-      </c>
-      <c r="N58">
-        <v>3.8</v>
-      </c>
-      <c r="O58">
-        <v>3.6</v>
-      </c>
-      <c r="P58">
-        <v>1.727</v>
-      </c>
-      <c r="Q58">
-        <v>0.5</v>
-      </c>
-      <c r="R58">
-        <v>2.025</v>
-      </c>
       <c r="S58">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6800466</v>
+        <v>6800031</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>3</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>1.55</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z59">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5867,10 +5867,10 @@
         <v>45199.55208333334</v>
       </c>
       <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
         <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -5956,7 +5956,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -6048,7 +6048,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6800033</v>
+        <v>6800034</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,40 +6134,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>4</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N64">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>1.222</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R64">
         <v>1.975</v>
@@ -6179,28 +6179,28 @@
         <v>3</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6800470</v>
+        <v>6800033</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,58 +6223,58 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
       </c>
       <c r="K65">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O65">
         <v>3.6</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6283,16 +6283,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800034</v>
+        <v>6800470</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,76 +6312,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>4</v>
-      </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="L66">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>1.285</v>
+        <v>4.75</v>
       </c>
       <c r="N66">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="O66">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="Q66">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>45206.55208333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
         <v>29</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6800036</v>
+        <v>6800472</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,13 +6490,13 @@
         <v>45216.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6505,43 +6505,43 @@
         <v>42</v>
       </c>
       <c r="K68">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O68">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>0.363</v>
+        <v>1.6</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,16 +6550,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6800472</v>
+        <v>6800473</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>42</v>
       </c>
       <c r="K69">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N69">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O69">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
-        <v>1.6</v>
+        <v>1.875</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,16 +6639,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6800473</v>
+        <v>6800036</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45216.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>42</v>
       </c>
       <c r="K70">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="N70">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
         <v>1.875</v>
@@ -6710,16 +6710,16 @@
         <v>1.925</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>1.875</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6846,7 +6846,7 @@
         <v>45217.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6800479</v>
+        <v>6800037</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,55 +6935,55 @@
         <v>45220.4375</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
         <v>43</v>
       </c>
       <c r="K73">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>1.166</v>
+      </c>
+      <c r="N73">
+        <v>13</v>
+      </c>
+      <c r="O73">
+        <v>10</v>
+      </c>
+      <c r="P73">
+        <v>1.1</v>
+      </c>
+      <c r="Q73">
+        <v>2.75</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73">
         <v>4</v>
       </c>
-      <c r="M73">
-        <v>1.571</v>
-      </c>
-      <c r="N73">
-        <v>6</v>
-      </c>
-      <c r="O73">
-        <v>4.75</v>
-      </c>
-      <c r="P73">
-        <v>1.4</v>
-      </c>
-      <c r="Q73">
-        <v>1.25</v>
-      </c>
-      <c r="R73">
-        <v>1.875</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -6992,19 +6992,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.3999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6800477</v>
+        <v>6800479</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,46 +7024,46 @@
         <v>45220.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="O74">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.75</v>
@@ -7075,25 +7075,25 @@
         <v>1.875</v>
       </c>
       <c r="W74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6800037</v>
+        <v>6800477</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45220.4375</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>13</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>1.975</v>
+      </c>
+      <c r="T75">
         <v>2.75</v>
       </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>4</v>
-      </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -7291,7 +7291,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -7380,7 +7380,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>36</v>
@@ -7647,10 +7647,10 @@
         <v>45227.4375</v>
       </c>
       <c r="F81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s">
         <v>39</v>
-      </c>
-      <c r="G81" t="s">
-        <v>38</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6800487</v>
+        <v>6800484</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L84">
+        <v>3.5</v>
+      </c>
+      <c r="M84">
+        <v>4.75</v>
+      </c>
+      <c r="N84">
+        <v>1.533</v>
+      </c>
+      <c r="O84">
         <v>3.75</v>
       </c>
-      <c r="M84">
-        <v>4</v>
-      </c>
-      <c r="N84">
-        <v>1.75</v>
-      </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
       <c r="P84">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>1.775</v>
+      </c>
+      <c r="V84">
+        <v>2.025</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>2.75</v>
       </c>
-      <c r="U84">
-        <v>1.825</v>
-      </c>
-      <c r="V84">
-        <v>1.975</v>
-      </c>
-      <c r="W84">
-        <v>0.75</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6800042</v>
+        <v>6800041</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,40 +8003,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="N85">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="O85">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
         <v>1.975</v>
@@ -8045,7 +8045,7 @@
         <v>1.825</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
         <v>1.85</v>
@@ -8060,7 +8060,7 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z85">
         <v>-1</v>
@@ -8069,10 +8069,10 @@
         <v>0.825</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8181,10 +8181,10 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6800484</v>
+        <v>6800487</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
         <v>3.75</v>
       </c>
-      <c r="P88">
-        <v>6.5</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6800041</v>
+        <v>6800042</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>2</v>
-      </c>
-      <c r="I89">
-        <v>4</v>
       </c>
       <c r="J89" t="s">
         <v>43</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M89">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P89">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R89">
         <v>1.975</v>
@@ -8401,7 +8401,7 @@
         <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
         <v>1.85</v>
@@ -8416,7 +8416,7 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6800491</v>
+        <v>6800489</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,40 +8626,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N92">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R92">
         <v>1.9</v>
@@ -8668,13 +8668,13 @@
         <v>1.9</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8683,7 +8683,7 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z92">
         <v>-1</v>
@@ -8692,10 +8692,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6800489</v>
+        <v>6800491</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,40 +8893,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8935,13 +8935,13 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8950,7 +8950,7 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
+        <v>0.5</v>
+      </c>
+      <c r="AC95">
         <v>-0.5</v>
-      </c>
-      <c r="AC95">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800046</v>
+        <v>6800495</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,10 +9071,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9086,61 +9086,61 @@
         <v>41</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N97">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
+        <v>1.775</v>
+      </c>
+      <c r="S97">
+        <v>2.025</v>
+      </c>
+      <c r="T97">
+        <v>2.5</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
+        <v>-0</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800495</v>
+        <v>6800492</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,10 +9160,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9175,61 +9175,61 @@
         <v>41</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800493</v>
+        <v>6800046</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O99">
         <v>3.8</v>
       </c>
       <c r="P99">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800492</v>
+        <v>6800493</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
+        <v>2.025</v>
+      </c>
+      <c r="S100">
+        <v>1.775</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
         <v>2</v>
       </c>
-      <c r="S100">
+      <c r="V100">
         <v>1.8</v>
       </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.875</v>
-      </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800497</v>
+        <v>6800496</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>42</v>
       </c>
       <c r="K103">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L103">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="N103">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="O103">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800048</v>
+        <v>6800497</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,40 +9783,40 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M105">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.85</v>
@@ -9825,34 +9825,34 @@
         <v>1.95</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
         <v>1.975</v>
       </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6800496</v>
+        <v>6800048</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,73 +9875,73 @@
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N106">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O106">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
+        <v>1.95</v>
+      </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+      <c r="U106">
         <v>1.975</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.825</v>
       </c>
-      <c r="T106">
-        <v>2.5</v>
-      </c>
-      <c r="U106">
-        <v>1.8</v>
-      </c>
-      <c r="V106">
-        <v>2</v>
-      </c>
       <c r="W106">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>45262.59375</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800049</v>
+        <v>6800503</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N108">
+        <v>1.142</v>
+      </c>
+      <c r="O108">
+        <v>7</v>
+      </c>
+      <c r="P108">
+        <v>13</v>
+      </c>
+      <c r="Q108">
+        <v>-2</v>
+      </c>
+      <c r="R108">
+        <v>1.775</v>
+      </c>
+      <c r="S108">
+        <v>2.025</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
         <v>1.95</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>3.25</v>
-      </c>
-      <c r="Q108">
-        <v>-0.5</v>
-      </c>
-      <c r="R108">
-        <v>2.025</v>
-      </c>
-      <c r="S108">
-        <v>1.775</v>
-      </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.8</v>
-      </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800503</v>
+        <v>6800050</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,58 +10139,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s">
         <v>35</v>
-      </c>
-      <c r="G109" t="s">
-        <v>39</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>42</v>
       </c>
       <c r="K109">
-        <v>1.2</v>
+        <v>1.071</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="M109">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N109">
-        <v>1.142</v>
+        <v>1.083</v>
       </c>
       <c r="O109">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P109">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q109">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.1419999999999999</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10199,16 +10199,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800050</v>
+        <v>6800049</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>1.071</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>26</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.083</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6800051</v>
+        <v>6800504</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.083</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>17</v>
+        <v>2.625</v>
       </c>
       <c r="N113">
-        <v>1.071</v>
+        <v>2.875</v>
       </c>
       <c r="O113">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>21</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>-3</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
+        <v>1.775</v>
+      </c>
+      <c r="S113">
+        <v>2.025</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>1.975</v>
+      </c>
+      <c r="V113">
         <v>1.825</v>
       </c>
-      <c r="S113">
-        <v>1.975</v>
-      </c>
-      <c r="T113">
-        <v>4.5</v>
-      </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.025</v>
+      </c>
+      <c r="AB113">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6800505</v>
+        <v>6800051</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,49 +10584,49 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K114">
+        <v>1.083</v>
+      </c>
+      <c r="L114">
+        <v>9.5</v>
+      </c>
+      <c r="M114">
+        <v>17</v>
+      </c>
+      <c r="N114">
+        <v>1.071</v>
+      </c>
+      <c r="O114">
+        <v>11</v>
+      </c>
+      <c r="P114">
+        <v>21</v>
+      </c>
+      <c r="Q114">
+        <v>-3</v>
+      </c>
+      <c r="R114">
+        <v>1.825</v>
+      </c>
+      <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
         <v>4.5</v>
-      </c>
-      <c r="L114">
-        <v>3.8</v>
-      </c>
-      <c r="M114">
-        <v>1.615</v>
-      </c>
-      <c r="N114">
-        <v>3.25</v>
-      </c>
-      <c r="O114">
-        <v>3.6</v>
-      </c>
-      <c r="P114">
-        <v>1.909</v>
-      </c>
-      <c r="Q114">
-        <v>0.5</v>
-      </c>
-      <c r="R114">
-        <v>1.8</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
       </c>
       <c r="U114">
         <v>1.85</v>
@@ -10635,25 +10635,25 @@
         <v>1.95</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800504</v>
+        <v>6800505</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,13 +10673,13 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>3</v>
@@ -10688,40 +10688,40 @@
         <v>43</v>
       </c>
       <c r="K115">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N115">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10730,16 +10730,16 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6800512</v>
+        <v>6800506</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,10 +10762,10 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10777,19 +10777,19 @@
         <v>42</v>
       </c>
       <c r="K116">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
         <v>4</v>
       </c>
-      <c r="M116">
-        <v>2.25</v>
-      </c>
       <c r="N116">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
         <v>3.6</v>
@@ -10798,22 +10798,22 @@
         <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10822,16 +10822,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800506</v>
+        <v>6800512</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,10 +10940,10 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10955,19 +10955,19 @@
         <v>42</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
         <v>3.6</v>
@@ -10976,22 +10976,22 @@
         <v>-0.5</v>
       </c>
       <c r="R118">
+        <v>1.925</v>
+      </c>
+      <c r="S118">
+        <v>1.875</v>
+      </c>
+      <c r="T118">
+        <v>2.25</v>
+      </c>
+      <c r="U118">
+        <v>1.85</v>
+      </c>
+      <c r="V118">
         <v>1.95</v>
       </c>
-      <c r="S118">
-        <v>1.85</v>
-      </c>
-      <c r="T118">
-        <v>2.5</v>
-      </c>
-      <c r="U118">
-        <v>1.8</v>
-      </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
       <c r="W118">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11000,16 +11000,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6800513</v>
+        <v>6800514</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,46 +11029,46 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N119">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T119">
         <v>2.25</v>
@@ -11080,25 +11080,25 @@
         <v>2.025</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X119">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800514</v>
+        <v>6800515</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,76 +11118,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
+        <v>3.2</v>
+      </c>
+      <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
         <v>2.05</v>
       </c>
-      <c r="L120">
+      <c r="N120">
+        <v>2.45</v>
+      </c>
+      <c r="O120">
         <v>3.3</v>
       </c>
-      <c r="M120">
-        <v>3.2</v>
-      </c>
-      <c r="N120">
-        <v>2.375</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
       <c r="P120">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800515</v>
+        <v>6800513</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,55 +11207,55 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>41</v>
       </c>
       <c r="K121">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N121">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O121">
         <v>3.3</v>
       </c>
       <c r="P121">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
         <v>1.85</v>
       </c>
-      <c r="S121">
-        <v>1.95</v>
-      </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11267,16 +11267,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800516</v>
+        <v>6800052</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,73 +11388,73 @@
         <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M123">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6800052</v>
+        <v>6800516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,73 +11477,73 @@
         <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7589426</v>
+        <v>7440288</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,13 +11652,13 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11667,25 +11667,25 @@
         <v>42</v>
       </c>
       <c r="K126">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M126">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N126">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P126">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R126">
         <v>1.9</v>
@@ -11694,16 +11694,16 @@
         <v>1.9</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>2.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,7 +11718,7 @@
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7440288</v>
+        <v>7589426</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,13 +11741,13 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11756,25 +11756,25 @@
         <v>42</v>
       </c>
       <c r="K127">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="L127">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N127">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="O127">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="Q127">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
         <v>1.9</v>
@@ -11783,16 +11783,16 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>0.04000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,7 +11807,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800520</v>
+        <v>6800053</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K128">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800519</v>
+        <v>6800054</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,49 +11919,49 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M129">
-        <v>2.375</v>
+        <v>19</v>
       </c>
       <c r="N129">
-        <v>2.55</v>
+        <v>1.142</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P129">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U129">
         <v>1.975</v>
@@ -11970,25 +11970,25 @@
         <v>1.825</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800054</v>
+        <v>6800517</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="M130">
-        <v>19</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="Q130">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6800517</v>
+        <v>6800519</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,55 +12097,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L131">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
         <v>2.375</v>
       </c>
       <c r="N131">
+        <v>2.55</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
         <v>2.5</v>
       </c>
-      <c r="O131">
-        <v>4</v>
-      </c>
-      <c r="P131">
-        <v>2.25</v>
-      </c>
       <c r="Q131">
         <v>0</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12154,16 +12154,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800053</v>
+        <v>6800520</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12364,7 +12364,7 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
         <v>36</v>
@@ -12545,7 +12545,7 @@
         <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12723,7 +12723,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12990,7 +12990,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13165,7 +13165,7 @@
         <v>45332.40625</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7721564</v>
+        <v>7721585</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,73 +13254,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7721585</v>
+        <v>7721564</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,73 +13343,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K145">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N145">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721586</v>
+        <v>7721608</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="L146">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="N146">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.925</v>
+      </c>
+      <c r="V146">
+        <v>1.875</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
         <v>2.25</v>
       </c>
-      <c r="R146">
-        <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.85</v>
-      </c>
-      <c r="T146">
-        <v>3.5</v>
-      </c>
-      <c r="U146">
-        <v>1.8</v>
-      </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
       <c r="Y146">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>31</v>
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7721608</v>
+        <v>7721586</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,76 +13610,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J148" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M148">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="N148">
+        <v>13</v>
+      </c>
+      <c r="O148">
+        <v>7.5</v>
+      </c>
+      <c r="P148">
+        <v>1.142</v>
+      </c>
+      <c r="Q148">
         <v>2.25</v>
       </c>
-      <c r="O148">
-        <v>3.25</v>
-      </c>
-      <c r="P148">
-        <v>2.9</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
       <c r="R148">
+        <v>1.95</v>
+      </c>
+      <c r="S148">
+        <v>1.85</v>
+      </c>
+      <c r="T148">
+        <v>3.5</v>
+      </c>
+      <c r="U148">
+        <v>1.8</v>
+      </c>
+      <c r="V148">
         <v>2</v>
       </c>
-      <c r="S148">
-        <v>1.8</v>
-      </c>
-      <c r="T148">
-        <v>2.5</v>
-      </c>
-      <c r="U148">
-        <v>1.925</v>
-      </c>
-      <c r="V148">
-        <v>1.875</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>45346.38541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -13877,10 +13877,10 @@
         <v>45346.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7721588</v>
+        <v>7721589</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,10 +13966,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13981,22 +13981,22 @@
         <v>42</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>2.35</v>
       </c>
       <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>2.45</v>
+      </c>
+      <c r="N152">
+        <v>2.375</v>
+      </c>
+      <c r="O152">
         <v>3.8</v>
       </c>
-      <c r="M152">
-        <v>1.7</v>
-      </c>
-      <c r="N152">
-        <v>2.55</v>
-      </c>
-      <c r="O152">
-        <v>3.2</v>
-      </c>
       <c r="P152">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -14008,16 +14008,16 @@
         <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>1.55</v>
+        <v>1.375</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14035,7 +14035,7 @@
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7721589</v>
+        <v>7721588</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,10 +14055,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14070,22 +14070,22 @@
         <v>42</v>
       </c>
       <c r="K153">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M153">
+        <v>1.7</v>
+      </c>
+      <c r="N153">
+        <v>2.55</v>
+      </c>
+      <c r="O153">
+        <v>3.2</v>
+      </c>
+      <c r="P153">
         <v>2.45</v>
-      </c>
-      <c r="N153">
-        <v>2.375</v>
-      </c>
-      <c r="O153">
-        <v>3.8</v>
-      </c>
-      <c r="P153">
-        <v>2.4</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -14097,16 +14097,16 @@
         <v>1.9</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>1.375</v>
+        <v>1.55</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14124,7 +14124,7 @@
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7721612</v>
+        <v>7721613</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,76 +14322,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L156">
+        <v>3.8</v>
+      </c>
+      <c r="M156">
+        <v>5</v>
+      </c>
+      <c r="N156">
+        <v>1.65</v>
+      </c>
+      <c r="O156">
         <v>3.6</v>
       </c>
-      <c r="M156">
-        <v>2.15</v>
-      </c>
-      <c r="N156">
-        <v>2.7</v>
-      </c>
-      <c r="O156">
-        <v>3.25</v>
-      </c>
       <c r="P156">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z156">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7721613</v>
+        <v>7721612</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,76 +14411,520 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K157">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N157">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="O157">
+        <v>3.25</v>
+      </c>
+      <c r="P157">
+        <v>2.3</v>
+      </c>
+      <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.75</v>
+      </c>
+      <c r="S157">
+        <v>2.05</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
+        <v>1.8</v>
+      </c>
+      <c r="V157">
+        <v>2</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>2.25</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.375</v>
+      </c>
+      <c r="AA157">
+        <v>-0.5</v>
+      </c>
+      <c r="AB157">
+        <v>-0.5</v>
+      </c>
+      <c r="AC157">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7721614</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
+      <c r="K158">
+        <v>2.4</v>
+      </c>
+      <c r="L158">
+        <v>3.5</v>
+      </c>
+      <c r="M158">
+        <v>2.4</v>
+      </c>
+      <c r="N158">
+        <v>2.4</v>
+      </c>
+      <c r="O158">
+        <v>3.5</v>
+      </c>
+      <c r="P158">
+        <v>2.4</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2.5</v>
+      </c>
+      <c r="U158">
+        <v>1.7</v>
+      </c>
+      <c r="V158">
+        <v>2.1</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7721591</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F159" t="s">
+        <v>37</v>
+      </c>
+      <c r="G159" t="s">
+        <v>30</v>
+      </c>
+      <c r="K159">
+        <v>4.333</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>1.571</v>
+      </c>
+      <c r="N159">
+        <v>4.2</v>
+      </c>
+      <c r="O159">
+        <v>4</v>
+      </c>
+      <c r="P159">
+        <v>1.6</v>
+      </c>
+      <c r="Q159">
+        <v>0.75</v>
+      </c>
+      <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
+        <v>1.775</v>
+      </c>
+      <c r="T159">
+        <v>3</v>
+      </c>
+      <c r="U159">
+        <v>1.8</v>
+      </c>
+      <c r="V159">
+        <v>2</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7721590</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F160" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
+        <v>36</v>
+      </c>
+      <c r="K160">
+        <v>1.8</v>
+      </c>
+      <c r="L160">
+        <v>3.5</v>
+      </c>
+      <c r="M160">
         <v>3.6</v>
       </c>
-      <c r="P157">
-        <v>4.333</v>
-      </c>
-      <c r="Q157">
-        <v>-0.75</v>
-      </c>
-      <c r="R157">
+      <c r="N160">
+        <v>1.666</v>
+      </c>
+      <c r="O160">
+        <v>3.6</v>
+      </c>
+      <c r="P160">
+        <v>4.2</v>
+      </c>
+      <c r="Q160">
+        <v>-0.5</v>
+      </c>
+      <c r="R160">
+        <v>1.725</v>
+      </c>
+      <c r="S160">
+        <v>2.075</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.775</v>
+      </c>
+      <c r="V160">
+        <v>2.025</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7721616</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45360.47916666666</v>
+      </c>
+      <c r="F161" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161">
+        <v>1.909</v>
+      </c>
+      <c r="L161">
+        <v>3.5</v>
+      </c>
+      <c r="M161">
+        <v>3.25</v>
+      </c>
+      <c r="N161">
+        <v>1.909</v>
+      </c>
+      <c r="O161">
+        <v>3.5</v>
+      </c>
+      <c r="P161">
+        <v>3.25</v>
+      </c>
+      <c r="Q161">
+        <v>-0.5</v>
+      </c>
+      <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
+        <v>2.5</v>
+      </c>
+      <c r="U161">
+        <v>1.7</v>
+      </c>
+      <c r="V161">
+        <v>2.1</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7721567</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45360.47916666666</v>
+      </c>
+      <c r="F162" t="s">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>39</v>
+      </c>
+      <c r="K162">
+        <v>2.4</v>
+      </c>
+      <c r="L162">
+        <v>3.5</v>
+      </c>
+      <c r="M162">
+        <v>2.4</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162">
+        <v>3.5</v>
+      </c>
+      <c r="P162">
+        <v>3.2</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>1.775</v>
+      </c>
+      <c r="S162">
+        <v>2.025</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
+        <v>1.825</v>
+      </c>
+      <c r="V162">
+        <v>1.975</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7721615</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45360.47916666666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" t="s">
+        <v>34</v>
+      </c>
+      <c r="K163">
+        <v>1.833</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>3.4</v>
+      </c>
+      <c r="N163">
+        <v>1.833</v>
+      </c>
+      <c r="O163">
+        <v>3.6</v>
+      </c>
+      <c r="P163">
+        <v>3.4</v>
+      </c>
+      <c r="Q163">
+        <v>-0.5</v>
+      </c>
+      <c r="R163">
+        <v>1.875</v>
+      </c>
+      <c r="S163">
+        <v>1.925</v>
+      </c>
+      <c r="T163">
+        <v>2.75</v>
+      </c>
+      <c r="U163">
+        <v>1.85</v>
+      </c>
+      <c r="V163">
         <v>1.95</v>
       </c>
-      <c r="S157">
-        <v>1.85</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
-      <c r="V157">
-        <v>1.875</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>3.333</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
-      <c r="AA157">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
-      <c r="AC157">
-        <v>0.875</v>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Aberystwyth</t>
+    <t>Bala Town</t>
   </si>
   <si>
-    <t>Bala Town</t>
+    <t>Aberystwyth</t>
   </si>
   <si>
     <t>Newtown</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6800424</v>
+        <v>6800425</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>1.615</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R4">
+        <v>1.85</v>
+      </c>
+      <c r="S4">
         <v>1.95</v>
       </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6800425</v>
+        <v>6800424</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>1.615</v>
       </c>
       <c r="N5">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
       </c>
-      <c r="S5">
-        <v>1.95</v>
-      </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -2132,7 +2132,7 @@
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6800440</v>
+        <v>6800021</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
+        <v>1.925</v>
+      </c>
+      <c r="V20">
         <v>1.875</v>
       </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.875</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6800841</v>
+        <v>6800441</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>1.615</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>1.083</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
-        <v>23</v>
+        <v>1.45</v>
       </c>
       <c r="O21">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>1.071</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800442</v>
+        <v>6800440</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N22">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
         <v>1.975</v>
       </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800441</v>
+        <v>6800841</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>17</v>
       </c>
       <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>1.083</v>
+      </c>
+      <c r="N23">
+        <v>23</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>1.071</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
         <v>4</v>
       </c>
-      <c r="M23">
-        <v>4.5</v>
-      </c>
-      <c r="N23">
-        <v>1.45</v>
-      </c>
-      <c r="O23">
-        <v>4.333</v>
-      </c>
-      <c r="P23">
-        <v>5.75</v>
-      </c>
-      <c r="Q23">
-        <v>-1</v>
-      </c>
-      <c r="R23">
-        <v>1.775</v>
-      </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z23">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800021</v>
+        <v>6800442</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
       </c>
       <c r="K24">
+        <v>1.833</v>
+      </c>
+      <c r="L24">
         <v>3.5</v>
       </c>
-      <c r="L24">
-        <v>3.75</v>
-      </c>
       <c r="M24">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>45167.66666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6800023</v>
+        <v>6800022</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>1.8</v>
       </c>
       <c r="N27">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>41</v>
+        <v>1.909</v>
       </c>
       <c r="Q27">
-        <v>-4.25</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6800022</v>
+        <v>6800023</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,73 +2930,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>1.8</v>
+        <v>26</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="P28">
-        <v>1.909</v>
+        <v>41</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>-4.25</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800444</v>
+        <v>6800445</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O29">
         <v>3.25</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6800445</v>
+        <v>6800444</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,73 +3197,73 @@
         <v>45171.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N31">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O31">
         <v>3.25</v>
       </c>
       <c r="P31">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3375,7 +3375,7 @@
         <v>45178.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -3731,7 +3731,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -3823,7 +3823,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6800453</v>
+        <v>6800026</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,55 +3909,55 @@
         <v>45185.4375</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>2</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>41</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N39">
         <v>1.5</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q39">
         <v>-1</v>
       </c>
       <c r="R39">
+        <v>1.95</v>
+      </c>
+      <c r="S39">
         <v>1.85</v>
-      </c>
-      <c r="S39">
-        <v>1.95</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
         <v>0.5</v>
@@ -3969,16 +3969,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6800452</v>
+        <v>6800027</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,58 +3998,58 @@
         <v>45185.4375</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.7</v>
+        <v>1.062</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="M40">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="N40">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>23</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U40">
+        <v>1.8</v>
+      </c>
+      <c r="V40">
         <v>2</v>
       </c>
-      <c r="V40">
-        <v>1.8</v>
-      </c>
       <c r="W40">
-        <v>0.5</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4058,13 +4058,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6800454</v>
+        <v>6800452</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
         <v>3.6</v>
       </c>
       <c r="M41">
+        <v>4.333</v>
+      </c>
+      <c r="N41">
+        <v>1.5</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <v>5.75</v>
+      </c>
+      <c r="Q41">
+        <v>-1</v>
+      </c>
+      <c r="R41">
+        <v>1.85</v>
+      </c>
+      <c r="S41">
+        <v>1.95</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
         <v>1.8</v>
       </c>
-      <c r="N41">
-        <v>3.3</v>
-      </c>
-      <c r="O41">
-        <v>3.5</v>
-      </c>
-      <c r="P41">
-        <v>1.95</v>
-      </c>
-      <c r="Q41">
+      <c r="W41">
         <v>0.5</v>
       </c>
-      <c r="R41">
-        <v>1.8</v>
-      </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.95</v>
-      </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
       <c r="X41">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6800026</v>
+        <v>6800453</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,55 +4176,55 @@
         <v>45185.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>41</v>
       </c>
       <c r="K42">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
         <v>1.5</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q42">
         <v>-1</v>
       </c>
       <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
-      </c>
-      <c r="S42">
-        <v>1.85</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
         <v>0.5</v>
@@ -4236,16 +4236,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6800027</v>
+        <v>6800454</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>1.062</v>
+        <v>3.8</v>
       </c>
       <c r="L43">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.09</v>
+        <v>3.3</v>
       </c>
       <c r="O43">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>23</v>
+        <v>1.95</v>
       </c>
       <c r="Q43">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6800458</v>
+        <v>6800457</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,40 +4532,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>4.8</v>
+        <v>2.875</v>
       </c>
       <c r="L46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N46">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.975</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4624,7 +4624,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6800457</v>
+        <v>6800458</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,40 +4710,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>43</v>
       </c>
       <c r="K48">
-        <v>2.875</v>
+        <v>4.8</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M48">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="O48">
         <v>4</v>
       </c>
       <c r="P48">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4767,7 +4767,7 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6800461</v>
+        <v>6800030</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>6</v>
+      </c>
+      <c r="M50">
+        <v>1.181</v>
+      </c>
+      <c r="N50">
+        <v>13</v>
+      </c>
+      <c r="O50">
+        <v>7.5</v>
+      </c>
+      <c r="P50">
+        <v>1.142</v>
+      </c>
+      <c r="Q50">
+        <v>2.5</v>
+      </c>
+      <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <v>1.95</v>
+      </c>
+      <c r="V50">
+        <v>1.85</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="Z50">
+        <v>0.8</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>41</v>
-      </c>
-      <c r="K50">
-        <v>1.333</v>
-      </c>
-      <c r="L50">
-        <v>5.25</v>
-      </c>
-      <c r="M50">
-        <v>5.75</v>
-      </c>
-      <c r="N50">
-        <v>1.3</v>
-      </c>
-      <c r="O50">
-        <v>5.5</v>
-      </c>
-      <c r="P50">
-        <v>6</v>
-      </c>
-      <c r="Q50">
-        <v>-1.5</v>
-      </c>
-      <c r="R50">
-        <v>1.925</v>
-      </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-      <c r="V50">
-        <v>1.8</v>
-      </c>
-      <c r="W50">
-        <v>0.3</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>-1</v>
-      </c>
-      <c r="AA50">
-        <v>0.875</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
       <c r="AC50">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6800462</v>
+        <v>6800461</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K51">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M51">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
         <v>1.875</v>
       </c>
-      <c r="S51">
-        <v>1.925</v>
-      </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800030</v>
+        <v>6800462</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,55 +5244,55 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>1</v>
-      </c>
-      <c r="I54">
-        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="L54">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="O54">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
+        <v>0.25</v>
+      </c>
+      <c r="R54">
+        <v>1.875</v>
+      </c>
+      <c r="S54">
+        <v>1.925</v>
+      </c>
+      <c r="T54">
         <v>2.5</v>
       </c>
-      <c r="R54">
-        <v>1.8</v>
-      </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="T54">
-        <v>4</v>
-      </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,19 +5301,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.1419999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,10 +5333,10 @@
         <v>45196.65625</v>
       </c>
       <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
         <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6800466</v>
+        <v>6800467</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,13 +5422,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>31</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5437,34 +5437,34 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>4.1</v>
+        <v>2.35</v>
       </c>
       <c r="N56">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
         <v>1.9</v>
@@ -5473,7 +5473,7 @@
         <v>1.9</v>
       </c>
       <c r="W56">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,16 +5482,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC56">
-        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6800031</v>
+        <v>6800466</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="N57">
-        <v>2.875</v>
+        <v>1.55</v>
       </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6800032</v>
+        <v>6800464</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>2.1</v>
       </c>
       <c r="N58">
-        <v>1.055</v>
+        <v>3.8</v>
       </c>
       <c r="O58">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>34</v>
+        <v>1.727</v>
       </c>
       <c r="Q58">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
+        <v>2.025</v>
+      </c>
+      <c r="S58">
+        <v>1.775</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
         <v>2</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.8</v>
       </c>
-      <c r="T58">
-        <v>4</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>1.875</v>
-      </c>
       <c r="W58">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
+        <v>1.025</v>
+      </c>
+      <c r="AA58">
+        <v>-1</v>
+      </c>
+      <c r="AB58">
         <v>1</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6800467</v>
+        <v>6800032</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,13 +5689,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5704,43 +5704,43 @@
         <v>41</v>
       </c>
       <c r="K59">
-        <v>2.55</v>
+        <v>1.05</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>2.35</v>
+        <v>29</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>1.055</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P59">
-        <v>2.75</v>
+        <v>34</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>1.15</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5749,16 +5749,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6800464</v>
+        <v>6800031</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
+        <v>2.2</v>
+      </c>
+      <c r="N60">
+        <v>2.875</v>
+      </c>
+      <c r="O60">
+        <v>3.4</v>
+      </c>
+      <c r="P60">
         <v>2.1</v>
       </c>
-      <c r="N60">
-        <v>3.8</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
-      <c r="P60">
-        <v>1.727</v>
-      </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>45205.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>37</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6800034</v>
+        <v>6800470</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>4</v>
-      </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="L65">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>1.285</v>
+        <v>4.75</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="O65">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="Q65">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800470</v>
+        <v>6800034</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,76 +6312,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M66">
-        <v>4.75</v>
+        <v>1.285</v>
       </c>
       <c r="N66">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P66">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6800475</v>
+        <v>6800472</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,58 +6490,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>41</v>
       </c>
       <c r="K68">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L68">
         <v>3.2</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="V68">
-        <v>1.95</v>
-      </c>
       <c r="W68">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,16 +6550,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
+        <v>-1</v>
+      </c>
+      <c r="AC68">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC68">
-        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6800036</v>
+        <v>6800475</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L70">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>2</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6800472</v>
+        <v>6800036</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,13 +6757,13 @@
         <v>45216.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6772,61 +6772,61 @@
         <v>41</v>
       </c>
       <c r="K71">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N71">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q71">
+        <v>-1.25</v>
+      </c>
+      <c r="R71">
+        <v>1.875</v>
+      </c>
+      <c r="S71">
+        <v>1.925</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
+        <v>1.775</v>
+      </c>
+      <c r="V71">
+        <v>2.025</v>
+      </c>
+      <c r="W71">
+        <v>0.363</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>0.875</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
         <v>0</v>
       </c>
-      <c r="R71">
-        <v>1.975</v>
-      </c>
-      <c r="S71">
-        <v>1.825</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.95</v>
-      </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
-      <c r="W71">
-        <v>1.6</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>-1</v>
-      </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6800038</v>
+        <v>6800477</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,58 +6935,58 @@
         <v>45220.4375</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
       </c>
       <c r="K73">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,16 +6995,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6800037</v>
+        <v>6800479</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,55 +7024,55 @@
         <v>45220.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="N74">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O74">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q74">
+        <v>1.25</v>
+      </c>
+      <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
         <v>2.75</v>
       </c>
-      <c r="R74">
-        <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>4</v>
-      </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7081,19 +7081,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6800477</v>
+        <v>6800038</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,58 +7113,58 @@
         <v>45220.4375</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>41</v>
       </c>
       <c r="K75">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7173,16 +7173,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6800479</v>
+        <v>6800037</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,55 +7202,55 @@
         <v>45220.4375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>1.166</v>
+      </c>
+      <c r="N76">
+        <v>13</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <v>1.1</v>
+      </c>
+      <c r="Q76">
+        <v>2.75</v>
+      </c>
+      <c r="R76">
+        <v>1.8</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
         <v>4</v>
       </c>
-      <c r="M76">
-        <v>1.571</v>
-      </c>
-      <c r="N76">
-        <v>6</v>
-      </c>
-      <c r="O76">
-        <v>4.75</v>
-      </c>
-      <c r="P76">
-        <v>1.4</v>
-      </c>
-      <c r="Q76">
-        <v>1.25</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.925</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7259,19 +7259,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.3999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6800041</v>
+        <v>6800486</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,73 +7914,73 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L84">
         <v>3.75</v>
       </c>
       <c r="M84">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N84">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
+        <v>1.95</v>
+      </c>
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6800485</v>
+        <v>6800041</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,56 +8092,56 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
         <v>43</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
+        <v>3.1</v>
+      </c>
+      <c r="N86">
+        <v>2.4</v>
+      </c>
+      <c r="O86">
+        <v>4</v>
+      </c>
+      <c r="P86">
+        <v>2.25</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
+        <v>1.825</v>
+      </c>
+      <c r="T86">
         <v>3</v>
       </c>
-      <c r="N86">
-        <v>1.65</v>
-      </c>
-      <c r="O86">
-        <v>3.5</v>
-      </c>
-      <c r="P86">
-        <v>4.333</v>
-      </c>
-      <c r="Q86">
-        <v>-0.75</v>
-      </c>
-      <c r="R86">
+      <c r="U86">
         <v>1.85</v>
       </c>
-      <c r="S86">
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.825</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
       <c r="W86">
         <v>-1</v>
       </c>
@@ -8149,19 +8149,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>3.333</v>
+        <v>1.25</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800486</v>
+        <v>6800485</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,40 +8181,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
         <v>1.85</v>
@@ -8226,31 +8226,31 @@
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8448,7 +8448,7 @@
         <v>45244.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8537,10 +8537,10 @@
         <v>45247.70833333334</v>
       </c>
       <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
         <v>31</v>
-      </c>
-      <c r="G91" t="s">
-        <v>32</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6800043</v>
+        <v>6800490</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+      <c r="K92">
         <v>2</v>
       </c>
-      <c r="I92">
-        <v>3</v>
-      </c>
-      <c r="J92" t="s">
-        <v>43</v>
-      </c>
-      <c r="K92">
-        <v>1.5</v>
-      </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O92">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
+        <v>1.925</v>
+      </c>
+      <c r="V92">
         <v>1.875</v>
       </c>
-      <c r="V92">
-        <v>1.925</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.875</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800490</v>
+        <v>6800489</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M93">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800491</v>
+        <v>6800043</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,13 +8804,13 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -8819,25 +8819,25 @@
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P94">
         <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8846,13 +8846,13 @@
         <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8870,10 +8870,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6800489</v>
+        <v>6800491</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,40 +8893,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8935,13 +8935,13 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8950,7 +8950,7 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
+        <v>0.5</v>
+      </c>
+      <c r="AC95">
         <v>-0.5</v>
-      </c>
-      <c r="AC95">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800495</v>
+        <v>6800046</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,10 +9071,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9086,61 +9086,61 @@
         <v>42</v>
       </c>
       <c r="K97">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800493</v>
+        <v>6800495</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
         <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800046</v>
+        <v>6800493</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N100">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
         <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X100">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>45258.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800497</v>
+        <v>6800498</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L103">
+        <v>4.2</v>
+      </c>
+      <c r="M103">
+        <v>6</v>
+      </c>
+      <c r="N103">
+        <v>1.4</v>
+      </c>
+      <c r="O103">
+        <v>4.2</v>
+      </c>
+      <c r="P103">
         <v>6.5</v>
       </c>
-      <c r="M103">
-        <v>9</v>
-      </c>
-      <c r="N103">
-        <v>1.166</v>
-      </c>
-      <c r="O103">
-        <v>7.5</v>
-      </c>
-      <c r="P103">
-        <v>10</v>
-      </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800498</v>
+        <v>6800048</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>4</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6800048</v>
+        <v>6800497</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,40 +9872,40 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M106">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="N106">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P106">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R106">
         <v>1.85</v>
@@ -9914,34 +9914,34 @@
         <v>1.95</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
+        <v>1.825</v>
+      </c>
+      <c r="V106">
         <v>1.975</v>
       </c>
-      <c r="V106">
-        <v>1.825</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800503</v>
+        <v>6800049</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.142</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="Q108">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>2.025</v>
+      </c>
+      <c r="S108">
         <v>1.775</v>
       </c>
-      <c r="S108">
-        <v>2.025</v>
-      </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800050</v>
+        <v>6800503</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,58 +10139,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>41</v>
       </c>
       <c r="K109">
-        <v>1.071</v>
+        <v>1.2</v>
       </c>
       <c r="L109">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="M109">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N109">
-        <v>1.083</v>
+        <v>1.142</v>
       </c>
       <c r="O109">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P109">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.95</v>
+      </c>
+      <c r="V109">
         <v>1.85</v>
       </c>
-      <c r="S109">
-        <v>1.95</v>
-      </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.975</v>
-      </c>
-      <c r="V109">
-        <v>1.825</v>
-      </c>
       <c r="W109">
-        <v>0.08299999999999996</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10199,16 +10199,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800049</v>
+        <v>6800050</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>1.071</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>26</v>
       </c>
       <c r="N110">
+        <v>1.083</v>
+      </c>
+      <c r="O110">
+        <v>9.5</v>
+      </c>
+      <c r="P110">
+        <v>26</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.85</v>
+      </c>
+      <c r="S110">
         <v>1.95</v>
       </c>
-      <c r="O110">
-        <v>3.3</v>
-      </c>
-      <c r="P110">
-        <v>3.25</v>
-      </c>
-      <c r="Q110">
-        <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>2.025</v>
-      </c>
-      <c r="S110">
-        <v>1.775</v>
-      </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>45276.59375</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6800512</v>
+        <v>6800051</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,49 +10495,49 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>41</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>1.083</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M113">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N113">
-        <v>1.909</v>
+        <v>1.071</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>21</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U113">
         <v>1.85</v>
@@ -10546,7 +10546,7 @@
         <v>1.95</v>
       </c>
       <c r="W113">
-        <v>0.909</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10555,16 +10555,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800505</v>
+        <v>6800512</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,7 +10673,7 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10682,40 +10682,40 @@
         <v>2</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L115">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N115">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="O115">
         <v>3.6</v>
       </c>
       <c r="P115">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
         <v>1.85</v>
@@ -10724,25 +10724,25 @@
         <v>1.95</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6800051</v>
+        <v>6800505</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,49 +10762,49 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>1.083</v>
+        <v>4.5</v>
       </c>
       <c r="L116">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="M116">
-        <v>17</v>
+        <v>1.615</v>
       </c>
       <c r="N116">
-        <v>1.071</v>
+        <v>3.25</v>
       </c>
       <c r="O116">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="Q116">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
         <v>1.85</v>
@@ -10813,25 +10813,25 @@
         <v>1.95</v>
       </c>
       <c r="W116">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800504</v>
+        <v>6800507</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,55 +10851,55 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>43</v>
       </c>
       <c r="K117">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N117">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10908,19 +10908,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800507</v>
+        <v>6800504</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,55 +10940,55 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>43</v>
       </c>
       <c r="K118">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N118">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -10997,19 +10997,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800514</v>
+        <v>6800513</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,43 +11121,43 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L120">
+        <v>3.5</v>
+      </c>
+      <c r="M120">
+        <v>1.95</v>
+      </c>
+      <c r="N120">
+        <v>4.2</v>
+      </c>
+      <c r="O120">
         <v>3.3</v>
       </c>
-      <c r="M120">
-        <v>3.2</v>
-      </c>
-      <c r="N120">
-        <v>2.375</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
       <c r="P120">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
         <v>2.25</v>
@@ -11169,25 +11169,25 @@
         <v>2.025</v>
       </c>
       <c r="W120">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800513</v>
+        <v>6800514</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,43 +11210,43 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T121">
         <v>2.25</v>
@@ -11258,25 +11258,25 @@
         <v>2.025</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X121">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC121">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>45296.70833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
         <v>34</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800053</v>
+        <v>6800518</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,40 +11830,40 @@
         <v>45304.59375</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
         <v>2.025</v>
@@ -11875,28 +11875,28 @@
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800519</v>
+        <v>6800054</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,49 +11919,49 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M129">
-        <v>2.375</v>
+        <v>19</v>
       </c>
       <c r="N129">
-        <v>2.55</v>
+        <v>1.142</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P129">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U129">
         <v>1.975</v>
@@ -11970,25 +11970,25 @@
         <v>1.825</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800518</v>
+        <v>6800517</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,55 +12008,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
         <v>43</v>
       </c>
       <c r="K130">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M130">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
+        <v>2.5</v>
+      </c>
+      <c r="O130">
+        <v>4</v>
+      </c>
+      <c r="P130">
         <v>2.25</v>
       </c>
-      <c r="O130">
-        <v>3.8</v>
-      </c>
-      <c r="P130">
-        <v>2.6</v>
-      </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12065,16 +12065,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6800517</v>
+        <v>6800520</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,55 +12097,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N131">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12154,19 +12154,19 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800054</v>
+        <v>6800519</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,49 +12186,49 @@
         <v>45304.59375</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
         <v>3</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="L132">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>19</v>
+        <v>2.375</v>
       </c>
       <c r="N132">
-        <v>1.142</v>
+        <v>2.55</v>
       </c>
       <c r="O132">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
         <v>1.975</v>
@@ -12237,25 +12237,25 @@
         <v>1.825</v>
       </c>
       <c r="W132">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800520</v>
+        <v>6800053</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>42</v>
+      </c>
+      <c r="K133">
+        <v>2.3</v>
+      </c>
+      <c r="L133">
+        <v>3.4</v>
+      </c>
+      <c r="M133">
+        <v>2.75</v>
+      </c>
+      <c r="N133">
+        <v>2.75</v>
+      </c>
+      <c r="O133">
+        <v>3.4</v>
+      </c>
+      <c r="P133">
+        <v>2.4</v>
+      </c>
+      <c r="Q133">
         <v>0</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="J133" t="s">
-        <v>43</v>
-      </c>
-      <c r="K133">
-        <v>3.5</v>
-      </c>
-      <c r="L133">
-        <v>3.75</v>
-      </c>
-      <c r="M133">
-        <v>1.85</v>
-      </c>
-      <c r="N133">
-        <v>3.2</v>
-      </c>
-      <c r="O133">
-        <v>3.75</v>
-      </c>
-      <c r="P133">
-        <v>1.95</v>
-      </c>
-      <c r="Q133">
-        <v>0.5</v>
-      </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>45324.70833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12720,7 +12720,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>38</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7721605</v>
+        <v>7721583</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M140">
-        <v>3.25</v>
+        <v>1.3</v>
       </c>
       <c r="N140">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7721583</v>
+        <v>7721605</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="N141">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y141">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>45331.70833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7721564</v>
+        <v>7721585</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,73 +13254,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7721585</v>
+        <v>7721564</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,73 +13343,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K145">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N145">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721586</v>
+        <v>7721608</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="L146">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="N146">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.925</v>
+      </c>
+      <c r="V146">
+        <v>1.875</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
         <v>2.25</v>
       </c>
-      <c r="R146">
-        <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.85</v>
-      </c>
-      <c r="T146">
-        <v>3.5</v>
-      </c>
-      <c r="U146">
-        <v>1.8</v>
-      </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
       <c r="Y146">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7721609</v>
+        <v>7721586</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,76 +13521,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="L147">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>1.142</v>
       </c>
       <c r="N147">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P147">
-        <v>6</v>
+        <v>1.142</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>2.25</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7721608</v>
+        <v>7721609</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,10 +13610,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13625,61 +13625,61 @@
         <v>42</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M148">
+        <v>5</v>
+      </c>
+      <c r="N148">
+        <v>1.4</v>
+      </c>
+      <c r="O148">
+        <v>4.2</v>
+      </c>
+      <c r="P148">
+        <v>6</v>
+      </c>
+      <c r="Q148">
+        <v>-1.25</v>
+      </c>
+      <c r="R148">
+        <v>1.925</v>
+      </c>
+      <c r="S148">
+        <v>1.875</v>
+      </c>
+      <c r="T148">
         <v>2.75</v>
       </c>
-      <c r="N148">
-        <v>2.25</v>
-      </c>
-      <c r="O148">
-        <v>3.25</v>
-      </c>
-      <c r="P148">
-        <v>2.9</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>2</v>
-      </c>
-      <c r="S148">
-        <v>1.8</v>
-      </c>
-      <c r="T148">
-        <v>2.5</v>
-      </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13791,7 +13791,7 @@
         <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7721588</v>
+        <v>7721589</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,10 +13966,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13981,22 +13981,22 @@
         <v>41</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>2.35</v>
       </c>
       <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>2.45</v>
+      </c>
+      <c r="N152">
+        <v>2.375</v>
+      </c>
+      <c r="O152">
         <v>3.8</v>
       </c>
-      <c r="M152">
-        <v>1.7</v>
-      </c>
-      <c r="N152">
-        <v>2.55</v>
-      </c>
-      <c r="O152">
-        <v>3.2</v>
-      </c>
       <c r="P152">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -14008,16 +14008,16 @@
         <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>1.55</v>
+        <v>1.375</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14035,7 +14035,7 @@
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7721589</v>
+        <v>7721588</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,10 +14055,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14070,22 +14070,22 @@
         <v>41</v>
       </c>
       <c r="K153">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M153">
+        <v>1.7</v>
+      </c>
+      <c r="N153">
+        <v>2.55</v>
+      </c>
+      <c r="O153">
+        <v>3.2</v>
+      </c>
+      <c r="P153">
         <v>2.45</v>
-      </c>
-      <c r="N153">
-        <v>2.375</v>
-      </c>
-      <c r="O153">
-        <v>3.8</v>
-      </c>
-      <c r="P153">
-        <v>2.4</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -14097,16 +14097,16 @@
         <v>1.9</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>1.375</v>
+        <v>1.55</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14124,7 +14124,7 @@
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7721612</v>
+        <v>7721613</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,76 +14322,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L156">
+        <v>3.8</v>
+      </c>
+      <c r="M156">
+        <v>5</v>
+      </c>
+      <c r="N156">
+        <v>1.65</v>
+      </c>
+      <c r="O156">
         <v>3.6</v>
       </c>
-      <c r="M156">
-        <v>2.15</v>
-      </c>
-      <c r="N156">
-        <v>2.7</v>
-      </c>
-      <c r="O156">
-        <v>3.25</v>
-      </c>
       <c r="P156">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z156">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7721613</v>
+        <v>7721612</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,76 +14411,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K157">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N157">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y157">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>36</v>
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7721614</v>
+        <v>7721591</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,55 +14589,55 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J159" t="s">
         <v>43</v>
       </c>
       <c r="K159">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N159">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R159">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14646,19 +14646,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7721591</v>
+        <v>7721614</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
         <v>1</v>
-      </c>
-      <c r="I160">
-        <v>5</v>
       </c>
       <c r="J160" t="s">
         <v>43</v>
       </c>
       <c r="K160">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N160">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P160">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q160">
+        <v>0.25</v>
+      </c>
+      <c r="R160">
+        <v>1.75</v>
+      </c>
+      <c r="S160">
+        <v>2.05</v>
+      </c>
+      <c r="T160">
+        <v>2.25</v>
+      </c>
+      <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
+        <v>1.95</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
         <v>1.25</v>
       </c>
-      <c r="R160">
-        <v>1.85</v>
-      </c>
-      <c r="S160">
-        <v>1.95</v>
-      </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>1.925</v>
-      </c>
-      <c r="V160">
-        <v>1.875</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
+        <v>1.05</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.95</v>
-      </c>
-      <c r="AB160">
-        <v>0.925</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7721592</v>
+        <v>7721617</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,49 +14945,49 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>41</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M163">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N163">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P163">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q163">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
         <v>2</v>
@@ -14996,7 +14996,7 @@
         <v>1.8</v>
       </c>
       <c r="W163">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15005,7 +15005,7 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7721617</v>
+        <v>7721592</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,49 +15034,49 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>41</v>
       </c>
       <c r="K164">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L164">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N164">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="O164">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
         <v>2</v>
@@ -15085,7 +15085,7 @@
         <v>1.8</v>
       </c>
       <c r="W164">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15094,7 +15094,7 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA164">
         <v>-1</v>
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7721593</v>
+        <v>7721568</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,10 +15123,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15138,25 +15138,25 @@
         <v>43</v>
       </c>
       <c r="K165">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="L165">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="O165">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="Q165">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
         <v>1.85</v>
@@ -15165,13 +15165,13 @@
         <v>1.95</v>
       </c>
       <c r="T165">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15180,19 +15180,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.1659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7721618</v>
+        <v>7721593</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,76 +15212,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K166">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="L166">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="N166">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P166">
-        <v>5.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q166">
-        <v>-1.25</v>
+        <v>2.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U166">
+        <v>1.875</v>
+      </c>
+      <c r="V166">
         <v>1.925</v>
       </c>
-      <c r="V166">
-        <v>1.875</v>
-      </c>
       <c r="W166">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
+        <v>-1</v>
+      </c>
+      <c r="AC166">
         <v>0.925</v>
-      </c>
-      <c r="AC166">
-        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15289,7 +15289,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7721568</v>
+        <v>7721618</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15301,76 +15301,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H167">
+        <v>5</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K167">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15460,6 +15460,95 @@
       </c>
       <c r="AC168">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7997142</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45374.47916666666</v>
+      </c>
+      <c r="F169" t="s">
+        <v>36</v>
+      </c>
+      <c r="G169" t="s">
+        <v>38</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>43</v>
+      </c>
+      <c r="K169">
+        <v>2.1</v>
+      </c>
+      <c r="L169">
+        <v>3.5</v>
+      </c>
+      <c r="M169">
+        <v>2.8</v>
+      </c>
+      <c r="N169">
+        <v>1.75</v>
+      </c>
+      <c r="O169">
+        <v>3.75</v>
+      </c>
+      <c r="P169">
+        <v>3.6</v>
+      </c>
+      <c r="Q169">
+        <v>-0.5</v>
+      </c>
+      <c r="R169">
+        <v>1.8</v>
+      </c>
+      <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
+        <v>1.85</v>
+      </c>
+      <c r="V169">
+        <v>1.95</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>2.6</v>
+      </c>
+      <c r="Z169">
+        <v>-1</v>
+      </c>
+      <c r="AA169">
+        <v>1</v>
+      </c>
+      <c r="AB169">
+        <v>0.425</v>
+      </c>
+      <c r="AC169">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Bala Town</t>
+    <t>Aberystwyth</t>
   </si>
   <si>
-    <t>Aberystwyth</t>
+    <t>Bala Town</t>
   </si>
   <si>
     <t>Newtown</t>
@@ -121,19 +121,19 @@
     <t>Colwyn Bay</t>
   </si>
   <si>
+    <t>Connahs Quay</t>
+  </si>
+  <si>
     <t>Penybont</t>
   </si>
   <si>
     <t>Caernarfon Town</t>
   </si>
   <si>
-    <t>Connahs Quay</t>
+    <t>Pontypridd Town</t>
   </si>
   <si>
     <t>Cardiff MU</t>
-  </si>
-  <si>
-    <t>Pontypridd Town</t>
   </si>
   <si>
     <t>Barry Town</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6800425</v>
+        <v>6800424</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>1.615</v>
       </c>
       <c r="N4">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
         <v>1.85</v>
       </c>
-      <c r="S4">
-        <v>1.95</v>
-      </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6800424</v>
+        <v>6800425</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M5">
-        <v>1.615</v>
+        <v>9</v>
       </c>
       <c r="N5">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
       </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6800428</v>
+        <v>6800427</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1165,22 +1165,22 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q8">
         <v>-1.25</v>
@@ -1195,13 +1195,13 @@
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,10 +1216,10 @@
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6800017</v>
+        <v>6800428</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,55 +1242,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
       <c r="W9">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6800427</v>
+        <v>6800017</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,55 +1331,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6800430</v>
+        <v>6800018</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,73 +1420,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>2.05</v>
+        <v>1.02</v>
       </c>
       <c r="N11">
-        <v>2.625</v>
+        <v>41</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="P11">
-        <v>2.25</v>
+        <v>1.025</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6800018</v>
+        <v>6800430</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.02</v>
+        <v>2.05</v>
       </c>
       <c r="N12">
-        <v>41</v>
+        <v>2.625</v>
       </c>
       <c r="O12">
-        <v>19</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.025</v>
+        <v>2.25</v>
       </c>
       <c r="Q12">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
-        <v>0.02499999999999991</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6800432</v>
+        <v>6800431</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,67 +1684,67 @@
         <v>45163.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N14">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
+        <v>2.4</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
         <v>1.85</v>
-      </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>1.975</v>
       </c>
       <c r="T14">
         <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1753,7 +1753,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6800431</v>
+        <v>6800432</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,67 +1773,67 @@
         <v>45163.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
         <v>2.5</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1842,7 +1842,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6800020</v>
+        <v>6800019</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,40 +1862,40 @@
         <v>45164.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1.055</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>29</v>
+        <v>2.7</v>
       </c>
       <c r="Q16">
-        <v>-3.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
         <v>1.925</v>
@@ -1904,34 +1904,34 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6800019</v>
+        <v>6800437</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.475</v>
+      </c>
+      <c r="AA17">
         <v>-0.5</v>
       </c>
-      <c r="AA17">
-        <v>0.4375</v>
-      </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6800437</v>
+        <v>6800020</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>1.04</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>41</v>
+      </c>
+      <c r="N18">
+        <v>1.055</v>
+      </c>
+      <c r="O18">
+        <v>12</v>
+      </c>
+      <c r="P18">
+        <v>29</v>
+      </c>
+      <c r="Q18">
+        <v>-3.25</v>
+      </c>
+      <c r="R18">
+        <v>1.925</v>
+      </c>
+      <c r="S18">
+        <v>1.875</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>1.8</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>11</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.875</v>
+      </c>
+      <c r="AB18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>1.727</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.8</v>
-      </c>
-      <c r="N18">
-        <v>1.7</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>4.333</v>
-      </c>
-      <c r="Q18">
-        <v>-0.75</v>
-      </c>
-      <c r="R18">
-        <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
-      <c r="W18">
-        <v>0.7</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.475</v>
-      </c>
-      <c r="AA18">
-        <v>-0.5</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6800441</v>
+        <v>6800442</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N21">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="O21">
+        <v>3.5</v>
+      </c>
+      <c r="P21">
         <v>4.333</v>
       </c>
-      <c r="P21">
-        <v>5.75</v>
-      </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
+        <v>1.975</v>
+      </c>
+      <c r="S21">
+        <v>1.825</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
         <v>1.775</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>2.025</v>
       </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
       <c r="W21">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800442</v>
+        <v>6800441</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,73 +2577,73 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N24">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,10 +2663,10 @@
         <v>45167.66666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2841,10 +2841,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800445</v>
+        <v>6800446</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
+        <v>3.4</v>
+      </c>
+      <c r="M29">
+        <v>2.75</v>
+      </c>
+      <c r="N29">
+        <v>2.05</v>
+      </c>
+      <c r="O29">
+        <v>3.4</v>
+      </c>
+      <c r="P29">
         <v>3.2</v>
       </c>
-      <c r="M29">
-        <v>2.625</v>
-      </c>
-      <c r="N29">
-        <v>2.7</v>
-      </c>
-      <c r="O29">
-        <v>3.25</v>
-      </c>
-      <c r="P29">
-        <v>2.4</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
+        <v>1.95</v>
+      </c>
+      <c r="V29">
         <v>1.85</v>
       </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB29">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6800446</v>
+        <v>6800445</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>2.375</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>2.625</v>
+      </c>
+      <c r="N30">
+        <v>2.7</v>
+      </c>
+      <c r="O30">
+        <v>3.25</v>
+      </c>
+      <c r="P30">
+        <v>2.4</v>
+      </c>
+      <c r="Q30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>2.2</v>
-      </c>
-      <c r="L30">
-        <v>3.4</v>
-      </c>
-      <c r="M30">
-        <v>2.75</v>
-      </c>
-      <c r="N30">
-        <v>2.05</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.2</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
         <v>1.95</v>
       </c>
-      <c r="V30">
-        <v>1.85</v>
-      </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,10 +3197,10 @@
         <v>45171.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3286,10 +3286,10 @@
         <v>45177.65625</v>
       </c>
       <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
         <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6800024</v>
+        <v>6800449</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,13 +3375,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -3390,40 +3390,40 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3432,16 +3432,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6800450</v>
+        <v>6800448</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,46 +3464,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
         <v>35</v>
       </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>43</v>
       </c>
       <c r="K34">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N34">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q34">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
         <v>2.75</v>
@@ -3521,19 +3521,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>7</v>
+        <v>0.55</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6800449</v>
+        <v>6800024</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,13 +3553,13 @@
         <v>45178.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -3568,40 +3568,40 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3610,16 +3610,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6800448</v>
+        <v>6800450</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,46 +3642,46 @@
         <v>45178.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
       </c>
       <c r="J36" t="s">
         <v>43</v>
       </c>
       <c r="K36">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N36">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P36">
-        <v>1.55</v>
+        <v>8</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.75</v>
@@ -3699,19 +3699,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.55</v>
+        <v>7</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
+        <v>0.8</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.95</v>
-      </c>
-      <c r="AB36">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -3823,7 +3823,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6800026</v>
+        <v>6800454</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39">
+        <v>3.8</v>
+      </c>
+      <c r="L39">
+        <v>3.6</v>
+      </c>
+      <c r="M39">
+        <v>1.8</v>
+      </c>
+      <c r="N39">
+        <v>3.3</v>
+      </c>
+      <c r="O39">
+        <v>3.5</v>
+      </c>
+      <c r="P39">
+        <v>1.95</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
+      </c>
+      <c r="R39">
+        <v>1.8</v>
+      </c>
+      <c r="S39">
         <v>2</v>
       </c>
-      <c r="J39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39">
-        <v>1.6</v>
-      </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-      <c r="M39">
-        <v>4.5</v>
-      </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>4.2</v>
-      </c>
-      <c r="P39">
-        <v>5</v>
-      </c>
-      <c r="Q39">
-        <v>-1</v>
-      </c>
-      <c r="R39">
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
         <v>1.95</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.825</v>
-      </c>
-      <c r="V39">
-        <v>1.975</v>
-      </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6800452</v>
+        <v>6800453</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,13 +4087,13 @@
         <v>45185.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
         <v>4.333</v>
@@ -4117,7 +4117,7 @@
         <v>4</v>
       </c>
       <c r="P41">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q41">
         <v>-1</v>
@@ -4132,10 +4132,10 @@
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
         <v>0.5</v>
@@ -4153,10 +4153,10 @@
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6800453</v>
+        <v>6800026</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,55 +4176,55 @@
         <v>45185.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
         <v>2</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>41</v>
       </c>
       <c r="K42">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N42">
         <v>1.5</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P42">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q42">
         <v>-1</v>
       </c>
       <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
         <v>1.85</v>
-      </c>
-      <c r="S42">
-        <v>1.95</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>0.5</v>
@@ -4236,16 +4236,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6800454</v>
+        <v>6800452</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45185.4375</v>
       </c>
       <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
         <v>39</v>
       </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
+        <v>4.333</v>
+      </c>
+      <c r="N43">
+        <v>1.5</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>5.75</v>
+      </c>
+      <c r="Q43">
+        <v>-1</v>
+      </c>
+      <c r="R43">
+        <v>1.85</v>
+      </c>
+      <c r="S43">
+        <v>1.95</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
         <v>1.8</v>
       </c>
-      <c r="N43">
-        <v>3.3</v>
-      </c>
-      <c r="O43">
-        <v>3.5</v>
-      </c>
-      <c r="P43">
-        <v>1.95</v>
-      </c>
-      <c r="Q43">
+      <c r="W43">
         <v>0.5</v>
       </c>
-      <c r="R43">
-        <v>1.8</v>
-      </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
-      <c r="U43">
-        <v>1.95</v>
-      </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4443,10 +4443,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6800457</v>
+        <v>6800456</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,73 +4532,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="N46">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6800456</v>
+        <v>6800457</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45192.4375</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="N47">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="Q47">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
+        <v>0.825</v>
+      </c>
+      <c r="AB47">
         <v>0.875</v>
-      </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4713,7 +4713,7 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4799,10 +4799,10 @@
         <v>45192.55208333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6800461</v>
+        <v>6800462</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L51">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="N51">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6800459</v>
+        <v>6800461</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,61 +5155,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N53">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X53">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5218,13 +5218,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800462</v>
+        <v>6800459</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,73 +5247,73 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,10 +5333,10 @@
         <v>45196.65625</v>
       </c>
       <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6800467</v>
+        <v>6800031</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="L56">
         <v>3.4</v>
       </c>
       <c r="M56">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6800466</v>
+        <v>6800032</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,13 +5511,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5526,43 +5526,43 @@
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>4.1</v>
+        <v>29</v>
       </c>
       <c r="N57">
-        <v>1.55</v>
+        <v>1.055</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P57">
-        <v>5.25</v>
+        <v>34</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-3.25</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>0.55</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5603,7 +5603,7 @@
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6800032</v>
+        <v>6800466</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,13 +5689,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5704,43 +5704,43 @@
         <v>41</v>
       </c>
       <c r="K59">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>4.1</v>
       </c>
       <c r="N59">
-        <v>1.055</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>34</v>
+        <v>5.25</v>
       </c>
       <c r="Q59">
-        <v>-3.25</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T59">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>0.05499999999999994</v>
+        <v>0.55</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5749,16 +5749,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6800031</v>
+        <v>6800467</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="L60">
         <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="N60">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,10 +5867,10 @@
         <v>45199.55208333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -5956,7 +5956,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -6045,10 +6045,10 @@
         <v>45205.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6137,7 +6137,7 @@
         <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -6223,7 +6223,7 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6312,7 +6312,7 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -6401,7 +6401,7 @@
         <v>45206.55208333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6800472</v>
+        <v>6800473</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,58 +6490,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>41</v>
       </c>
       <c r="K68">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N68">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
-        <v>1.6</v>
+        <v>1.875</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,16 +6550,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6800473</v>
+        <v>6800472</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" t="s">
         <v>38</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>1.875</v>
+        <v>1.6</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,16 +6639,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6757,10 +6757,10 @@
         <v>45216.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6846,10 +6846,10 @@
         <v>45217.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6800477</v>
+        <v>6800479</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,46 +6935,46 @@
         <v>45220.4375</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2.75</v>
@@ -6986,25 +6986,25 @@
         <v>1.875</v>
       </c>
       <c r="W73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC73">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6800479</v>
+        <v>6800477</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,46 +7024,46 @@
         <v>45220.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="L74">
+        <v>3.75</v>
+      </c>
+      <c r="M74">
         <v>4</v>
       </c>
-      <c r="M74">
-        <v>1.571</v>
-      </c>
       <c r="N74">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2.75</v>
@@ -7075,25 +7075,25 @@
         <v>1.875</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,10 +7113,10 @@
         <v>45220.4375</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6800039</v>
+        <v>6800480</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45226.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>1.925</v>
+      </c>
+      <c r="S77">
         <v>1.875</v>
       </c>
-      <c r="S77">
-        <v>1.925</v>
-      </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.875</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6800480</v>
+        <v>6800039</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,73 +7383,73 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
+        <v>1.444</v>
+      </c>
+      <c r="L78">
+        <v>4.5</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
         <v>1.333</v>
       </c>
-      <c r="L78">
-        <v>4.8</v>
-      </c>
-      <c r="M78">
+      <c r="O78">
+        <v>5</v>
+      </c>
+      <c r="P78">
         <v>6.5</v>
       </c>
-      <c r="N78">
-        <v>1.4</v>
-      </c>
-      <c r="O78">
-        <v>4.333</v>
-      </c>
-      <c r="P78">
-        <v>5.75</v>
-      </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
         <v>1.925</v>
       </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,10 +7469,10 @@
         <v>45227.4375</v>
       </c>
       <c r="F79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s">
         <v>39</v>
-      </c>
-      <c r="G79" t="s">
-        <v>38</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7739,7 +7739,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6800486</v>
+        <v>6800041</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,73 +7914,73 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
         <v>3.75</v>
       </c>
       <c r="M84">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
         <v>1.85</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.95</v>
       </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
       <c r="W84">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.825</v>
+      </c>
+      <c r="AB84">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
-      <c r="AB84">
-        <v>0.95</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6800042</v>
+        <v>6800485</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,56 +8003,56 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>1.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q85">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.825</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
       </c>
-      <c r="S85">
-        <v>1.825</v>
-      </c>
-      <c r="T85">
-        <v>3.25</v>
-      </c>
-      <c r="U85">
-        <v>1.85</v>
-      </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
         <v>-1</v>
       </c>
@@ -8060,19 +8060,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.3</v>
+        <v>3.333</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6800041</v>
+        <v>6800484</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>4.75</v>
+      </c>
+      <c r="N86">
+        <v>1.533</v>
+      </c>
+      <c r="O86">
         <v>3.75</v>
       </c>
-      <c r="M86">
-        <v>3.1</v>
-      </c>
-      <c r="N86">
-        <v>2.4</v>
-      </c>
-      <c r="O86">
-        <v>4</v>
-      </c>
       <c r="P86">
+        <v>6.5</v>
+      </c>
+      <c r="Q86">
+        <v>-1</v>
+      </c>
+      <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
         <v>2.25</v>
       </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.975</v>
-      </c>
-      <c r="S86">
-        <v>1.825</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y86">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800485</v>
+        <v>6800042</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,56 +8181,56 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>43</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N87">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P87">
-        <v>4.333</v>
+        <v>1.3</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
+        <v>1.825</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
         <v>1.85</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
@@ -8238,19 +8238,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>3.333</v>
+        <v>0.3</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.825</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.95</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6800484</v>
+        <v>6800486</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N89">
+        <v>5.25</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
         <v>1.533</v>
       </c>
-      <c r="O89">
-        <v>3.75</v>
-      </c>
-      <c r="P89">
-        <v>6.5</v>
-      </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
         <v>1.95</v>
       </c>
-      <c r="S89">
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>1.775</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X89">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>45244.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8537,10 +8537,10 @@
         <v>45247.70833333334</v>
       </c>
       <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
         <v>32</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,7 +8626,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>33</v>
@@ -8715,7 +8715,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800043</v>
+        <v>6800491</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,13 +8804,13 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -8819,25 +8819,25 @@
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N94">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
         <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8846,13 +8846,13 @@
         <v>1.9</v>
       </c>
       <c r="T94">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8870,10 +8870,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6800491</v>
+        <v>6800043</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,13 +8893,13 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>3</v>
@@ -8908,25 +8908,25 @@
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N95">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
         <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8935,13 +8935,13 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9071,10 +9071,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9163,7 +9163,7 @@
         <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800492</v>
+        <v>6800493</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="L99">
         <v>3.75</v>
       </c>
       <c r="M99">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
+        <v>1.775</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.8</v>
       </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800493</v>
+        <v>6800492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>45258.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800498</v>
+        <v>6800496</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,10 +9605,10 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -9623,37 +9623,37 @@
         <v>1.444</v>
       </c>
       <c r="L103">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N103">
         <v>1.4</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q103">
         <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>0.3999999999999999</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800048</v>
+        <v>6800497</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,40 +9694,40 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M104">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R104">
         <v>1.85</v>
@@ -9736,34 +9736,34 @@
         <v>1.95</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
         <v>1.975</v>
       </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800496</v>
+        <v>6800048</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,73 +9786,73 @@
         <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N105">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O105">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
         <v>1.975</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2</v>
-      </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6800497</v>
+        <v>6800498</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L106">
+        <v>4.2</v>
+      </c>
+      <c r="M106">
+        <v>6</v>
+      </c>
+      <c r="N106">
+        <v>1.4</v>
+      </c>
+      <c r="O106">
+        <v>4.2</v>
+      </c>
+      <c r="P106">
         <v>6.5</v>
       </c>
-      <c r="M106">
-        <v>9</v>
-      </c>
-      <c r="N106">
-        <v>1.166</v>
-      </c>
-      <c r="O106">
-        <v>7.5</v>
-      </c>
-      <c r="P106">
-        <v>10</v>
-      </c>
       <c r="Q106">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9961,10 +9961,10 @@
         <v>45262.59375</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800049</v>
+        <v>6800503</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N108">
+        <v>1.142</v>
+      </c>
+      <c r="O108">
+        <v>7</v>
+      </c>
+      <c r="P108">
+        <v>13</v>
+      </c>
+      <c r="Q108">
+        <v>-2</v>
+      </c>
+      <c r="R108">
+        <v>1.775</v>
+      </c>
+      <c r="S108">
+        <v>2.025</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
         <v>1.95</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>3.25</v>
-      </c>
-      <c r="Q108">
-        <v>-0.5</v>
-      </c>
-      <c r="R108">
-        <v>2.025</v>
-      </c>
-      <c r="S108">
-        <v>1.775</v>
-      </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.8</v>
-      </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800503</v>
+        <v>6800050</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,58 +10139,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>41</v>
       </c>
       <c r="K109">
-        <v>1.2</v>
+        <v>1.071</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="M109">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N109">
-        <v>1.142</v>
+        <v>1.083</v>
       </c>
       <c r="O109">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P109">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q109">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.1419999999999999</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10199,16 +10199,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800050</v>
+        <v>6800049</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>1.071</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>26</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.083</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,10 +10317,10 @@
         <v>45276.59375</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6800051</v>
+        <v>6800507</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>2</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.083</v>
+        <v>3.3</v>
       </c>
       <c r="L113">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N113">
-        <v>1.071</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="Q113">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6800506</v>
+        <v>6800512</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,10 +10584,10 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10599,19 +10599,19 @@
         <v>41</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N114">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
         <v>3.6</v>
@@ -10620,22 +10620,22 @@
         <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.925</v>
+      </c>
+      <c r="S114">
+        <v>1.875</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>1.85</v>
+      </c>
+      <c r="V114">
         <v>1.95</v>
       </c>
-      <c r="S114">
-        <v>1.85</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
-      <c r="V114">
-        <v>2</v>
-      </c>
       <c r="W114">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10644,16 +10644,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC114">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6800512</v>
+        <v>6800506</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,10 +10673,10 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10688,19 +10688,19 @@
         <v>41</v>
       </c>
       <c r="K115">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
+        <v>3.5</v>
+      </c>
+      <c r="M115">
         <v>4</v>
       </c>
-      <c r="M115">
-        <v>2.25</v>
-      </c>
       <c r="N115">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
         <v>3.6</v>
@@ -10709,22 +10709,22 @@
         <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10733,16 +10733,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800507</v>
+        <v>6800504</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,55 +10851,55 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>43</v>
       </c>
       <c r="K117">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N117">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10908,19 +10908,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800504</v>
+        <v>6800051</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.083</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M118">
-        <v>2.625</v>
+        <v>17</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>1.071</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>21</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6800515</v>
+        <v>6800513</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,55 +11029,55 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>42</v>
       </c>
       <c r="K119">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O119">
         <v>3.3</v>
       </c>
       <c r="P119">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
         <v>1.85</v>
       </c>
-      <c r="S119">
-        <v>1.95</v>
-      </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11089,16 +11089,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800513</v>
+        <v>6800514</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,43 +11121,43 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M120">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
         <v>2.25</v>
@@ -11169,25 +11169,25 @@
         <v>2.025</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X120">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC120">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800514</v>
+        <v>6800515</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,76 +11207,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
+        <v>3.2</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
         <v>2.05</v>
       </c>
-      <c r="L121">
+      <c r="N121">
+        <v>2.45</v>
+      </c>
+      <c r="O121">
         <v>3.3</v>
       </c>
-      <c r="M121">
-        <v>3.2</v>
-      </c>
-      <c r="N121">
-        <v>2.375</v>
-      </c>
-      <c r="O121">
-        <v>3.2</v>
-      </c>
       <c r="P121">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>45291.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>34</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800052</v>
+        <v>6800516</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>4</v>
-      </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K123">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L123">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6800516</v>
+        <v>6800052</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,73 +11477,73 @@
         <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N124">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>45296.70833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>34</v>
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7440288</v>
+        <v>7589426</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,13 +11652,13 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11667,25 +11667,25 @@
         <v>41</v>
       </c>
       <c r="K126">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="L126">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="O126">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="Q126">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
         <v>1.9</v>
@@ -11694,16 +11694,16 @@
         <v>1.9</v>
       </c>
       <c r="T126">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.04000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,7 +11718,7 @@
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7589426</v>
+        <v>7440288</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,13 +11741,13 @@
         <v>45297.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11756,25 +11756,25 @@
         <v>41</v>
       </c>
       <c r="K127">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N127">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P127">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="Q127">
-        <v>0.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R127">
         <v>1.9</v>
@@ -11783,16 +11783,16 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>2.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,7 +11807,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800518</v>
+        <v>6800519</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,10 +11830,10 @@
         <v>45304.59375</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11845,41 +11845,41 @@
         <v>43</v>
       </c>
       <c r="K128">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N128">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11887,16 +11887,16 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800054</v>
+        <v>6800520</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>19</v>
+        <v>1.85</v>
       </c>
       <c r="N129">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>15</v>
+        <v>1.95</v>
       </c>
       <c r="Q129">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
       <c r="T129">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800517</v>
+        <v>6800053</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,73 +12008,73 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K130">
+        <v>2.3</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>2.75</v>
+      </c>
+      <c r="N130">
+        <v>2.75</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
         <v>2.4</v>
-      </c>
-      <c r="L130">
-        <v>3.9</v>
-      </c>
-      <c r="M130">
-        <v>2.375</v>
-      </c>
-      <c r="N130">
-        <v>2.5</v>
-      </c>
-      <c r="O130">
-        <v>4</v>
-      </c>
-      <c r="P130">
-        <v>2.25</v>
       </c>
       <c r="Q130">
         <v>0</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y130">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6800520</v>
+        <v>6800517</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,55 +12097,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M131">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N131">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12154,19 +12154,19 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.95</v>
+        <v>1.25</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800519</v>
+        <v>6800518</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,10 +12186,10 @@
         <v>45304.59375</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12201,41 +12201,41 @@
         <v>43</v>
       </c>
       <c r="K132">
+        <v>2.2</v>
+      </c>
+      <c r="L132">
+        <v>3.75</v>
+      </c>
+      <c r="M132">
+        <v>2.7</v>
+      </c>
+      <c r="N132">
+        <v>2.25</v>
+      </c>
+      <c r="O132">
+        <v>3.8</v>
+      </c>
+      <c r="P132">
         <v>2.6</v>
       </c>
-      <c r="L132">
-        <v>3.5</v>
-      </c>
-      <c r="M132">
-        <v>2.375</v>
-      </c>
-      <c r="N132">
-        <v>2.55</v>
-      </c>
-      <c r="O132">
-        <v>3.4</v>
-      </c>
-      <c r="P132">
-        <v>2.5</v>
-      </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
         <v>1.975</v>
       </c>
-      <c r="V132">
-        <v>1.825</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
@@ -12243,16 +12243,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800053</v>
+        <v>6800054</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K133">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="M133">
-        <v>2.75</v>
+        <v>19</v>
       </c>
       <c r="N133">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P133">
-        <v>2.4</v>
+        <v>15</v>
       </c>
       <c r="Q133">
+        <v>-2.5</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>4</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
+        <v>1.825</v>
+      </c>
+      <c r="W133">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>0.825</v>
+      </c>
+      <c r="AB133">
         <v>0</v>
       </c>
-      <c r="R133">
-        <v>2.025</v>
-      </c>
-      <c r="S133">
-        <v>1.775</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
-      <c r="U133">
-        <v>1.9</v>
-      </c>
-      <c r="V133">
-        <v>1.9</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>2.4</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
-      <c r="Z133">
-        <v>0</v>
-      </c>
-      <c r="AA133">
+      <c r="AC133">
         <v>-0</v>
-      </c>
-      <c r="AB133">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC133">
-        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,10 +12364,10 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s">
         <v>37</v>
-      </c>
-      <c r="G134" t="s">
-        <v>36</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12453,7 +12453,7 @@
         <v>45324.70833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12545,7 +12545,7 @@
         <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12720,10 +12720,10 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12898,7 +12898,7 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
         <v>29</v>
@@ -12990,7 +12990,7 @@
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13076,7 +13076,7 @@
         <v>45331.70833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13165,7 +13165,7 @@
         <v>45332.40625</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13257,7 +13257,7 @@
         <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13343,10 +13343,10 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721608</v>
+        <v>7721586</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K146">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M146">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="N146">
+        <v>13</v>
+      </c>
+      <c r="O146">
+        <v>7.5</v>
+      </c>
+      <c r="P146">
+        <v>1.142</v>
+      </c>
+      <c r="Q146">
         <v>2.25</v>
       </c>
-      <c r="O146">
-        <v>3.25</v>
-      </c>
-      <c r="P146">
-        <v>2.9</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>1.85</v>
+      </c>
+      <c r="T146">
+        <v>3.5</v>
+      </c>
+      <c r="U146">
+        <v>1.8</v>
+      </c>
+      <c r="V146">
         <v>2</v>
       </c>
-      <c r="S146">
-        <v>1.8</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7721586</v>
+        <v>7721608</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,76 +13521,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="N147">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P147">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.925</v>
+      </c>
+      <c r="V147">
+        <v>1.875</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>2.25</v>
       </c>
-      <c r="R147">
-        <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.85</v>
-      </c>
-      <c r="T147">
-        <v>3.5</v>
-      </c>
-      <c r="U147">
-        <v>1.8</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,10 +13610,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13699,7 +13699,7 @@
         <v>45346.38541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -13791,7 +13791,7 @@
         <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13877,10 +13877,10 @@
         <v>45346.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13966,7 +13966,7 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -14055,10 +14055,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14236,7 +14236,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14322,10 +14322,10 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14411,7 +14411,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
         <v>40</v>
@@ -14500,10 +14500,10 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -14681,7 +14681,7 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14770,7 +14770,7 @@
         <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7721617</v>
+        <v>7721592</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,49 +14945,49 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>41</v>
       </c>
       <c r="K163">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L163">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="O163">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R163">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
         <v>2</v>
@@ -14996,7 +14996,7 @@
         <v>1.8</v>
       </c>
       <c r="W163">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15005,7 +15005,7 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7721592</v>
+        <v>7721617</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,49 +15034,49 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>41</v>
       </c>
       <c r="K164">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M164">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N164">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P164">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q164">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
         <v>2</v>
@@ -15085,7 +15085,7 @@
         <v>1.8</v>
       </c>
       <c r="W164">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15094,7 +15094,7 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA164">
         <v>-1</v>
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7721568</v>
+        <v>7721593</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,10 +15123,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15138,25 +15138,25 @@
         <v>43</v>
       </c>
       <c r="K165">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M165">
+        <v>1.166</v>
+      </c>
+      <c r="N165">
+        <v>12</v>
+      </c>
+      <c r="O165">
+        <v>6.5</v>
+      </c>
+      <c r="P165">
+        <v>1.166</v>
+      </c>
+      <c r="Q165">
         <v>2.25</v>
-      </c>
-      <c r="N165">
-        <v>3.1</v>
-      </c>
-      <c r="O165">
-        <v>3.6</v>
-      </c>
-      <c r="P165">
-        <v>1.95</v>
-      </c>
-      <c r="Q165">
-        <v>0.5</v>
       </c>
       <c r="R165">
         <v>1.85</v>
@@ -15165,13 +15165,13 @@
         <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15180,19 +15180,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.95</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7721593</v>
+        <v>7721568</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,10 +15212,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15227,25 +15227,25 @@
         <v>43</v>
       </c>
       <c r="K166">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="L166">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="N166">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="O166">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="Q166">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
         <v>1.85</v>
@@ -15254,13 +15254,13 @@
         <v>1.95</v>
       </c>
       <c r="T166">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15269,19 +15269,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.1659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>34</v>
@@ -15390,7 +15390,7 @@
         <v>45367.59375</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
         <v>40</v>
@@ -15479,10 +15479,10 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>1</v>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800440</v>
+        <v>6800841</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>2.4</v>
+        <v>17</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>2.625</v>
+        <v>1.083</v>
       </c>
       <c r="N22">
-        <v>2.45</v>
+        <v>23</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="P22">
-        <v>2.55</v>
+        <v>1.071</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800841</v>
+        <v>6800441</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>17</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>1.083</v>
+        <v>4.5</v>
       </c>
       <c r="N23">
-        <v>23</v>
+        <v>1.45</v>
       </c>
       <c r="O23">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
-        <v>1.071</v>
+        <v>5.75</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800441</v>
+        <v>6800440</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,73 +2574,73 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N24">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="V24">
-        <v>1.875</v>
-      </c>
       <c r="W24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6800443</v>
+        <v>6800022</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>3.5</v>
+      </c>
+      <c r="L26">
+        <v>3.6</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
+        <v>3.5</v>
+      </c>
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26">
+        <v>1.909</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.85</v>
+      </c>
+      <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.8</v>
+      </c>
+      <c r="V26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26">
-        <v>2.7</v>
-      </c>
-      <c r="L26">
-        <v>3.25</v>
-      </c>
-      <c r="M26">
-        <v>2.3</v>
-      </c>
-      <c r="N26">
-        <v>2.4</v>
-      </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
-      <c r="P26">
-        <v>2.7</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.775</v>
-      </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.85</v>
-      </c>
       <c r="W26">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6800022</v>
+        <v>6800023</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>1.8</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="P27">
-        <v>1.909</v>
+        <v>41</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>-4.25</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6800023</v>
+        <v>6800443</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,58 +2930,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>41</v>
       </c>
       <c r="K28">
-        <v>1.02</v>
+        <v>2.7</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>2.3</v>
       </c>
       <c r="N28">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="O28">
-        <v>21</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>41</v>
+        <v>2.7</v>
       </c>
       <c r="Q28">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T28">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>0.02000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,13 +2990,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800446</v>
+        <v>6800444</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,16 +3019,16 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>41</v>
@@ -3037,40 +3037,40 @@
         <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N29">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,16 +3079,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6800445</v>
+        <v>6800446</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
+        <v>3.4</v>
+      </c>
+      <c r="M30">
+        <v>2.75</v>
+      </c>
+      <c r="N30">
+        <v>2.05</v>
+      </c>
+      <c r="O30">
+        <v>3.4</v>
+      </c>
+      <c r="P30">
         <v>3.2</v>
       </c>
-      <c r="M30">
-        <v>2.625</v>
-      </c>
-      <c r="N30">
-        <v>2.7</v>
-      </c>
-      <c r="O30">
-        <v>3.25</v>
-      </c>
-      <c r="P30">
-        <v>2.4</v>
-      </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.95</v>
+      </c>
+      <c r="V30">
         <v>1.85</v>
       </c>
-      <c r="V30">
-        <v>1.95</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6800444</v>
+        <v>6800445</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,73 +3197,73 @@
         <v>45171.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N31">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O31">
         <v>3.25</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6800461</v>
+        <v>6800459</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,61 +5155,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K53">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L53">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5218,13 +5218,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800459</v>
+        <v>6800461</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,61 +5244,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N54">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X54">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5307,13 +5307,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6800033</v>
+        <v>6800470</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>41</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N64">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O64">
         <v>3.6</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q64">
+        <v>-1</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.9</v>
+      </c>
+      <c r="V64">
+        <v>1.9</v>
+      </c>
+      <c r="W64">
+        <v>0.571</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>-0</v>
+      </c>
+      <c r="AB64">
+        <v>0.45</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>1.975</v>
-      </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
-      <c r="T64">
-        <v>3</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
-      <c r="W64">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.95</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6800470</v>
+        <v>6800034</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K65">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M65">
-        <v>4.75</v>
+        <v>1.285</v>
       </c>
       <c r="N65">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800034</v>
+        <v>6800033</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,40 +6312,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K66">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O66">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>1.222</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6357,28 +6357,28 @@
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800042</v>
+        <v>6800486</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="L87">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N87">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O87">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6800487</v>
+        <v>6800042</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="N88">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P88">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6800486</v>
+        <v>6800487</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,58 +8359,58 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
       </c>
       <c r="K89">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L89">
         <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>4.25</v>
+        <v>0.75</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8419,13 +8419,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6800490</v>
+        <v>6800491</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
+        <v>1.8</v>
+      </c>
+      <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
+        <v>3.6</v>
+      </c>
+      <c r="N92">
+        <v>1.85</v>
+      </c>
+      <c r="O92">
+        <v>3.5</v>
+      </c>
+      <c r="P92">
+        <v>3.6</v>
+      </c>
+      <c r="Q92">
+        <v>-0.5</v>
+      </c>
+      <c r="R92">
+        <v>1.9</v>
+      </c>
+      <c r="S92">
+        <v>1.9</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
         <v>2</v>
       </c>
-      <c r="L92">
-        <v>4</v>
-      </c>
-      <c r="M92">
-        <v>2.75</v>
-      </c>
-      <c r="N92">
-        <v>2.15</v>
-      </c>
-      <c r="O92">
-        <v>3.75</v>
-      </c>
-      <c r="P92">
+      <c r="V92">
+        <v>1.8</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
         <v>2.6</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.725</v>
-      </c>
-      <c r="S92">
-        <v>2.075</v>
-      </c>
-      <c r="T92">
-        <v>2.5</v>
-      </c>
-      <c r="U92">
-        <v>1.925</v>
-      </c>
-      <c r="V92">
-        <v>1.875</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>2.75</v>
-      </c>
-      <c r="Y92">
-        <v>-1</v>
-      </c>
       <c r="Z92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800489</v>
+        <v>6800490</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>42</v>
+      </c>
+      <c r="K93">
         <v>2</v>
       </c>
-      <c r="J93" t="s">
-        <v>43</v>
-      </c>
-      <c r="K93">
-        <v>1.333</v>
-      </c>
       <c r="L93">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N93">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O93">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y93">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800491</v>
+        <v>6800043</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,13 +8804,13 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -8819,25 +8819,25 @@
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P94">
         <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8846,13 +8846,13 @@
         <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8870,10 +8870,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6800043</v>
+        <v>6800489</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,40 +8893,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>2</v>
-      </c>
-      <c r="I95">
-        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M95">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N95">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8938,10 +8938,10 @@
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8950,7 +8950,7 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800495</v>
+        <v>6800493</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N98">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
         <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X98">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800493</v>
+        <v>6800492</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
         <v>3.75</v>
       </c>
       <c r="M99">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800492</v>
+        <v>6800495</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9353,61 +9353,61 @@
         <v>42</v>
       </c>
       <c r="K100">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800497</v>
+        <v>6800048</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,40 +9694,40 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="O104">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
         <v>1.85</v>
@@ -9736,34 +9736,34 @@
         <v>1.95</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
+        <v>1.975</v>
+      </c>
+      <c r="V104">
         <v>1.825</v>
       </c>
-      <c r="V104">
-        <v>1.975</v>
-      </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800048</v>
+        <v>6800497</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,40 +9783,40 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M105">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.85</v>
@@ -9825,34 +9825,34 @@
         <v>1.95</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
         <v>1.975</v>
       </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800503</v>
+        <v>6800050</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,58 +10050,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>41</v>
       </c>
       <c r="K108">
-        <v>1.2</v>
+        <v>1.071</v>
       </c>
       <c r="L108">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="M108">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N108">
-        <v>1.142</v>
+        <v>1.083</v>
       </c>
       <c r="O108">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P108">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q108">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>0.1419999999999999</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10110,16 +10110,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800050</v>
+        <v>6800503</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,58 +10139,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>41</v>
       </c>
       <c r="K109">
-        <v>1.071</v>
+        <v>1.2</v>
       </c>
       <c r="L109">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="M109">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N109">
-        <v>1.083</v>
+        <v>1.142</v>
       </c>
       <c r="O109">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P109">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.95</v>
+      </c>
+      <c r="V109">
         <v>1.85</v>
       </c>
-      <c r="S109">
-        <v>1.95</v>
-      </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.975</v>
-      </c>
-      <c r="V109">
-        <v>1.825</v>
-      </c>
       <c r="W109">
-        <v>0.08299999999999996</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10199,16 +10199,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6800513</v>
+        <v>6800514</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,46 +11029,46 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N119">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T119">
         <v>2.25</v>
@@ -11080,25 +11080,25 @@
         <v>2.025</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X119">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800514</v>
+        <v>6800515</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,76 +11118,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
+        <v>3.2</v>
+      </c>
+      <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
         <v>2.05</v>
       </c>
-      <c r="L120">
+      <c r="N120">
+        <v>2.45</v>
+      </c>
+      <c r="O120">
         <v>3.3</v>
       </c>
-      <c r="M120">
-        <v>3.2</v>
-      </c>
-      <c r="N120">
-        <v>2.375</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
       <c r="P120">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800515</v>
+        <v>6800513</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,55 +11207,55 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
       </c>
       <c r="K121">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N121">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O121">
         <v>3.3</v>
       </c>
       <c r="P121">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
         <v>1.85</v>
       </c>
-      <c r="S121">
-        <v>1.95</v>
-      </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11267,16 +11267,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800520</v>
+        <v>6800518</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,55 +11919,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L129">
         <v>3.75</v>
       </c>
       <c r="M129">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11976,19 +11976,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.95</v>
+        <v>1.6</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800053</v>
+        <v>6800517</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,73 +12008,73 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M130">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q130">
         <v>0</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6800517</v>
+        <v>6800054</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>41</v>
+      </c>
+      <c r="K131">
+        <v>1.1</v>
+      </c>
+      <c r="L131">
+        <v>10</v>
+      </c>
+      <c r="M131">
+        <v>19</v>
+      </c>
+      <c r="N131">
+        <v>1.142</v>
+      </c>
+      <c r="O131">
+        <v>8.5</v>
+      </c>
+      <c r="P131">
+        <v>15</v>
+      </c>
+      <c r="Q131">
+        <v>-2.5</v>
+      </c>
+      <c r="R131">
+        <v>1.975</v>
+      </c>
+      <c r="S131">
+        <v>1.825</v>
+      </c>
+      <c r="T131">
         <v>4</v>
       </c>
-      <c r="J131" t="s">
-        <v>43</v>
-      </c>
-      <c r="K131">
-        <v>2.4</v>
-      </c>
-      <c r="L131">
-        <v>3.9</v>
-      </c>
-      <c r="M131">
-        <v>2.375</v>
-      </c>
-      <c r="N131">
-        <v>2.5</v>
-      </c>
-      <c r="O131">
-        <v>4</v>
-      </c>
-      <c r="P131">
-        <v>2.25</v>
-      </c>
-      <c r="Q131">
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.825</v>
+      </c>
+      <c r="AB131">
         <v>0</v>
       </c>
-      <c r="R131">
-        <v>2</v>
-      </c>
-      <c r="S131">
-        <v>1.8</v>
-      </c>
-      <c r="T131">
-        <v>2.75</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>1.25</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>0.8</v>
-      </c>
-      <c r="AB131">
-        <v>0.875</v>
-      </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800518</v>
+        <v>6800053</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,40 +12186,40 @@
         <v>45304.59375</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O132">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
         <v>2.025</v>
@@ -12231,28 +12231,28 @@
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800054</v>
+        <v>6800520</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>19</v>
+        <v>1.85</v>
       </c>
       <c r="N133">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="O133">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>15</v>
+        <v>1.95</v>
       </c>
       <c r="Q133">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
         <v>1.975</v>
       </c>
-      <c r="S133">
-        <v>1.825</v>
-      </c>
       <c r="T133">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7721583</v>
+        <v>7721605</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="N140">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="O140">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7721605</v>
+        <v>7721583</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>1.3</v>
       </c>
       <c r="N141">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="142" spans="1:29">

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -121,13 +121,13 @@
     <t>Colwyn Bay</t>
   </si>
   <si>
-    <t>Connahs Quay</t>
+    <t>Caernarfon Town</t>
   </si>
   <si>
     <t>Penybont</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
+    <t>Connahs Quay</t>
   </si>
   <si>
     <t>Pontypridd Town</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6800427</v>
+        <v>6800017</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,55 +1153,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6800017</v>
+        <v>6800427</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,55 +1331,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1687,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6800437</v>
+        <v>6800020</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>1.04</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>41</v>
+      </c>
+      <c r="N17">
+        <v>1.055</v>
+      </c>
+      <c r="O17">
+        <v>12</v>
+      </c>
+      <c r="P17">
+        <v>29</v>
+      </c>
+      <c r="Q17">
+        <v>-3.25</v>
+      </c>
+      <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>1.8</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>11</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.875</v>
+      </c>
+      <c r="AB17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>1.727</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>3.8</v>
-      </c>
-      <c r="N17">
-        <v>1.7</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>4.333</v>
-      </c>
-      <c r="Q17">
-        <v>-0.75</v>
-      </c>
-      <c r="R17">
-        <v>1.95</v>
-      </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
-      <c r="W17">
-        <v>0.7</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0.475</v>
-      </c>
-      <c r="AA17">
-        <v>-0.5</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6800020</v>
+        <v>6800437</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>1.04</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>3.8</v>
       </c>
       <c r="N18">
-        <v>1.055</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>29</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X18">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800841</v>
+        <v>6800440</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>2.4</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>2.625</v>
+      </c>
+      <c r="N22">
+        <v>2.45</v>
+      </c>
+      <c r="O22">
+        <v>3.4</v>
+      </c>
+      <c r="P22">
+        <v>2.55</v>
+      </c>
+      <c r="Q22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>17</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>1.083</v>
-      </c>
-      <c r="N22">
-        <v>23</v>
-      </c>
-      <c r="O22">
-        <v>12</v>
-      </c>
-      <c r="P22">
-        <v>1.071</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y22">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800440</v>
+        <v>6800841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>17</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>1.083</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>23</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="P24">
-        <v>2.55</v>
+        <v>1.071</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6800022</v>
+        <v>6800443</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>2.7</v>
+      </c>
+      <c r="L26">
+        <v>3.25</v>
+      </c>
+      <c r="M26">
+        <v>2.3</v>
+      </c>
+      <c r="N26">
+        <v>2.4</v>
+      </c>
+      <c r="O26">
+        <v>3.25</v>
+      </c>
+      <c r="P26">
+        <v>2.7</v>
+      </c>
+      <c r="Q26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>3.5</v>
-      </c>
-      <c r="L26">
-        <v>3.6</v>
-      </c>
-      <c r="M26">
-        <v>1.8</v>
-      </c>
-      <c r="N26">
-        <v>3.5</v>
-      </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
-      <c r="P26">
-        <v>1.909</v>
-      </c>
-      <c r="Q26">
-        <v>0.5</v>
-      </c>
       <c r="R26">
+        <v>1.775</v>
+      </c>
+      <c r="S26">
+        <v>2.025</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.95</v>
+      </c>
+      <c r="V26">
         <v>1.85</v>
       </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.95</v>
-      </c>
-      <c r="AB26">
-        <v>0.8</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6800443</v>
+        <v>6800022</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,73 +2930,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>3.5</v>
+      </c>
+      <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
+        <v>1.8</v>
+      </c>
+      <c r="N28">
+        <v>3.5</v>
+      </c>
+      <c r="O28">
+        <v>3.5</v>
+      </c>
+      <c r="P28">
+        <v>1.909</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
+        <v>1.8</v>
+      </c>
+      <c r="V28">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28">
-        <v>2.7</v>
-      </c>
-      <c r="L28">
-        <v>3.25</v>
-      </c>
-      <c r="M28">
-        <v>2.3</v>
-      </c>
-      <c r="N28">
-        <v>2.4</v>
-      </c>
-      <c r="O28">
-        <v>3.25</v>
-      </c>
-      <c r="P28">
-        <v>2.7</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.775</v>
-      </c>
-      <c r="S28">
-        <v>2.025</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.95</v>
-      </c>
-      <c r="V28">
-        <v>1.85</v>
-      </c>
       <c r="W28">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800444</v>
+        <v>6800446</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,16 +3019,16 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>41</v>
@@ -3037,40 +3037,40 @@
         <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,16 +3079,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6800446</v>
+        <v>6800445</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>2.375</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>2.625</v>
+      </c>
+      <c r="N30">
+        <v>2.7</v>
+      </c>
+      <c r="O30">
+        <v>3.25</v>
+      </c>
+      <c r="P30">
+        <v>2.4</v>
+      </c>
+      <c r="Q30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>2.2</v>
-      </c>
-      <c r="L30">
-        <v>3.4</v>
-      </c>
-      <c r="M30">
-        <v>2.75</v>
-      </c>
-      <c r="N30">
-        <v>2.05</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.2</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
         <v>1.95</v>
       </c>
-      <c r="V30">
-        <v>1.85</v>
-      </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6800445</v>
+        <v>6800444</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,73 +3197,73 @@
         <v>45171.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N31">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O31">
         <v>3.25</v>
       </c>
       <c r="P31">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3467,7 +3467,7 @@
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -4179,7 +4179,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4265,7 +4265,7 @@
         <v>45185.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -4713,7 +4713,7 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>45192.55208333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>38</v>
@@ -4888,7 +4888,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5066,7 +5066,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6800459</v>
+        <v>6800461</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,61 +5155,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N53">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X53">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5218,13 +5218,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800461</v>
+        <v>6800459</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,61 +5244,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L54">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O54">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5307,13 +5307,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>45199.55208333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -6048,7 +6048,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6800470</v>
+        <v>6800033</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,58 +6134,58 @@
         <v>45206.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>41</v>
       </c>
       <c r="K64">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N64">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O64">
         <v>3.6</v>
       </c>
       <c r="P64">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6194,16 +6194,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6800034</v>
+        <v>6800470</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>4</v>
-      </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="L65">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>1.285</v>
+        <v>4.75</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="O65">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="Q65">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800033</v>
+        <v>6800034</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,40 +6312,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>4</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N66">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P66">
-        <v>3.3</v>
+        <v>1.222</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6357,28 +6357,28 @@
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6757,7 +6757,7 @@
         <v>45216.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -6846,7 +6846,7 @@
         <v>45217.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6938,7 +6938,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7113,7 +7113,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
@@ -7380,10 +7380,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
         <v>35</v>
-      </c>
-      <c r="G78" t="s">
-        <v>37</v>
       </c>
       <c r="H78">
         <v>6</v>
@@ -7914,7 +7914,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>36</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800486</v>
+        <v>6800042</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N87">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P87">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
+        <v>1.825</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
         <v>1.85</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
       <c r="W87">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.95</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6800042</v>
+        <v>6800487</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
+      <c r="J88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88">
+        <v>1.666</v>
+      </c>
+      <c r="L88">
+        <v>3.75</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>1.75</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>3.75</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
         <v>2</v>
       </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
-        <v>6</v>
-      </c>
-      <c r="M88">
-        <v>1.25</v>
-      </c>
-      <c r="N88">
-        <v>6.5</v>
-      </c>
-      <c r="O88">
-        <v>5.75</v>
-      </c>
-      <c r="P88">
-        <v>1.3</v>
-      </c>
-      <c r="Q88">
-        <v>1.5</v>
-      </c>
-      <c r="R88">
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
         <v>1.975</v>
       </c>
-      <c r="S88">
-        <v>1.825</v>
-      </c>
-      <c r="T88">
-        <v>3.25</v>
-      </c>
-      <c r="U88">
-        <v>1.85</v>
-      </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.825</v>
       </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6800487</v>
+        <v>6800486</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,58 +8359,58 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L89">
         <v>3.75</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N89">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>0.75</v>
+        <v>4.25</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8419,13 +8419,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>40</v>
@@ -8893,7 +8893,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9074,7 +9074,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800493</v>
+        <v>6800495</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
         <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800492</v>
+        <v>6800493</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="L99">
         <v>3.75</v>
       </c>
       <c r="M99">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
+        <v>1.775</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.8</v>
       </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800495</v>
+        <v>6800492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9353,61 +9353,61 @@
         <v>42</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N100">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800048</v>
+        <v>6800497</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,40 +9694,40 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M104">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R104">
         <v>1.85</v>
@@ -9736,34 +9736,34 @@
         <v>1.95</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
         <v>1.975</v>
       </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6800497</v>
+        <v>6800048</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,40 +9783,40 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F105" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" t="s">
         <v>35</v>
       </c>
-      <c r="G105" t="s">
-        <v>40</v>
-      </c>
       <c r="H105">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
         <v>1.85</v>
@@ -9825,34 +9825,34 @@
         <v>1.95</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="V105">
-        <v>1.975</v>
-      </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800050</v>
+        <v>6800503</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,58 +10050,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>41</v>
       </c>
       <c r="K108">
-        <v>1.071</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N108">
-        <v>1.083</v>
+        <v>1.142</v>
       </c>
       <c r="O108">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P108">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q108">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="R108">
+        <v>1.775</v>
+      </c>
+      <c r="S108">
+        <v>2.025</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
         <v>1.85</v>
       </c>
-      <c r="S108">
-        <v>1.95</v>
-      </c>
-      <c r="T108">
-        <v>3.5</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
       <c r="W108">
-        <v>0.08299999999999996</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10110,16 +10110,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6800503</v>
+        <v>6800050</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,58 +10139,58 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>41</v>
       </c>
       <c r="K109">
-        <v>1.2</v>
+        <v>1.071</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="M109">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N109">
-        <v>1.142</v>
+        <v>1.083</v>
       </c>
       <c r="O109">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P109">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q109">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.1419999999999999</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10199,16 +10199,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>30</v>
@@ -10498,7 +10498,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10943,7 +10943,7 @@
         <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800515</v>
+        <v>6800513</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,55 +11118,55 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>42</v>
       </c>
       <c r="K120">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O120">
         <v>3.3</v>
       </c>
       <c r="P120">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
         <v>1.85</v>
       </c>
-      <c r="S120">
-        <v>1.95</v>
-      </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11178,16 +11178,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800513</v>
+        <v>6800515</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,55 +11207,55 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
       </c>
       <c r="K121">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N121">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="O121">
         <v>3.3</v>
       </c>
       <c r="P121">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
         <v>1.95</v>
       </c>
-      <c r="S121">
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
         <v>1.85</v>
       </c>
-      <c r="T121">
-        <v>2.25</v>
-      </c>
-      <c r="U121">
-        <v>1.775</v>
-      </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11267,16 +11267,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>-0</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
         <v>0.95</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
-      <c r="AB121">
-        <v>-0.5</v>
-      </c>
-      <c r="AC121">
-        <v>0.5125</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>45291.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>34</v>
@@ -11474,7 +11474,7 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800518</v>
+        <v>6800520</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,55 +11919,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
         <v>3.75</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N129">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11976,19 +11976,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.6</v>
+        <v>0.95</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800517</v>
+        <v>6800054</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>41</v>
+      </c>
+      <c r="K130">
+        <v>1.1</v>
+      </c>
+      <c r="L130">
+        <v>10</v>
+      </c>
+      <c r="M130">
+        <v>19</v>
+      </c>
+      <c r="N130">
+        <v>1.142</v>
+      </c>
+      <c r="O130">
+        <v>8.5</v>
+      </c>
+      <c r="P130">
+        <v>15</v>
+      </c>
+      <c r="Q130">
+        <v>-2.5</v>
+      </c>
+      <c r="R130">
+        <v>1.975</v>
+      </c>
+      <c r="S130">
+        <v>1.825</v>
+      </c>
+      <c r="T130">
         <v>4</v>
       </c>
-      <c r="J130" t="s">
-        <v>43</v>
-      </c>
-      <c r="K130">
-        <v>2.4</v>
-      </c>
-      <c r="L130">
-        <v>3.9</v>
-      </c>
-      <c r="M130">
-        <v>2.375</v>
-      </c>
-      <c r="N130">
-        <v>2.5</v>
-      </c>
-      <c r="O130">
-        <v>4</v>
-      </c>
-      <c r="P130">
-        <v>2.25</v>
-      </c>
-      <c r="Q130">
+      <c r="U130">
+        <v>1.975</v>
+      </c>
+      <c r="V130">
+        <v>1.825</v>
+      </c>
+      <c r="W130">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.825</v>
+      </c>
+      <c r="AB130">
         <v>0</v>
       </c>
-      <c r="R130">
-        <v>2</v>
-      </c>
-      <c r="S130">
-        <v>1.8</v>
-      </c>
-      <c r="T130">
-        <v>2.75</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>1.25</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.8</v>
-      </c>
-      <c r="AB130">
-        <v>0.875</v>
-      </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6800054</v>
+        <v>6800517</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="M131">
-        <v>19</v>
+        <v>2.375</v>
       </c>
       <c r="N131">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="Q131">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6800053</v>
+        <v>6800518</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,40 +12186,40 @@
         <v>45304.59375</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
         <v>2.025</v>
@@ -12231,28 +12231,28 @@
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6800520</v>
+        <v>6800053</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
       </c>
       <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>42</v>
+      </c>
+      <c r="K133">
+        <v>2.3</v>
+      </c>
+      <c r="L133">
+        <v>3.4</v>
+      </c>
+      <c r="M133">
+        <v>2.75</v>
+      </c>
+      <c r="N133">
+        <v>2.75</v>
+      </c>
+      <c r="O133">
+        <v>3.4</v>
+      </c>
+      <c r="P133">
+        <v>2.4</v>
+      </c>
+      <c r="Q133">
         <v>0</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="J133" t="s">
-        <v>43</v>
-      </c>
-      <c r="K133">
-        <v>3.5</v>
-      </c>
-      <c r="L133">
-        <v>3.75</v>
-      </c>
-      <c r="M133">
-        <v>1.85</v>
-      </c>
-      <c r="N133">
-        <v>3.2</v>
-      </c>
-      <c r="O133">
-        <v>3.75</v>
-      </c>
-      <c r="P133">
-        <v>1.95</v>
-      </c>
-      <c r="Q133">
-        <v>0.5</v>
-      </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,10 +12364,10 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F134" t="s">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
         <v>35</v>
-      </c>
-      <c r="G134" t="s">
-        <v>37</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7721605</v>
+        <v>7721583</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M140">
-        <v>3.25</v>
+        <v>1.3</v>
       </c>
       <c r="N140">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7721583</v>
+        <v>7721605</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="N141">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y141">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13257,7 +13257,7 @@
         <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13346,7 +13346,7 @@
         <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13432,7 +13432,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>29</v>
@@ -13877,7 +13877,7 @@
         <v>45346.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
         <v>39</v>
@@ -13966,7 +13966,7 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -14058,7 +14058,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14503,7 +14503,7 @@
         <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -14945,10 +14945,10 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F163" t="s">
+        <v>35</v>
+      </c>
+      <c r="G163" t="s">
         <v>37</v>
-      </c>
-      <c r="G163" t="s">
-        <v>35</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15479,7 +15479,7 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>39</v>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800492</v>
+        <v>6800493</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="L98">
         <v>3.75</v>
       </c>
       <c r="M98">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
+        <v>1.775</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
         <v>2</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="T98">
-        <v>2.75</v>
-      </c>
-      <c r="U98">
-        <v>1.875</v>
-      </c>
-      <c r="V98">
-        <v>1.925</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800493</v>
+        <v>6800495</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
         <v>2.025</v>
-      </c>
-      <c r="S99">
-        <v>1.775</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800495</v>
+        <v>6800492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9353,61 +9353,61 @@
         <v>42</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N100">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800497</v>
+        <v>6800498</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L103">
+        <v>4.2</v>
+      </c>
+      <c r="M103">
+        <v>6</v>
+      </c>
+      <c r="N103">
+        <v>1.4</v>
+      </c>
+      <c r="O103">
+        <v>4.2</v>
+      </c>
+      <c r="P103">
         <v>6.5</v>
       </c>
-      <c r="M103">
-        <v>9</v>
-      </c>
-      <c r="N103">
-        <v>1.166</v>
-      </c>
-      <c r="O103">
-        <v>7.5</v>
-      </c>
-      <c r="P103">
-        <v>10</v>
-      </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800498</v>
+        <v>6800497</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.444</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M104">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>0.3999999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800503</v>
+        <v>6800049</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.142</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="Q108">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>2.025</v>
+      </c>
+      <c r="S108">
         <v>1.775</v>
       </c>
-      <c r="S108">
-        <v>2.025</v>
-      </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800049</v>
+        <v>6800503</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N110">
+        <v>1.142</v>
+      </c>
+      <c r="O110">
+        <v>7</v>
+      </c>
+      <c r="P110">
+        <v>13</v>
+      </c>
+      <c r="Q110">
+        <v>-2</v>
+      </c>
+      <c r="R110">
+        <v>1.775</v>
+      </c>
+      <c r="S110">
+        <v>2.025</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
         <v>1.95</v>
       </c>
-      <c r="O110">
-        <v>3.3</v>
-      </c>
-      <c r="P110">
-        <v>3.25</v>
-      </c>
-      <c r="Q110">
-        <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>2.025</v>
-      </c>
-      <c r="S110">
-        <v>1.775</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721608</v>
+        <v>7721586</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K146">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M146">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="N146">
+        <v>13</v>
+      </c>
+      <c r="O146">
+        <v>7.5</v>
+      </c>
+      <c r="P146">
+        <v>1.142</v>
+      </c>
+      <c r="Q146">
         <v>2.25</v>
       </c>
-      <c r="O146">
-        <v>3.25</v>
-      </c>
-      <c r="P146">
-        <v>2.9</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>1.85</v>
+      </c>
+      <c r="T146">
+        <v>3.5</v>
+      </c>
+      <c r="U146">
+        <v>1.8</v>
+      </c>
+      <c r="V146">
         <v>2</v>
       </c>
-      <c r="S146">
-        <v>1.8</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7721586</v>
+        <v>7721608</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,76 +13521,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="N147">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P147">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.925</v>
+      </c>
+      <c r="V147">
+        <v>1.875</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>2.25</v>
       </c>
-      <c r="R147">
-        <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.85</v>
-      </c>
-      <c r="T147">
-        <v>3.5</v>
-      </c>
-      <c r="U147">
-        <v>1.8</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -15556,7 +15556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7721622</v>
+        <v>7721594</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15568,76 +15568,76 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>42</v>
+      </c>
+      <c r="K170">
+        <v>1.4</v>
+      </c>
+      <c r="L170">
+        <v>4.5</v>
+      </c>
+      <c r="M170">
+        <v>5.75</v>
+      </c>
+      <c r="N170">
+        <v>1.55</v>
+      </c>
+      <c r="O170">
+        <v>4.5</v>
+      </c>
+      <c r="P170">
+        <v>4.5</v>
+      </c>
+      <c r="Q170">
+        <v>-1</v>
+      </c>
+      <c r="R170">
+        <v>1.9</v>
+      </c>
+      <c r="S170">
+        <v>1.9</v>
+      </c>
+      <c r="T170">
+        <v>3</v>
+      </c>
+      <c r="U170">
+        <v>1.8</v>
+      </c>
+      <c r="V170">
+        <v>2</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>3.5</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>1</v>
-      </c>
-      <c r="J170" t="s">
-        <v>43</v>
-      </c>
-      <c r="K170">
-        <v>2.375</v>
-      </c>
-      <c r="L170">
-        <v>3.25</v>
-      </c>
-      <c r="M170">
-        <v>2.6</v>
-      </c>
-      <c r="N170">
-        <v>3</v>
-      </c>
-      <c r="O170">
-        <v>3.2</v>
-      </c>
-      <c r="P170">
-        <v>2.25</v>
-      </c>
-      <c r="Q170">
-        <v>0.25</v>
-      </c>
-      <c r="R170">
-        <v>1.85</v>
-      </c>
-      <c r="S170">
-        <v>1.95</v>
-      </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.95</v>
-      </c>
-      <c r="V170">
-        <v>1.85</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>1.25</v>
-      </c>
-      <c r="Z170">
-        <v>-1</v>
-      </c>
-      <c r="AA170">
-        <v>0.95</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
-      <c r="AC170">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15645,7 +15645,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7721621</v>
+        <v>7721620</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15657,76 +15657,76 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K171">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L171">
+        <v>3.1</v>
+      </c>
+      <c r="M171">
+        <v>2.15</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171">
         <v>3.2</v>
       </c>
-      <c r="M171">
-        <v>3.1</v>
-      </c>
-      <c r="N171">
-        <v>2.3</v>
-      </c>
-      <c r="O171">
-        <v>3.25</v>
-      </c>
       <c r="P171">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
         <v>2.5</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y171">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA171">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15734,7 +15734,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7721620</v>
+        <v>7721621</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15746,76 +15746,76 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K172">
+        <v>2.1</v>
+      </c>
+      <c r="L172">
+        <v>3.2</v>
+      </c>
+      <c r="M172">
         <v>3.1</v>
       </c>
-      <c r="L172">
-        <v>3.1</v>
-      </c>
-      <c r="M172">
-        <v>2.15</v>
-      </c>
       <c r="N172">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="Q172">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
         <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15823,7 +15823,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7721594</v>
+        <v>7721622</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15835,76 +15835,76 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K173">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L173">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N173">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC173"/>
+  <dimension ref="A1:AC175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800493</v>
+        <v>6800492</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
         <v>3.75</v>
       </c>
       <c r="M98">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800495</v>
+        <v>6800493</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N99">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
         <v>1.775</v>
-      </c>
-      <c r="S99">
-        <v>2.025</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800492</v>
+        <v>6800495</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9353,61 +9353,61 @@
         <v>42</v>
       </c>
       <c r="K100">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6800498</v>
+        <v>6800497</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.444</v>
+        <v>1.2</v>
       </c>
       <c r="L103">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P103">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6800497</v>
+        <v>6800498</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L104">
+        <v>4.2</v>
+      </c>
+      <c r="M104">
+        <v>6</v>
+      </c>
+      <c r="N104">
+        <v>1.4</v>
+      </c>
+      <c r="O104">
+        <v>4.2</v>
+      </c>
+      <c r="P104">
         <v>6.5</v>
       </c>
-      <c r="M104">
-        <v>9</v>
-      </c>
-      <c r="N104">
-        <v>1.166</v>
-      </c>
-      <c r="O104">
-        <v>7.5</v>
-      </c>
-      <c r="P104">
-        <v>10</v>
-      </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6800049</v>
+        <v>6800503</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N108">
+        <v>1.142</v>
+      </c>
+      <c r="O108">
+        <v>7</v>
+      </c>
+      <c r="P108">
+        <v>13</v>
+      </c>
+      <c r="Q108">
+        <v>-2</v>
+      </c>
+      <c r="R108">
+        <v>1.775</v>
+      </c>
+      <c r="S108">
+        <v>2.025</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
         <v>1.95</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>3.25</v>
-      </c>
-      <c r="Q108">
-        <v>-0.5</v>
-      </c>
-      <c r="R108">
-        <v>2.025</v>
-      </c>
-      <c r="S108">
-        <v>1.775</v>
-      </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.8</v>
-      </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6800503</v>
+        <v>6800049</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.142</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="Q110">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
+        <v>2.025</v>
+      </c>
+      <c r="S110">
         <v>1.775</v>
       </c>
-      <c r="S110">
-        <v>2.025</v>
-      </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721586</v>
+        <v>7721608</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="L146">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="N146">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.925</v>
+      </c>
+      <c r="V146">
+        <v>1.875</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
         <v>2.25</v>
       </c>
-      <c r="R146">
-        <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.85</v>
-      </c>
-      <c r="T146">
-        <v>3.5</v>
-      </c>
-      <c r="U146">
-        <v>1.8</v>
-      </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
       <c r="Y146">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7721608</v>
+        <v>7721586</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,76 +13521,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="N147">
+        <v>13</v>
+      </c>
+      <c r="O147">
+        <v>7.5</v>
+      </c>
+      <c r="P147">
+        <v>1.142</v>
+      </c>
+      <c r="Q147">
         <v>2.25</v>
       </c>
-      <c r="O147">
-        <v>3.25</v>
-      </c>
-      <c r="P147">
-        <v>2.9</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
       <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>3.5</v>
+      </c>
+      <c r="U147">
+        <v>1.8</v>
+      </c>
+      <c r="V147">
         <v>2</v>
       </c>
-      <c r="S147">
-        <v>1.8</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
-      <c r="V147">
-        <v>1.875</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -15556,7 +15556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7721594</v>
+        <v>7721622</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15568,76 +15568,76 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K170">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L170">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N170">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O170">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15645,7 +15645,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7721620</v>
+        <v>7721621</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15657,76 +15657,76 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K171">
+        <v>2.1</v>
+      </c>
+      <c r="L171">
+        <v>3.2</v>
+      </c>
+      <c r="M171">
         <v>3.1</v>
       </c>
-      <c r="L171">
-        <v>3.1</v>
-      </c>
-      <c r="M171">
-        <v>2.15</v>
-      </c>
       <c r="N171">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P171">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="Q171">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T171">
         <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15734,7 +15734,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7721621</v>
+        <v>7721620</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15746,76 +15746,76 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L172">
+        <v>3.1</v>
+      </c>
+      <c r="M172">
+        <v>2.15</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172">
         <v>3.2</v>
       </c>
-      <c r="M172">
-        <v>3.1</v>
-      </c>
-      <c r="N172">
-        <v>2.3</v>
-      </c>
-      <c r="O172">
-        <v>3.25</v>
-      </c>
       <c r="P172">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
         <v>2.5</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15823,7 +15823,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7721622</v>
+        <v>7721594</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15835,76 +15835,224 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>42</v>
+      </c>
+      <c r="K173">
+        <v>1.4</v>
+      </c>
+      <c r="L173">
+        <v>4.5</v>
+      </c>
+      <c r="M173">
+        <v>5.75</v>
+      </c>
+      <c r="N173">
+        <v>1.55</v>
+      </c>
+      <c r="O173">
+        <v>4.5</v>
+      </c>
+      <c r="P173">
+        <v>4.5</v>
+      </c>
+      <c r="Q173">
+        <v>-1</v>
+      </c>
+      <c r="R173">
+        <v>1.9</v>
+      </c>
+      <c r="S173">
+        <v>1.9</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>1.8</v>
+      </c>
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>3.5</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>1</v>
       </c>
-      <c r="J173" t="s">
-        <v>43</v>
-      </c>
-      <c r="K173">
-        <v>2.375</v>
-      </c>
-      <c r="L173">
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7721623</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45387.65625</v>
+      </c>
+      <c r="F174" t="s">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s">
+        <v>40</v>
+      </c>
+      <c r="K174">
+        <v>1.95</v>
+      </c>
+      <c r="L174">
         <v>3.25</v>
       </c>
-      <c r="M173">
-        <v>2.6</v>
-      </c>
-      <c r="N173">
+      <c r="M174">
+        <v>3.4</v>
+      </c>
+      <c r="N174">
+        <v>1.909</v>
+      </c>
+      <c r="O174">
+        <v>3.25</v>
+      </c>
+      <c r="P174">
+        <v>3.5</v>
+      </c>
+      <c r="Q174">
+        <v>-0.5</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>1.9</v>
+      </c>
+      <c r="V174">
+        <v>1.9</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>7721596</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45387.65625</v>
+      </c>
+      <c r="F175" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" t="s">
+        <v>33</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>3.5</v>
+      </c>
+      <c r="M175">
         <v>3</v>
       </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
-      <c r="P173">
-        <v>2.25</v>
-      </c>
-      <c r="Q173">
-        <v>0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.95</v>
-      </c>
-      <c r="V173">
-        <v>1.85</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>1.25</v>
-      </c>
-      <c r="Z173">
-        <v>-1</v>
-      </c>
-      <c r="AA173">
-        <v>0.95</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
-      <c r="AC173">
-        <v>0.8500000000000001</v>
+      <c r="N175">
+        <v>1.909</v>
+      </c>
+      <c r="O175">
+        <v>3.5</v>
+      </c>
+      <c r="P175">
+        <v>3.1</v>
+      </c>
+      <c r="Q175">
+        <v>-0.5</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>1.8</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
+        <v>1.825</v>
+      </c>
+      <c r="V175">
+        <v>1.975</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Aberystwyth</t>
+    <t>Bala Town</t>
   </si>
   <si>
-    <t>Bala Town</t>
+    <t>Aberystwyth</t>
   </si>
   <si>
     <t>Newtown</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC179"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6800424</v>
+        <v>6800425</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>1.615</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R4">
+        <v>1.85</v>
+      </c>
+      <c r="S4">
         <v>1.95</v>
       </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6800425</v>
+        <v>6800424</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>1.615</v>
       </c>
       <c r="N5">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
       </c>
-      <c r="S5">
-        <v>1.95</v>
-      </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -2132,7 +2132,7 @@
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>45167.66666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6800022</v>
+        <v>6800443</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>2.7</v>
+      </c>
+      <c r="L26">
+        <v>3.25</v>
+      </c>
+      <c r="M26">
+        <v>2.3</v>
+      </c>
+      <c r="N26">
+        <v>2.4</v>
+      </c>
+      <c r="O26">
+        <v>3.25</v>
+      </c>
+      <c r="P26">
+        <v>2.7</v>
+      </c>
+      <c r="Q26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>3.5</v>
-      </c>
-      <c r="L26">
-        <v>3.6</v>
-      </c>
-      <c r="M26">
-        <v>1.8</v>
-      </c>
-      <c r="N26">
-        <v>3.5</v>
-      </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
-      <c r="P26">
-        <v>1.909</v>
-      </c>
-      <c r="Q26">
-        <v>0.5</v>
-      </c>
       <c r="R26">
+        <v>1.775</v>
+      </c>
+      <c r="S26">
+        <v>2.025</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.95</v>
+      </c>
+      <c r="V26">
         <v>1.85</v>
       </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.95</v>
-      </c>
-      <c r="AB26">
-        <v>0.8</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6800443</v>
+        <v>6800022</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>3.5</v>
+      </c>
+      <c r="L27">
+        <v>3.6</v>
+      </c>
+      <c r="M27">
+        <v>1.8</v>
+      </c>
+      <c r="N27">
+        <v>3.5</v>
+      </c>
+      <c r="O27">
+        <v>3.5</v>
+      </c>
+      <c r="P27">
+        <v>1.909</v>
+      </c>
+      <c r="Q27">
+        <v>0.5</v>
+      </c>
+      <c r="R27">
+        <v>1.85</v>
+      </c>
+      <c r="S27">
+        <v>1.95</v>
+      </c>
+      <c r="T27">
+        <v>2.75</v>
+      </c>
+      <c r="U27">
+        <v>1.8</v>
+      </c>
+      <c r="V27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27">
-        <v>2.7</v>
-      </c>
-      <c r="L27">
-        <v>3.25</v>
-      </c>
-      <c r="M27">
-        <v>2.3</v>
-      </c>
-      <c r="N27">
-        <v>2.4</v>
-      </c>
-      <c r="O27">
-        <v>3.25</v>
-      </c>
-      <c r="P27">
-        <v>2.7</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>1.775</v>
-      </c>
-      <c r="S27">
-        <v>2.025</v>
-      </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.95</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
-      </c>
       <c r="W27">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2933,7 +2933,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800445</v>
+        <v>6800446</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
+        <v>3.4</v>
+      </c>
+      <c r="M29">
+        <v>2.75</v>
+      </c>
+      <c r="N29">
+        <v>2.05</v>
+      </c>
+      <c r="O29">
+        <v>3.4</v>
+      </c>
+      <c r="P29">
         <v>3.2</v>
       </c>
-      <c r="M29">
-        <v>2.625</v>
-      </c>
-      <c r="N29">
-        <v>2.7</v>
-      </c>
-      <c r="O29">
-        <v>3.25</v>
-      </c>
-      <c r="P29">
-        <v>2.4</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
+        <v>1.95</v>
+      </c>
+      <c r="V29">
         <v>1.85</v>
       </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB29">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6800446</v>
+        <v>6800445</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45171.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>2.375</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>2.625</v>
+      </c>
+      <c r="N30">
+        <v>2.7</v>
+      </c>
+      <c r="O30">
+        <v>3.25</v>
+      </c>
+      <c r="P30">
+        <v>2.4</v>
+      </c>
+      <c r="Q30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>2.2</v>
-      </c>
-      <c r="L30">
-        <v>3.4</v>
-      </c>
-      <c r="M30">
-        <v>2.75</v>
-      </c>
-      <c r="N30">
-        <v>2.05</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.2</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
         <v>1.95</v>
       </c>
-      <c r="V30">
-        <v>1.85</v>
-      </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>45171.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
@@ -3375,7 +3375,7 @@
         <v>45178.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -3731,7 +3731,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -3823,7 +3823,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4713,7 +4713,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6800459</v>
+        <v>6800030</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,49 +5066,49 @@
         <v>45195.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M52">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="N52">
-        <v>1.95</v>
+        <v>13</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>1.142</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U52">
         <v>1.95</v>
@@ -5120,22 +5120,22 @@
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6800460</v>
+        <v>6800459</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,61 +5155,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K53">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L53">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.181</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5218,13 +5218,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800030</v>
+        <v>6800460</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L54">
+        <v>5.75</v>
+      </c>
+      <c r="M54">
+        <v>7.5</v>
+      </c>
+      <c r="N54">
+        <v>1.181</v>
+      </c>
+      <c r="O54">
         <v>6</v>
       </c>
-      <c r="M54">
-        <v>1.181</v>
-      </c>
-      <c r="N54">
-        <v>13</v>
-      </c>
-      <c r="O54">
-        <v>7.5</v>
-      </c>
       <c r="P54">
-        <v>1.142</v>
+        <v>12</v>
       </c>
       <c r="Q54">
-        <v>2.5</v>
+        <v>-2</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,10 +5333,10 @@
         <v>45196.65625</v>
       </c>
       <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
         <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5603,7 +5603,7 @@
         <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>45205.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>35</v>
@@ -6223,7 +6223,7 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6800473</v>
+        <v>6800475</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,58 +6490,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
         <v>2</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>41</v>
       </c>
       <c r="K68">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
+        <v>2.375</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+      <c r="P68">
         <v>2.15</v>
-      </c>
-      <c r="N68">
-        <v>2.875</v>
-      </c>
-      <c r="O68">
-        <v>3.5</v>
-      </c>
-      <c r="P68">
-        <v>2.1</v>
       </c>
       <c r="Q68">
         <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,13 +6550,13 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6800475</v>
+        <v>6800473</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q69">
         <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,13 +6639,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6760,7 +6760,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6849,7 +6849,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7024,7 +7024,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -7383,7 +7383,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6800041</v>
+        <v>6800042</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,40 +7914,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>4</v>
       </c>
       <c r="J84" t="s">
         <v>43</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M84">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="N84">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P84">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R84">
         <v>1.975</v>
@@ -7956,7 +7956,7 @@
         <v>1.825</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
         <v>1.85</v>
@@ -7971,7 +7971,7 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -7980,10 +7980,10 @@
         <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6800042</v>
+        <v>6800041</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,40 +8003,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="N85">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="O85">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
         <v>1.975</v>
@@ -8045,7 +8045,7 @@
         <v>1.825</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
         <v>1.85</v>
@@ -8060,7 +8060,7 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z85">
         <v>-1</v>
@@ -8069,10 +8069,10 @@
         <v>0.825</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8184,7 +8184,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>45244.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8537,10 +8537,10 @@
         <v>45247.70833333334</v>
       </c>
       <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
         <v>31</v>
-      </c>
-      <c r="G91" t="s">
-        <v>32</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6800043</v>
+        <v>6800489</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,40 +8626,40 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>2</v>
-      </c>
-      <c r="I92">
-        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N92">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O92">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R92">
         <v>1.9</v>
@@ -8671,10 +8671,10 @@
         <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8683,7 +8683,7 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z92">
         <v>-1</v>
@@ -8692,10 +8692,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800489</v>
+        <v>6800490</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>42</v>
+      </c>
+      <c r="K93">
         <v>2</v>
       </c>
-      <c r="J93" t="s">
-        <v>43</v>
-      </c>
-      <c r="K93">
-        <v>1.333</v>
-      </c>
       <c r="L93">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N93">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O93">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y93">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800490</v>
+        <v>6800043</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O94">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P94">
+        <v>3.6</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
+        <v>1.925</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
         <v>2.6</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>1.725</v>
-      </c>
-      <c r="S94">
-        <v>2.075</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.925</v>
-      </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>2.75</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
       <c r="Z94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800492</v>
+        <v>6800495</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,10 +9160,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9175,61 +9175,61 @@
         <v>42</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800495</v>
+        <v>6800492</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,10 +9249,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9264,61 +9264,61 @@
         <v>42</v>
       </c>
       <c r="K99">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N99">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
@@ -9427,7 +9427,7 @@
         <v>45258.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -9697,7 +9697,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9964,7 +9964,7 @@
         <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>45276.59375</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10498,7 +10498,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10587,7 +10587,7 @@
         <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -11118,7 +11118,7 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>33</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800516</v>
+        <v>6800052</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M123">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6800052</v>
+        <v>6800516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45291.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>4</v>
-      </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>45296.70833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
         <v>34</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800054</v>
+        <v>6800518</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
       <c r="J128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="Q128">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
+        <v>2.025</v>
+      </c>
+      <c r="S128">
+        <v>1.775</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
-      <c r="T128">
-        <v>4</v>
-      </c>
-      <c r="U128">
-        <v>1.975</v>
-      </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB128">
         <v>0.825</v>
       </c>
-      <c r="AB128">
-        <v>0</v>
-      </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800519</v>
+        <v>6800054</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,49 +11919,49 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M129">
-        <v>2.375</v>
+        <v>19</v>
       </c>
       <c r="N129">
-        <v>2.55</v>
+        <v>1.142</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P129">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U129">
         <v>1.975</v>
@@ -11970,25 +11970,25 @@
         <v>1.825</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800518</v>
+        <v>6800519</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,10 +12008,10 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12023,41 +12023,41 @@
         <v>43</v>
       </c>
       <c r="K130">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
+        <v>1.975</v>
+      </c>
+      <c r="V130">
         <v>1.825</v>
       </c>
-      <c r="V130">
-        <v>1.975</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
@@ -12065,16 +12065,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12275,7 +12275,7 @@
         <v>45304.59375</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12453,7 +12453,7 @@
         <v>45324.70833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12631,7 +12631,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12987,7 +12987,7 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
@@ -13076,7 +13076,7 @@
         <v>45331.70833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7721585</v>
+        <v>7721564</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,73 +13254,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N144">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7721564</v>
+        <v>7721585</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,73 +13343,73 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13435,7 +13435,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13791,7 +13791,7 @@
         <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14055,7 +14055,7 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>35</v>
@@ -14322,7 +14322,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>40</v>
@@ -14589,7 +14589,7 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
         <v>36</v>
@@ -14948,7 +14948,7 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15304,7 +15304,7 @@
         <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15556,7 +15556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7721621</v>
+        <v>7721622</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15568,55 +15568,55 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
         <v>1</v>
-      </c>
-      <c r="I170">
-        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>43</v>
       </c>
       <c r="K170">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L170">
+        <v>3.25</v>
+      </c>
+      <c r="M170">
+        <v>2.6</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170">
         <v>3.2</v>
       </c>
-      <c r="M170">
-        <v>3.1</v>
-      </c>
-      <c r="N170">
-        <v>2.3</v>
-      </c>
-      <c r="O170">
-        <v>3.25</v>
-      </c>
       <c r="P170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15625,19 +15625,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15823,7 +15823,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7721622</v>
+        <v>7721621</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15835,55 +15835,55 @@
         <v>45380.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>43</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L173">
+        <v>3.2</v>
+      </c>
+      <c r="M173">
+        <v>3.1</v>
+      </c>
+      <c r="N173">
+        <v>2.3</v>
+      </c>
+      <c r="O173">
         <v>3.25</v>
       </c>
-      <c r="M173">
-        <v>2.6</v>
-      </c>
-      <c r="N173">
-        <v>3</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
       <c r="P173">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15892,19 +15892,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15912,7 +15912,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7721597</v>
+        <v>7721623</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15924,13 +15924,13 @@
         <v>45387.65625</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H174">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -15939,43 +15939,43 @@
         <v>41</v>
       </c>
       <c r="K174">
-        <v>1.1</v>
+        <v>1.95</v>
       </c>
       <c r="L174">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="M174">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="N174">
-        <v>1.1</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="Q174">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
+        <v>1.925</v>
+      </c>
+      <c r="S174">
+        <v>1.875</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
         <v>1.975</v>
       </c>
-      <c r="S174">
+      <c r="V174">
         <v>1.825</v>
       </c>
-      <c r="T174">
-        <v>4</v>
-      </c>
-      <c r="U174">
-        <v>1.95</v>
-      </c>
-      <c r="V174">
-        <v>1.85</v>
-      </c>
       <c r="W174">
-        <v>0.1000000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -15984,13 +15984,13 @@
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>0.4625</v>
+      </c>
+      <c r="AA174">
+        <v>-0.5</v>
+      </c>
+      <c r="AB174">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>0.95</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16013,7 +16013,7 @@
         <v>45387.65625</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7721623</v>
+        <v>7721597</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,13 +16102,13 @@
         <v>45387.65625</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -16117,43 +16117,43 @@
         <v>41</v>
       </c>
       <c r="K176">
+        <v>1.1</v>
+      </c>
+      <c r="L176">
+        <v>9</v>
+      </c>
+      <c r="M176">
+        <v>11</v>
+      </c>
+      <c r="N176">
+        <v>1.1</v>
+      </c>
+      <c r="O176">
+        <v>10</v>
+      </c>
+      <c r="P176">
+        <v>17</v>
+      </c>
+      <c r="Q176">
+        <v>-2.75</v>
+      </c>
+      <c r="R176">
+        <v>1.975</v>
+      </c>
+      <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
+        <v>4</v>
+      </c>
+      <c r="U176">
         <v>1.95</v>
       </c>
-      <c r="L176">
-        <v>3.25</v>
-      </c>
-      <c r="M176">
-        <v>3.4</v>
-      </c>
-      <c r="N176">
-        <v>1.666</v>
-      </c>
-      <c r="O176">
-        <v>3.4</v>
-      </c>
-      <c r="P176">
-        <v>4.333</v>
-      </c>
-      <c r="Q176">
-        <v>-0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.925</v>
-      </c>
-      <c r="S176">
-        <v>1.875</v>
-      </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>1.975</v>
-      </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.6659999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16162,238 +16162,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC176">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>7721625</v>
-      </c>
-      <c r="C177" t="s">
-        <v>28</v>
-      </c>
-      <c r="D177" t="s">
-        <v>28</v>
-      </c>
-      <c r="E177" s="2">
-        <v>45388.4375</v>
-      </c>
-      <c r="F177" t="s">
-        <v>34</v>
-      </c>
-      <c r="G177" t="s">
-        <v>39</v>
-      </c>
-      <c r="K177">
-        <v>2.45</v>
-      </c>
-      <c r="L177">
-        <v>3.4</v>
-      </c>
-      <c r="M177">
-        <v>2.45</v>
-      </c>
-      <c r="N177">
-        <v>2.45</v>
-      </c>
-      <c r="O177">
-        <v>3.4</v>
-      </c>
-      <c r="P177">
-        <v>2.45</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>1.9</v>
-      </c>
-      <c r="V177">
-        <v>1.9</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
-      </c>
-      <c r="Y177">
-        <v>0</v>
-      </c>
-      <c r="Z177">
-        <v>0</v>
-      </c>
-      <c r="AA177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>7721570</v>
-      </c>
-      <c r="C178" t="s">
-        <v>28</v>
-      </c>
-      <c r="D178" t="s">
-        <v>28</v>
-      </c>
-      <c r="E178" s="2">
-        <v>45388.4375</v>
-      </c>
-      <c r="F178" t="s">
-        <v>38</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
-      </c>
-      <c r="K178">
-        <v>3.5</v>
-      </c>
-      <c r="L178">
-        <v>3.5</v>
-      </c>
-      <c r="M178">
-        <v>1.833</v>
-      </c>
-      <c r="N178">
-        <v>3.5</v>
-      </c>
-      <c r="O178">
-        <v>3.5</v>
-      </c>
-      <c r="P178">
-        <v>1.833</v>
-      </c>
-      <c r="Q178">
-        <v>0.5</v>
-      </c>
-      <c r="R178">
-        <v>1.925</v>
-      </c>
-      <c r="S178">
-        <v>1.875</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>2</v>
-      </c>
-      <c r="V178">
-        <v>1.8</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>8051924</v>
-      </c>
-      <c r="C179" t="s">
-        <v>28</v>
-      </c>
-      <c r="D179" t="s">
-        <v>28</v>
-      </c>
-      <c r="E179" s="2">
-        <v>45388.55208333334</v>
-      </c>
-      <c r="F179" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" t="s">
-        <v>37</v>
-      </c>
-      <c r="K179">
-        <v>3.5</v>
-      </c>
-      <c r="L179">
-        <v>3.5</v>
-      </c>
-      <c r="M179">
-        <v>1.833</v>
-      </c>
-      <c r="N179">
-        <v>3.8</v>
-      </c>
-      <c r="O179">
-        <v>3.5</v>
-      </c>
-      <c r="P179">
-        <v>1.75</v>
-      </c>
-      <c r="Q179">
-        <v>0.5</v>
-      </c>
-      <c r="R179">
-        <v>2</v>
-      </c>
-      <c r="S179">
-        <v>1.8</v>
-      </c>
-      <c r="T179">
-        <v>2.5</v>
-      </c>
-      <c r="U179">
-        <v>1.9</v>
-      </c>
-      <c r="V179">
-        <v>1.9</v>
-      </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-      <c r="AA179">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6800461</v>
+        <v>6800462</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L51">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="N51">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6800462</v>
+        <v>6800461</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,76 +5066,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M52">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="N52">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P52">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
+        <v>1.925</v>
+      </c>
+      <c r="S52">
         <v>1.875</v>
       </c>
-      <c r="S52">
-        <v>1.925</v>
-      </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6800491</v>
+        <v>6800490</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>2.75</v>
+      </c>
+      <c r="N93">
+        <v>2.15</v>
+      </c>
+      <c r="O93">
+        <v>3.75</v>
+      </c>
+      <c r="P93">
+        <v>2.6</v>
+      </c>
+      <c r="Q93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>3</v>
-      </c>
-      <c r="J93" t="s">
-        <v>43</v>
-      </c>
-      <c r="K93">
-        <v>1.8</v>
-      </c>
-      <c r="L93">
-        <v>3.6</v>
-      </c>
-      <c r="M93">
-        <v>3.6</v>
-      </c>
-      <c r="N93">
-        <v>1.85</v>
-      </c>
-      <c r="O93">
-        <v>3.5</v>
-      </c>
-      <c r="P93">
-        <v>3.6</v>
-      </c>
-      <c r="Q93">
-        <v>-0.5</v>
-      </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
+        <v>1.875</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>2.75</v>
       </c>
-      <c r="U93">
-        <v>2</v>
-      </c>
-      <c r="V93">
-        <v>1.8</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
       <c r="Y93">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6800490</v>
+        <v>6800491</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45249.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94">
+        <v>1.8</v>
+      </c>
+      <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>3.6</v>
+      </c>
+      <c r="N94">
+        <v>1.85</v>
+      </c>
+      <c r="O94">
+        <v>3.5</v>
+      </c>
+      <c r="P94">
+        <v>3.6</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
         <v>2</v>
       </c>
-      <c r="L94">
-        <v>4</v>
-      </c>
-      <c r="M94">
-        <v>2.75</v>
-      </c>
-      <c r="N94">
-        <v>2.15</v>
-      </c>
-      <c r="O94">
-        <v>3.75</v>
-      </c>
-      <c r="P94">
+      <c r="V94">
+        <v>1.8</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
         <v>2.6</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>1.725</v>
-      </c>
-      <c r="S94">
-        <v>2.075</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.925</v>
-      </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>2.75</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
       <c r="Z94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800492</v>
+        <v>6800493</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
+        <v>1.775</v>
+      </c>
+      <c r="T97">
+        <v>2.5</v>
+      </c>
+      <c r="U97">
         <v>2</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.8</v>
       </c>
-      <c r="T97">
-        <v>2.75</v>
-      </c>
-      <c r="U97">
-        <v>1.875</v>
-      </c>
-      <c r="V97">
-        <v>1.925</v>
-      </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800493</v>
+        <v>6800492</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
         <v>3.75</v>
       </c>
       <c r="M98">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6800051</v>
+        <v>6800504</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.083</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>17</v>
+        <v>2.625</v>
       </c>
       <c r="N113">
-        <v>1.071</v>
+        <v>2.875</v>
       </c>
       <c r="O113">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>21</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>-3</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
+        <v>1.775</v>
+      </c>
+      <c r="S113">
+        <v>2.025</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>1.975</v>
+      </c>
+      <c r="V113">
         <v>1.825</v>
       </c>
-      <c r="S113">
-        <v>1.975</v>
-      </c>
-      <c r="T113">
-        <v>4.5</v>
-      </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.025</v>
+      </c>
+      <c r="AB113">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6800507</v>
+        <v>6800051</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K114">
-        <v>3.3</v>
+        <v>1.083</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N114">
-        <v>3.6</v>
+        <v>1.071</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P114">
-        <v>1.909</v>
+        <v>21</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>-3</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6800504</v>
+        <v>6800507</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,55 +10762,55 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="L116">
         <v>3.4</v>
       </c>
       <c r="M116">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10819,19 +10819,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800505</v>
+        <v>6800512</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,49 +10851,49 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="O117">
         <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
         <v>1.85</v>
@@ -10902,25 +10902,25 @@
         <v>1.95</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800512</v>
+        <v>6800505</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,49 +10940,49 @@
         <v>45286.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N118">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="O118">
         <v>3.6</v>
       </c>
       <c r="P118">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
         <v>1.85</v>
@@ -10991,25 +10991,25 @@
         <v>1.95</v>
       </c>
       <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
         <v>0.909</v>
       </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
       <c r="Z118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6800054</v>
+        <v>6800518</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="Q128">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
+        <v>2.025</v>
+      </c>
+      <c r="S128">
+        <v>1.775</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
-      <c r="T128">
-        <v>4</v>
-      </c>
-      <c r="U128">
-        <v>1.975</v>
-      </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB128">
         <v>0.825</v>
       </c>
-      <c r="AB128">
-        <v>0</v>
-      </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6800518</v>
+        <v>6800054</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45304.59375</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>19</v>
       </c>
       <c r="N129">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P129">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R129">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7721604</v>
+        <v>7721563</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K137">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="N137">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O137">
         <v>3.5</v>
       </c>
       <c r="P137">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y137">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7721563</v>
+        <v>7721604</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K138">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="N138">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O138">
         <v>3.5</v>
       </c>
       <c r="P138">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>1.8</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
         <v>1.9</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.9</v>
       </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.825</v>
-      </c>
-      <c r="V138">
-        <v>1.975</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
+        <v>0.45</v>
+      </c>
+      <c r="AC138">
         <v>-0.5</v>
-      </c>
-      <c r="AC138">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7721615</v>
+        <v>7721567</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,49 +14767,49 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K161">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L161">
+        <v>3.5</v>
+      </c>
+      <c r="M161">
+        <v>2.4</v>
+      </c>
+      <c r="N161">
+        <v>1.85</v>
+      </c>
+      <c r="O161">
+        <v>3.5</v>
+      </c>
+      <c r="P161">
         <v>3.6</v>
-      </c>
-      <c r="M161">
-        <v>3.4</v>
-      </c>
-      <c r="N161">
-        <v>1.833</v>
-      </c>
-      <c r="O161">
-        <v>3.6</v>
-      </c>
-      <c r="P161">
-        <v>3.3</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>1.825</v>
@@ -14818,19 +14818,19 @@
         <v>1.975</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X161">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7721567</v>
+        <v>7721615</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,49 +14856,49 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K162">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N162">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q162">
         <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
         <v>1.825</v>
@@ -14907,19 +14907,19 @@
         <v>1.975</v>
       </c>
       <c r="W162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB162">
         <v>-1</v>
@@ -15912,7 +15912,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7721623</v>
+        <v>7721596</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15924,76 +15924,76 @@
         <v>45387.65625</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K174">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O174">
         <v>3.4</v>
       </c>
       <c r="P174">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7721596</v>
+        <v>7721623</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,76 +16102,76 @@
         <v>45387.65625</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O176">
         <v>3.4</v>
       </c>
       <c r="P176">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X176">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
+        <v>0.4625</v>
+      </c>
+      <c r="AA176">
         <v>-0.5</v>
       </c>
-      <c r="AA176">
-        <v>0.475</v>
-      </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6800021</v>
+        <v>6800440</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
+        <v>1.875</v>
+      </c>
+      <c r="V20">
         <v>1.925</v>
       </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6800841</v>
+        <v>6800442</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>1.833</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.083</v>
+        <v>3.8</v>
       </c>
       <c r="N21">
-        <v>23</v>
+        <v>1.727</v>
       </c>
       <c r="O21">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y21">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800442</v>
+        <v>6800441</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N22">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800440</v>
+        <v>6800841</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45167.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>2.4</v>
+        <v>17</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>2.625</v>
+        <v>1.083</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>23</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="P23">
-        <v>2.55</v>
+        <v>1.071</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6800441</v>
+        <v>6800021</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,46 +2574,46 @@
         <v>45167.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N24">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2625,25 +2625,25 @@
         <v>1.875</v>
       </c>
       <c r="W24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6800022</v>
+        <v>6800443</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>2.7</v>
+      </c>
+      <c r="L26">
+        <v>3.25</v>
+      </c>
+      <c r="M26">
+        <v>2.3</v>
+      </c>
+      <c r="N26">
+        <v>2.4</v>
+      </c>
+      <c r="O26">
+        <v>3.25</v>
+      </c>
+      <c r="P26">
+        <v>2.7</v>
+      </c>
+      <c r="Q26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>3.5</v>
-      </c>
-      <c r="L26">
-        <v>3.6</v>
-      </c>
-      <c r="M26">
-        <v>1.8</v>
-      </c>
-      <c r="N26">
-        <v>3.5</v>
-      </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
-      <c r="P26">
-        <v>1.909</v>
-      </c>
-      <c r="Q26">
-        <v>0.5</v>
-      </c>
       <c r="R26">
+        <v>1.775</v>
+      </c>
+      <c r="S26">
+        <v>2.025</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.95</v>
+      </c>
+      <c r="V26">
         <v>1.85</v>
       </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.95</v>
-      </c>
-      <c r="AB26">
-        <v>0.8</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6800443</v>
+        <v>6800022</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>3.5</v>
+      </c>
+      <c r="L27">
+        <v>3.6</v>
+      </c>
+      <c r="M27">
+        <v>1.8</v>
+      </c>
+      <c r="N27">
+        <v>3.5</v>
+      </c>
+      <c r="O27">
+        <v>3.5</v>
+      </c>
+      <c r="P27">
+        <v>1.909</v>
+      </c>
+      <c r="Q27">
+        <v>0.5</v>
+      </c>
+      <c r="R27">
+        <v>1.85</v>
+      </c>
+      <c r="S27">
+        <v>1.95</v>
+      </c>
+      <c r="T27">
+        <v>2.75</v>
+      </c>
+      <c r="U27">
+        <v>1.8</v>
+      </c>
+      <c r="V27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27">
-        <v>2.7</v>
-      </c>
-      <c r="L27">
-        <v>3.25</v>
-      </c>
-      <c r="M27">
-        <v>2.3</v>
-      </c>
-      <c r="N27">
-        <v>2.4</v>
-      </c>
-      <c r="O27">
-        <v>3.25</v>
-      </c>
-      <c r="P27">
-        <v>2.7</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>1.775</v>
-      </c>
-      <c r="S27">
-        <v>2.025</v>
-      </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.95</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
-      </c>
       <c r="W27">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6800462</v>
+        <v>6800461</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M50">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="N50">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P50">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
         <v>1.875</v>
       </c>
-      <c r="S50">
-        <v>1.925</v>
-      </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6800461</v>
+        <v>6800460</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,58 +4977,58 @@
         <v>45195.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
       </c>
       <c r="K51">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N51">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R51">
+        <v>1.9</v>
+      </c>
+      <c r="S51">
+        <v>1.9</v>
+      </c>
+      <c r="T51">
+        <v>3.25</v>
+      </c>
+      <c r="U51">
         <v>1.925</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.875</v>
       </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>2</v>
-      </c>
-      <c r="V51">
-        <v>1.8</v>
-      </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>0.181</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5040,13 +5040,13 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6800460</v>
+        <v>6800462</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L54">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6800034</v>
+        <v>6800033</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,40 +6223,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O65">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>1.222</v>
+        <v>3.3</v>
       </c>
       <c r="Q65">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6268,28 +6268,28 @@
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6800033</v>
+        <v>6800034</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,40 +6312,40 @@
         <v>45206.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>4</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N66">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P66">
-        <v>3.3</v>
+        <v>1.222</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6357,28 +6357,28 @@
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6800039</v>
+        <v>6800480</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45226.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>1.925</v>
+      </c>
+      <c r="S77">
         <v>1.875</v>
       </c>
-      <c r="S77">
-        <v>1.925</v>
-      </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.875</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6800480</v>
+        <v>6800039</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45226.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K78">
+        <v>1.444</v>
+      </c>
+      <c r="L78">
+        <v>4.5</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
         <v>1.333</v>
       </c>
-      <c r="L78">
-        <v>4.8</v>
-      </c>
-      <c r="M78">
+      <c r="O78">
+        <v>5</v>
+      </c>
+      <c r="P78">
         <v>6.5</v>
       </c>
-      <c r="N78">
-        <v>1.4</v>
-      </c>
-      <c r="O78">
-        <v>4.333</v>
-      </c>
-      <c r="P78">
-        <v>5.75</v>
-      </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
         <v>1.925</v>
       </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6800486</v>
+        <v>6800042</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N85">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P85">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R85">
+        <v>1.975</v>
+      </c>
+      <c r="S85">
+        <v>1.825</v>
+      </c>
+      <c r="T85">
+        <v>3.25</v>
+      </c>
+      <c r="U85">
         <v>1.85</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.95</v>
-      </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>0.95</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6800042</v>
+        <v>6800041</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
         <v>43</v>
       </c>
       <c r="K88">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="N88">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="O88">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q88">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
         <v>1.975</v>
@@ -8312,7 +8312,7 @@
         <v>1.825</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U88">
         <v>1.85</v>
@@ -8327,7 +8327,7 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6800041</v>
+        <v>6800486</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,73 +8359,73 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L89">
         <v>3.75</v>
       </c>
       <c r="M89">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800046</v>
+        <v>6800495</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,10 +9071,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9086,61 +9086,61 @@
         <v>41</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N97">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
+        <v>1.775</v>
+      </c>
+      <c r="S97">
+        <v>2.025</v>
+      </c>
+      <c r="T97">
+        <v>2.5</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
+        <v>-0</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800492</v>
+        <v>6800493</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="L98">
         <v>3.75</v>
       </c>
       <c r="M98">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
+        <v>1.775</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
         <v>2</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="T98">
-        <v>2.75</v>
-      </c>
-      <c r="U98">
-        <v>1.875</v>
-      </c>
-      <c r="V98">
-        <v>1.925</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800495</v>
+        <v>6800492</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,10 +9249,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9264,61 +9264,61 @@
         <v>41</v>
       </c>
       <c r="K99">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N99">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800493</v>
+        <v>6800046</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O100">
         <v>3.8</v>
       </c>
       <c r="P100">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6800514</v>
+        <v>6800515</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
+        <v>3.2</v>
+      </c>
+      <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
         <v>2.05</v>
       </c>
-      <c r="L119">
+      <c r="N119">
+        <v>2.45</v>
+      </c>
+      <c r="O119">
         <v>3.3</v>
       </c>
-      <c r="M119">
-        <v>3.2</v>
-      </c>
-      <c r="N119">
-        <v>2.375</v>
-      </c>
-      <c r="O119">
-        <v>3.2</v>
-      </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6800513</v>
+        <v>6800514</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,46 +11118,46 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M120">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
         <v>2.25</v>
@@ -11169,25 +11169,25 @@
         <v>2.025</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X120">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC120">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6800515</v>
+        <v>6800513</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,55 +11207,55 @@
         <v>45290.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>41</v>
       </c>
       <c r="K121">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N121">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O121">
         <v>3.3</v>
       </c>
       <c r="P121">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
         <v>1.85</v>
       </c>
-      <c r="S121">
-        <v>1.95</v>
-      </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11267,16 +11267,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6800518</v>
+        <v>6800517</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,55 +12008,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
         <v>43</v>
       </c>
       <c r="K130">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M130">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
+        <v>2.5</v>
+      </c>
+      <c r="O130">
+        <v>4</v>
+      </c>
+      <c r="P130">
         <v>2.25</v>
       </c>
-      <c r="O130">
-        <v>3.8</v>
-      </c>
-      <c r="P130">
-        <v>2.6</v>
-      </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12065,16 +12065,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6800517</v>
+        <v>6800518</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,55 +12097,55 @@
         <v>45304.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L131">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N131">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12154,16 +12154,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7721609</v>
+        <v>7721608</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,10 +13432,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13447,61 +13447,61 @@
         <v>41</v>
       </c>
       <c r="K146">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L146">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N146">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q146">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
         <v>1.925</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.875</v>
       </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.825</v>
-      </c>
-      <c r="V146">
-        <v>1.975</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
+        <v>0.4</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
         <v>0.875</v>
-      </c>
-      <c r="AB146">
-        <v>-1</v>
-      </c>
-      <c r="AC146">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7721608</v>
+        <v>7721586</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,76 +13521,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="N147">
+        <v>13</v>
+      </c>
+      <c r="O147">
+        <v>7.5</v>
+      </c>
+      <c r="P147">
+        <v>1.142</v>
+      </c>
+      <c r="Q147">
         <v>2.25</v>
       </c>
-      <c r="O147">
-        <v>3.25</v>
-      </c>
-      <c r="P147">
-        <v>2.9</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
       <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>3.5</v>
+      </c>
+      <c r="U147">
+        <v>1.8</v>
+      </c>
+      <c r="V147">
         <v>2</v>
       </c>
-      <c r="S147">
-        <v>1.8</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
-      <c r="V147">
-        <v>1.875</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7721586</v>
+        <v>7721609</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,76 +13610,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K148">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="L148">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M148">
-        <v>1.142</v>
+        <v>5</v>
       </c>
       <c r="N148">
-        <v>13</v>
+        <v>1.4</v>
       </c>
       <c r="O148">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
-        <v>1.142</v>
+        <v>6</v>
       </c>
       <c r="Q148">
-        <v>2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y148">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7721589</v>
+        <v>7721588</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,10 +13966,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13981,22 +13981,22 @@
         <v>42</v>
       </c>
       <c r="K152">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
+        <v>1.7</v>
+      </c>
+      <c r="N152">
+        <v>2.55</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
         <v>2.45</v>
-      </c>
-      <c r="N152">
-        <v>2.375</v>
-      </c>
-      <c r="O152">
-        <v>3.8</v>
-      </c>
-      <c r="P152">
-        <v>2.4</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -14008,16 +14008,16 @@
         <v>1.9</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>1.375</v>
+        <v>1.55</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14035,7 +14035,7 @@
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7721588</v>
+        <v>7721589</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,10 +14055,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14070,22 +14070,22 @@
         <v>42</v>
       </c>
       <c r="K153">
-        <v>3.75</v>
+        <v>2.35</v>
       </c>
       <c r="L153">
+        <v>3.6</v>
+      </c>
+      <c r="M153">
+        <v>2.45</v>
+      </c>
+      <c r="N153">
+        <v>2.375</v>
+      </c>
+      <c r="O153">
         <v>3.8</v>
       </c>
-      <c r="M153">
-        <v>1.7</v>
-      </c>
-      <c r="N153">
-        <v>2.55</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
       <c r="P153">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -14097,16 +14097,16 @@
         <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>1.55</v>
+        <v>1.375</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14124,7 +14124,7 @@
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7721618</v>
+        <v>7721568</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,76 +15123,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H165">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L165">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7721568</v>
+        <v>7721593</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,10 +15212,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15227,25 +15227,25 @@
         <v>43</v>
       </c>
       <c r="K166">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M166">
+        <v>1.166</v>
+      </c>
+      <c r="N166">
+        <v>12</v>
+      </c>
+      <c r="O166">
+        <v>6.5</v>
+      </c>
+      <c r="P166">
+        <v>1.166</v>
+      </c>
+      <c r="Q166">
         <v>2.25</v>
-      </c>
-      <c r="N166">
-        <v>3.1</v>
-      </c>
-      <c r="O166">
-        <v>3.6</v>
-      </c>
-      <c r="P166">
-        <v>1.95</v>
-      </c>
-      <c r="Q166">
-        <v>0.5</v>
       </c>
       <c r="R166">
         <v>1.85</v>
@@ -15254,13 +15254,13 @@
         <v>1.95</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15269,19 +15269,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.95</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15289,7 +15289,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7721593</v>
+        <v>7721618</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15301,76 +15301,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H167">
+        <v>5</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K167">
-        <v>11</v>
+        <v>1.444</v>
       </c>
       <c r="L167">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>12</v>
+        <v>1.444</v>
       </c>
       <c r="O167">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>1.166</v>
+        <v>5.75</v>
       </c>
       <c r="Q167">
-        <v>2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
+        <v>1.925</v>
+      </c>
+      <c r="V167">
         <v>1.875</v>
       </c>
-      <c r="V167">
-        <v>1.925</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15912,7 +15912,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7721596</v>
+        <v>7721597</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15924,76 +15924,76 @@
         <v>45387.65625</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M174">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P174">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>4</v>
+      </c>
+      <c r="U174">
+        <v>1.95</v>
+      </c>
+      <c r="V174">
         <v>1.85</v>
       </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.925</v>
-      </c>
-      <c r="V174">
-        <v>1.875</v>
-      </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X174">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC174">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16001,7 +16001,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7721597</v>
+        <v>7721596</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16013,76 +16013,76 @@
         <v>45387.65625</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K175">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N175">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="O175">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="P175">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q175">
-        <v>-2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W175">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="176" spans="1:29">

--- a/Wales Premier League/Wales Premier League.xlsx
+++ b/Wales Premier League/Wales Premier League.xlsx
@@ -100,10 +100,10 @@
     <t>Wales Premier League</t>
   </si>
   <si>
-    <t>TNS</t>
+    <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Haverfordwest County</t>
+    <t>TNS</t>
   </si>
   <si>
     <t>Aberystwyth</t>
@@ -118,13 +118,13 @@
     <t>Colwyn Bay</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
     <t>Connahs Quay</t>
   </si>
   <si>
     <t>Penybont</t>
+  </si>
+  <si>
+    <t>Caernarfon Town</t>
   </si>
   <si>
     <t>Cardiff MU</t>
@@ -136,10 +136,10 @@
     <t>Barry Town</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6800016</v>
+        <v>6800423</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -610,73 +610,73 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
       </c>
       <c r="J2">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L2">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O2">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="P2">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q2">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T2">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U2">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6800423</v>
+        <v>6800016</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -696,73 +696,73 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>41</v>
       </c>
       <c r="J3">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M3">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>1.3</v>
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6800017</v>
+        <v>6800427</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1126,55 +1126,55 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>1.333</v>
+      </c>
+      <c r="K8">
+        <v>4.5</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>1.4</v>
+      </c>
+      <c r="N8">
+        <v>4.333</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>-1.25</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8">
-        <v>2.25</v>
-      </c>
-      <c r="K8">
-        <v>3.25</v>
-      </c>
-      <c r="L8">
-        <v>2.75</v>
-      </c>
-      <c r="M8">
-        <v>2.5</v>
-      </c>
-      <c r="N8">
-        <v>3.2</v>
-      </c>
-      <c r="O8">
-        <v>2.45</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1.95</v>
-      </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
         <v>2.75</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1183,16 +1183,16 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1200,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6800427</v>
+        <v>6800428</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1212,34 +1212,34 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="N9">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P9">
         <v>-1.25</v>
@@ -1254,13 +1254,13 @@
         <v>2.75</v>
       </c>
       <c r="T9">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,10 +1275,10 @@
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6800428</v>
+        <v>6800017</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1298,55 +1298,55 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O10">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="P10">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
         <v>2.75</v>
       </c>
       <c r="T10">
+        <v>1.85</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
       <c r="V10">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1355,16 +1355,16 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB10">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1470,7 +1470,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>2.3</v>
@@ -1642,7 +1642,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>3.75</v>
@@ -1728,7 +1728,7 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>2.6</v>
@@ -1811,7 +1811,7 @@
         <v>45164.4375</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -1823,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>1.727</v>
@@ -1983,10 +1983,10 @@
         <v>45164.4375</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.571</v>
@@ -2146,7 +2146,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6800442</v>
+        <v>6800841</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2155,76 +2155,76 @@
         <v>45167.65625</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>1.833</v>
+        <v>17</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>1.083</v>
       </c>
       <c r="M20">
-        <v>1.727</v>
+        <v>23</v>
       </c>
       <c r="N20">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>1.071</v>
       </c>
       <c r="P20">
-        <v>-0.75</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
         <v>-1</v>
       </c>
       <c r="W20">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2232,7 +2232,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6800441</v>
+        <v>6800442</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2244,73 +2244,73 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>40</v>
       </c>
       <c r="J21">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="N21">
+        <v>3.5</v>
+      </c>
+      <c r="O21">
         <v>4.333</v>
       </c>
-      <c r="O21">
-        <v>5.75</v>
-      </c>
       <c r="P21">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q21">
+        <v>1.975</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.25</v>
+      </c>
+      <c r="T21">
         <v>1.775</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>2.025</v>
       </c>
-      <c r="S21">
-        <v>2.75</v>
-      </c>
-      <c r="T21">
-        <v>1.925</v>
-      </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
       <c r="V21">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2318,7 +2318,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6800021</v>
+        <v>6800441</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2330,10 +2330,10 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2342,31 +2342,31 @@
         <v>41</v>
       </c>
       <c r="J22">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="K22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="M22">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O22">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
         <v>2.75</v>
@@ -2378,25 +2378,25 @@
         <v>1.875</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2404,7 +2404,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6800841</v>
+        <v>6800021</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2413,67 +2413,67 @@
         <v>45167.65625</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J23">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="K23">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="L23">
-        <v>1.083</v>
+        <v>1.85</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="O23">
-        <v>1.071</v>
+        <v>1.85</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Q23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X23">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z23">
         <v>-1</v>
@@ -2482,7 +2482,7 @@
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2502,7 +2502,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2.4</v>
@@ -2671,7 +2671,7 @@
         <v>45170.65625</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>1.02</v>
@@ -2757,10 +2757,10 @@
         <v>45170.65625</v>
       </c>
       <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>2.7</v>
@@ -2920,7 +2920,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6800446</v>
+        <v>6800445</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2929,76 +2929,76 @@
         <v>45171.4375</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J29">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L29">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M29">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="N29">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="P29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
         <v>2.5</v>
       </c>
       <c r="T29">
+        <v>1.85</v>
+      </c>
+      <c r="U29">
         <v>1.95</v>
       </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
       <c r="V29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3006,7 +3006,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6800445</v>
+        <v>6800446</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3015,76 +3015,76 @@
         <v>45171.4375</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J30">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K30">
+        <v>3.4</v>
+      </c>
+      <c r="L30">
+        <v>2.75</v>
+      </c>
+      <c r="M30">
+        <v>2.05</v>
+      </c>
+      <c r="N30">
+        <v>3.4</v>
+      </c>
+      <c r="O30">
         <v>3.2</v>
       </c>
-      <c r="L30">
-        <v>2.625</v>
-      </c>
-      <c r="M30">
-        <v>2.7</v>
-      </c>
-      <c r="N30">
-        <v>3.25</v>
-      </c>
-      <c r="O30">
-        <v>2.4</v>
-      </c>
       <c r="P30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q30">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
         <v>2.5</v>
       </c>
       <c r="T30">
+        <v>1.95</v>
+      </c>
+      <c r="U30">
         <v>1.85</v>
       </c>
-      <c r="U30">
-        <v>1.95</v>
-      </c>
       <c r="V30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3104,7 +3104,7 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>1.727</v>
@@ -3276,7 +3276,7 @@
         <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3350,7 +3350,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6800449</v>
+        <v>6800450</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3359,55 +3359,55 @@
         <v>45178.4375</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>42</v>
       </c>
       <c r="J34">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="K34">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L34">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="M34">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N34">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
         <v>2.75</v>
       </c>
       <c r="T34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
         <v>-1</v>
@@ -3416,19 +3416,19 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3436,7 +3436,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6800450</v>
+        <v>6800449</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3445,55 +3445,55 @@
         <v>45178.4375</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
         <v>42</v>
       </c>
       <c r="J35">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="K35">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="M35">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O35">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="P35">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
         <v>2.75</v>
       </c>
       <c r="T35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
         <v>-1</v>
@@ -3502,19 +3502,19 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3534,7 +3534,7 @@
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3620,7 +3620,7 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>2.05</v>
@@ -3789,7 +3789,7 @@
         <v>45185.4375</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>1.7</v>
@@ -3875,10 +3875,10 @@
         <v>45185.4375</v>
       </c>
       <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
         <v>28</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>1.062</v>
@@ -3961,10 +3961,10 @@
         <v>45185.4375</v>
       </c>
       <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
         <v>36</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3973,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>1.6</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1.666</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>3.8</v>
@@ -4222,7 +4222,7 @@
         <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4308,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4391,10 +4391,10 @@
         <v>45192.4375</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>5.5</v>
@@ -4649,7 +4649,7 @@
         <v>45192.55208333334</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
         <v>38</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>2.15</v>
@@ -4824,7 +4824,7 @@
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>1.909</v>
@@ -4907,10 +4907,10 @@
         <v>45195.65625</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
         <v>33</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>1.25</v>
@@ -5079,7 +5079,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>1.333</v>
@@ -5251,7 +5251,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>1.05</v>
@@ -5349,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>2.55</v>
@@ -5512,7 +5512,7 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
         <v>30</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>1.7</v>
@@ -5681,10 +5681,10 @@
         <v>45199.55208333334</v>
       </c>
       <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
         <v>35</v>
-      </c>
-      <c r="F61" t="s">
-        <v>36</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5693,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>1.85</v>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>2.1</v>
@@ -5856,7 +5856,7 @@
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>6.5</v>
@@ -5951,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1.615</v>
@@ -6025,10 +6025,10 @@
         <v>45206.4375</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6114,7 +6114,7 @@
         <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6200,7 +6200,7 @@
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6274,7 +6274,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6800475</v>
+        <v>6800473</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6283,58 +6283,58 @@
         <v>45216.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J68">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="K68">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L68">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O68">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P68">
         <v>0.25</v>
       </c>
       <c r="Q68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6343,13 +6343,13 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
         <v>-1</v>
@@ -6360,7 +6360,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6800473</v>
+        <v>6800475</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6369,58 +6369,58 @@
         <v>45216.65625</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
         <v>2</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J69">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="K69">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
+        <v>2.375</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
         <v>2.15</v>
-      </c>
-      <c r="M69">
-        <v>2.875</v>
-      </c>
-      <c r="N69">
-        <v>3.5</v>
-      </c>
-      <c r="O69">
-        <v>2.1</v>
       </c>
       <c r="P69">
         <v>0.25</v>
       </c>
       <c r="Q69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6429,13 +6429,13 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <v>2.6</v>
@@ -6541,7 +6541,7 @@
         <v>45216.65625</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
         <v>30</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>1.4</v>
@@ -6627,7 +6627,7 @@
         <v>45217.65625</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
         <v>32</v>
@@ -6639,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>1.65</v>
@@ -6716,7 +6716,7 @@
         <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6799,7 +6799,7 @@
         <v>45220.4375</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6888,7 +6888,7 @@
         <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.666</v>
@@ -6974,7 +6974,7 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>45226.65625</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -7143,10 +7143,10 @@
         <v>45226.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>6</v>
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.444</v>
@@ -7318,7 +7318,7 @@
         <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>45227.55208333334</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
         <v>32</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>1.142</v>
@@ -7573,7 +7573,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
         <v>33</v>
@@ -7585,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>1.02</v>
@@ -7650,7 +7650,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6800487</v>
+        <v>6800041</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7659,73 +7659,73 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J84">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="K84">
         <v>3.75</v>
       </c>
       <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
+        <v>2.4</v>
+      </c>
+      <c r="N84">
         <v>4</v>
       </c>
-      <c r="M84">
-        <v>1.75</v>
-      </c>
-      <c r="N84">
-        <v>3.6</v>
-      </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="P84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7736,7 +7736,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6800041</v>
+        <v>6800042</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7745,40 +7745,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>2</v>
-      </c>
-      <c r="H85">
-        <v>4</v>
       </c>
       <c r="I85" t="s">
         <v>42</v>
       </c>
       <c r="J85">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="M85">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="O85">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q85">
         <v>1.975</v>
@@ -7787,7 +7787,7 @@
         <v>1.825</v>
       </c>
       <c r="S85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T85">
         <v>1.85</v>
@@ -7802,7 +7802,7 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
@@ -7811,10 +7811,10 @@
         <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7822,7 +7822,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6800042</v>
+        <v>6800484</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7831,76 +7831,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J86">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="K86">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L86">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="M86">
+        <v>1.533</v>
+      </c>
+      <c r="N86">
+        <v>3.75</v>
+      </c>
+      <c r="O86">
         <v>6.5</v>
       </c>
-      <c r="N86">
-        <v>5.75</v>
-      </c>
-      <c r="O86">
-        <v>1.3</v>
-      </c>
       <c r="P86">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T86">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X86">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7908,7 +7908,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6800484</v>
+        <v>6800487</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7917,13 +7917,13 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -7932,61 +7932,61 @@
         <v>41</v>
       </c>
       <c r="J87">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="K87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="N87">
+        <v>3.6</v>
+      </c>
+      <c r="O87">
         <v>3.75</v>
       </c>
-      <c r="O87">
-        <v>6.5</v>
-      </c>
       <c r="P87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -7994,7 +7994,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6800486</v>
+        <v>6800485</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8003,40 +8003,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J88">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L88">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="N88">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O88">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q88">
         <v>1.85</v>
@@ -8048,31 +8048,31 @@
         <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8080,7 +8080,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6800485</v>
+        <v>6800486</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8089,40 +8089,40 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="K89">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="N89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="P89">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>1.85</v>
@@ -8134,31 +8134,31 @@
         <v>2.75</v>
       </c>
       <c r="T89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
         <v>0.95</v>
       </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8347,7 +8347,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -8519,7 +8519,7 @@
         <v>45249.47916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
         <v>31</v>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8605,10 +8605,10 @@
         <v>45249.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8694,7 +8694,7 @@
         <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>4</v>
@@ -8768,7 +8768,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6800046</v>
+        <v>6800495</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8777,10 +8777,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8789,64 +8789,64 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M97">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N97">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="P97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q97">
+        <v>1.775</v>
+      </c>
+      <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
+        <v>2.5</v>
+      </c>
+      <c r="T97">
         <v>1.95</v>
       </c>
-      <c r="R97">
+      <c r="U97">
         <v>1.85</v>
       </c>
-      <c r="S97">
-        <v>3</v>
-      </c>
-      <c r="T97">
-        <v>1.925</v>
-      </c>
-      <c r="U97">
-        <v>1.875</v>
-      </c>
       <c r="V97">
         <v>-1</v>
       </c>
       <c r="W97">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8854,7 +8854,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6800495</v>
+        <v>6800046</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8863,10 +8863,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,64 +8875,64 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O98">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q98">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
         <v>-1</v>
       </c>
       <c r="W98">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8940,7 +8940,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6800493</v>
+        <v>6800492</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8949,13 +8949,13 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -8964,61 +8964,61 @@
         <v>40</v>
       </c>
       <c r="J99">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="K99">
         <v>3.75</v>
       </c>
       <c r="L99">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="M99">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O99">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="P99">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9026,7 +9026,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6800492</v>
+        <v>6800493</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9035,13 +9035,13 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9050,61 +9050,61 @@
         <v>41</v>
       </c>
       <c r="J100">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="K100">
         <v>3.75</v>
       </c>
       <c r="L100">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N100">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O100">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="P100">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q100">
+        <v>2.025</v>
+      </c>
+      <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.5</v>
+      </c>
+      <c r="T100">
         <v>2</v>
       </c>
-      <c r="R100">
+      <c r="U100">
         <v>1.8</v>
       </c>
-      <c r="S100">
-        <v>2.75</v>
-      </c>
-      <c r="T100">
-        <v>1.875</v>
-      </c>
-      <c r="U100">
-        <v>1.925</v>
-      </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9124,7 +9124,7 @@
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9210,7 +9210,7 @@
         <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9305,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9391,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>1.444</v>
@@ -9468,7 +9468,7 @@
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9551,7 +9551,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
         <v>39</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.2</v>
@@ -9637,7 +9637,7